--- a/Supplemantary_data4.xlsx
+++ b/Supplemantary_data4.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\immunity_metabolism1\Shared\Thesis_final_draft\Integrated_analysis_chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9767343-6F00-4D6E-81F2-239AA2AC10B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9816118-6F41-4C39-BC17-ADDBFD5CCB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upregs_mirnas_downregs_target_g" sheetId="1" r:id="rId1"/>
+    <sheet name="down_mirnas_upregs_target_g" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>miRNAs</t>
   </si>
@@ -185,12 +186,276 @@
   </si>
   <si>
     <t>ENSG00000189007,ENSG00000151320,ENSG00000164904,ENSG00000122359,ENSG00000197043,ENSG00000054793,ENSG00000012048,ENSG00000185933,ENSG00000118971,ENSG00000125810,ENSG00000100526,ENSG00000166451,ENSG00000122873,ENSG00000180891,ENSG00000158050,ENSG00000123179,ENSG00000089248,ENSG00000103089,ENSG00000115042,ENSG00000105607,ENSG00000103365,ENSG00000174842,ENSG00000121957,ENSG00000115232,ENSG00000138160,ENSG00000128944,ENSG00000136153,ENSG00000150551,ENSG00000090382,ENSG00000198162,ENSG00000076770,ENSG00000148773,ENSG00000037757,ENSG00000124532,ENSG00000102030,ENSG00000152270,ENSG00000108439,ENSG00000125630,ENSG00000134242,ENSG00000141378,ENSG00000181467,ENSG00000068615,ENSG00000174136,ENSG00000171848,ENSG00000171848,ENSG00000067533,ENSG00000072858,ENSG00000167114,ENSG00000136856,ENSG00000196220,ENSG00000116649,ENSG00000185518,ENSG00000177370,ENSG00000166557,ENSG00000171227,ENSG00000167920,ENSG00000065308,ENSG00000099899,ENSG00000164048</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000038002,ENSG00000137727,ENSG00000151693,ENSG00000133639,ENSG00000131943,ENSG00000151292,ENSG00000175215,ENSG00000183690,ENSG00000117560,ENSG00000023909,ENSG00000062194,ENSG00000106070,ENSG00000113070,ENSG00000095951,ENSG00000188676,ENSG00000077238,ENSG00000137265,ENSG00000143013,ENSG00000198121,ENSG00000123066,ENSG00000008516,ENSG00000166579,ENSG00000145623,ENSG00000181631,ENSG00000114698,ENSG00000146278,ENSG00000133818,ENSG00000074660,ENSG00000136193,ENSG00000198053,ENSG00000146411,ENSG00000124216,ENSG00000153157,ENSG00000196781,ENSG00000104321,ENSG00000196428,ENSG00000213886,ENSG00000177169,ENSG00000162702</t>
+  </si>
+  <si>
+    <t>hsa-let-7f-1-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000165029,ENSG00000154265,ENSG00000196177,ENSG00000114948,ENSG00000042980,ENSG00000087116,ENSG00000042286,ENSG00000117020,ENSG00000136010,ENSG00000148677,ENSG00000221963,ENSG00000242247,ENSG00000165997,ENSG00000113966,ENSG00000163635,ENSG00000117475,ENSG00000163145,ENSG00000104327,ENSG00000152492,ENSG00000101017,ENSG00000085117,ENSG00000158985,ENSG00000101290,ENSG00000172292,ENSG00000163347,ENSG00000169504,ENSG00000130779,ENSG00000242689,ENSG00000135047,ENSG00000055130,ENSG00000169248,ENSG00000172817,ENSG00000070190,ENSG00000188215,ENSG00000136048,ENSG00000136960,ENSG00000001561,ENSG00000073712,ENSG00000075420,ENSG00000131482,ENSG00000139112,ENSG00000162654,ENSG00000176928,ENSG00000164949,ENSG00000198380,ENSG00000175066,ENSG00000107249,ENSG00000158055,ENSG00000151233,ENSG00000068024,ENSG00000122557,ENSG00000010818,ENSG00000159399,ENSG00000110756,ENSG00000153976,ENSG00000169991,ENSG00000146674,ENSG00000123411,ENSG00000125629,ENSG00000105855,ENSG00000205730,ENSG00000157551,ENSG00000147050,ENSG00000102554,ENSG00000179454,ENSG00000186818,ENSG00000204020,ENSG00000137269,ENSG00000137507,ENSG00000069020,ENSG00000140563,ENSG00000111554,ENSG00000105976,ENSG00000104320,ENSG00000189430,ENSG00000144802,ENSG00000101888,ENSG00000119900,ENSG00000165312,ENSG00000076641,ENSG00000162493,ENSG00000197329,ENSG00000170525,ENSG00000145287,ENSG00000196850,ENSG00000057657,ENSG00000005249,ENSG00000171132,ENSG00000126464,ENSG00000135378,ENSG00000073756,ENSG00000069974,ENSG00000127328,ENSG00000006451,ENSG00000127314,ENSG00000184898,ENSG00000092871,ENSG00000164292,ENSG00000163162,ENSG00000101236,ENSG00000137075,ENSG00000171509,ENSG00000156671,ENSG00000138593,ENSG00000166396,ENSG00000104205,ENSG00000108061,ENSG00000117090,ENSG00000112394,ENSG00000138459,ENSG00000134294,ENSG00000137571,ENSG00000101665,ENSG00000188817,ENSG00000112096,ENSG00000138600,ENSG00000168939,ENSG00000075142,ENSG00000141380,ENSG00000184005,ENSG00000164543,ENSG00000204267,ENSG00000105967,ENSG00000177426,ENSG00000169908,ENSG00000128872,ENSG00000145779,ENSG00000056558,ENSG00000123297,ENSG00000145777,ENSG00000188021,ENSG00000111981,ENSG00000058056,ENSG00000148429,ENSG00000038427,ENSG00000175073,ENSG00000146457,ENSG00000176105,ENSG00000119820,ENSG00000196387,ENSG00000010539,ENSG00000125945,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-106b-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000154265,ENSG00000123130,ENSG00000173744,ENSG00000114019,ENSG00000100478,ENSG00000138639,ENSG00000169136,ENSG00000187479,ENSG00000074410,ENSG00000130940,ENSG00000101331,ENSG00000143776,ENSG00000104093,ENSG00000115137,ENSG00000091073,ENSG00000164330,ENSG00000169242,ENSG00000135766,ENSG00000001561,ENSG00000187672,ENSG00000010030,ENSG00000158769,ENSG00000154319,ENSG00000075426,ENSG00000130222,ENSG00000175066,ENSG00000135821,ENSG00000178719,ENSG00000130589,ENSG00000159184,ENSG00000173110,ENSG00000068079,ENSG00000103742,ENSG00000146674,ENSG00000134070,ENSG00000105855,ENSG00000108244,ENSG00000174611,ENSG00000101670,ENSG00000160285,ENSG00000160932,ENSG00000248672,ENSG00000123066,ENSG00000133816,ENSG00000136371,ENSG00000104419,ENSG00000131669,ENSG00000140807,ENSG00000166741,ENSG00000110218,ENSG00000254122,ENSG00000197461,ENSG00000134853,ENSG00000101751,ENSG00000124224,ENSG00000172780,ENSG00000153250,ENSG00000166592,ENSG00000146555,ENSG00000091490,ENSG00000112394,ENSG00000269404,ENSG00000115183,ENSG00000154310,ENSG00000102226</t>
+  </si>
+  <si>
+    <t>hsa-miR-1180-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000185736,ENSG00000174945,ENSG00000100478,ENSG00000172379,ENSG00000110046,ENSG00000205710,ENSG00000163660,ENSG00000108821,ENSG00000108582,ENSG00000175215,ENSG00000117298,ENSG00000173812,ENSG00000134954,ENSG00000173065,ENSG00000180758,ENSG00000013588,ENSG00000180875,ENSG00000121905,ENSG00000162783,ENSG00000169991,ENSG00000114982,ENSG00000118058,ENSG00000156959,ENSG00000143013,ENSG00000123066,ENSG00000099875,ENSG00000169184,ENSG00000145555,ENSG00000104419,ENSG00000070614,ENSG00000235568,ENSG00000168256,ENSG00000124785,ENSG00000198355,ENSG00000146278,ENSG00000173281,ENSG00000169403,ENSG00000175582,ENSG00000109756,ENSG00000163602,ENSG00000198742,ENSG00000162520,ENSG00000182253,ENSG00000204219,ENSG00000140682,ENSG00000145365,ENSG00000124208,ENSG00000179104,ENSG00000145779,ENSG00000168884,ENSG00000056558,ENSG00000116525,ENSG00000100505,ENSG00000196428,ENSG00000148429,ENSG00000168140,ENSG00000038427,ENSG00000205189,ENSG00000130818,ENSG00000102984</t>
+  </si>
+  <si>
+    <t>hsa-miR-1249-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000135503,ENSG00000029534,ENSG00000176915,ENSG00000164236,ENSG00000154856,ENSG00000110046,ENSG00000058063,ENSG00000156127,ENSG00000106605,ENSG00000183826,ENSG00000154642,ENSG00000160791,ENSG00000204345,ENSG00000026508,ENSG00000085117,ENSG00000008300,ENSG00000166869,ENSG00000166664,ENSG00000171310,ENSG00000132792,ENSG00000160683,ENSG00000111012,ENSG00000170464,ENSG00000117298,ENSG00000173812,ENSG00000178607,ENSG00000139083,ENSG00000075426,ENSG00000155760,ENSG00000131482,ENSG00000151948,ENSG00000173706,ENSG00000125430,ENSG00000146674,ENSG00000196083,ENSG00000178860,ENSG00000100330,ENSG00000102921,ENSG00000235568,ENSG00000140807,ENSG00000072682,ENSG00000040199,ENSG00000091622,ENSG00000178385,ENSG00000221866,ENSG00000120910,ENSG00000041357,ENSG00000165186,ENSG00000175354,ENSG00000116260,ENSG00000137502,ENSG00000130988,ENSG00000144468,ENSG00000163162,ENSG00000176641,ENSG00000141622,ENSG00000146555,ENSG00000187764,ENSG00000149131,ENSG00000059804,ENSG00000080189,ENSG00000269404,ENSG00000168610,ENSG00000105967,ENSG00000136816,ENSG00000085831,ENSG00000213886,ENSG00000177169,ENSG00000130477,ENSG00000148429,ENSG00000112715,ENSG00000143816</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000136754,ENSG00000166016,ENSG00000107897,ENSG00000123130,ENSG00000139567,ENSG00000135074,ENSG00000087116,ENSG00000006831,ENSG00000128165,ENSG00000196526,ENSG00000155966,ENSG00000173744,ENSG00000042286,ENSG00000136010,ENSG00000108839,ENSG00000162551,ENSG00000174945,ENSG00000136859,ENSG00000029534,ENSG00000145362,ENSG00000175311,ENSG00000163297,ENSG00000138772,ENSG00000131471,ENSG00000100478,ENSG00000128394,ENSG00000128284,ENSG00000221963,ENSG00000169083,ENSG00000138639,ENSG00000189079,ENSG00000054267,ENSG00000169379,ENSG00000175906,ENSG00000165997,ENSG00000140450,ENSG00000205784,ENSG00000128203,ENSG00000162772,ENSG00000110046,ENSG00000168874,ENSG00000058063,ENSG00000086062,ENSG00000176788,ENSG00000113916,ENSG00000106605,ENSG00000176171,ENSG00000100916,ENSG00000151136,ENSG00000183826,ENSG00000124508,ENSG00000205710,ENSG00000154642,ENSG00000181577,ENSG00000147894,ENSG00000074410,ENSG00000104327,ENSG00000070808,ENSG00000108702,ENSG00000138764,ENSG00000163660,ENSG00000126353,ENSG00000122674,ENSG00000004468,ENSG00000124762,ENSG00000111276,ENSG00000166446,ENSG00000174007,ENSG00000135837,ENSG00000086065,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000175505,ENSG00000155962,ENSG00000113282,ENSG00000134326,ENSG00000070729,ENSG00000150938,ENSG00000103196,ENSG00000100368,ENSG00000108342,ENSG00000116761,ENSG00000160683,ENSG00000167600,ENSG00000172817,ENSG00000188215,ENSG00000105339,ENSG00000100418,ENSG00000108771,ENSG00000100697,ENSG00000155011,ENSG00000150672,ENSG00000170464,ENSG00000115137,ENSG00000101134,ENSG00000136048,ENSG00000164330,ENSG00000088881,ENSG00000186197,ENSG00000134109,ENSG00000110047,ENSG00000118985,ENSG00000154380,ENSG00000138185,ENSG00000197217,ENSG00000187672,ENSG00000178607,ENSG00000117036,ENSG00000010030,ENSG00000158769,ENSG00000155744,ENSG00000154319,ENSG00000173065,ENSG00000026103,ENSG00000145780,ENSG00000168386,ENSG00000075426,ENSG00000128573,ENSG00000171051,ENSG00000131482,ENSG00000033327,ENSG00000099860,ENSG00000130222,ENSG00000162645,ENSG00000162654,ENSG00000135968,ENSG00000131979,ENSG00000023909,ENSG00000176928,ENSG00000198380,ENSG00000196329,ENSG00000055211,ENSG00000175066,ENSG00000107249,ENSG00000151948,ENSG00000120063,ENSG00000179399,ENSG00000125772,ENSG00000183484,ENSG00000013588,ENSG00000023171,ENSG00000023171,ENSG00000180875,ENSG00000158055,ENSG00000198785,ENSG00000100226,ENSG00000151233,ENSG00000049239,ENSG00000105509,ENSG00000068024,ENSG00000206503,ENSG00000234745,ENSG00000204525,ENSG00000241106,ENSG00000153976,ENSG00000125430,ENSG00000173110,ENSG00000029559,ENSG00000163600,ENSG00000172201,ENSG00000137331,ENSG00000162783,ENSG00000152778,ENSG00000142166,ENSG00000159110,ENSG00000103742,ENSG00000167244,ENSG00000163453,ENSG00000123411,ENSG00000110324,ENSG00000144730,ENSG00000100385,ENSG00000077238,ENSG00000122641,ENSG00000125629,ENSG00000134070,ENSG00000137265,ENSG00000213949,ENSG00000105855,ENSG00000113263,ENSG00000148841,ENSG00000168970,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000171121,ENSG00000184156,ENSG00000117139,ENSG00000155090,ENSG00000067082,ENSG00000119138,ENSG00000130487,ENSG00000179454,ENSG00000129451,ENSG00000183762,ENSG00000141068,ENSG00000174611,ENSG00000108679,ENSG00000156959,ENSG00000186818,ENSG00000111052,ENSG00000101670,ENSG00000164715,ENSG00000154359,ENSG00000113083,ENSG00000197324,ENSG00000254087,ENSG00000102897,ENSG00000013619,ENSG00000175471,ENSG00000123066,ENSG00000134138,ENSG00000101574,ENSG00000198160,ENSG00000169184,ENSG00000197965,ENSG00000153029,ENSG00000205362,ENSG00000169715,ENSG00000125144,ENSG00000205358,ENSG00000125148,ENSG00000188786,ENSG00000172551,ENSG00000059728,ENSG00000119950,ENSG00000145555,ENSG00000102921,ENSG00000138386,ENSG00000173559,ENSG00000104320,ENSG00000188554,ENSG00000188505,ENSG00000070614,ENSG00000235568,ENSG00000050344,ENSG00000131669,ENSG00000172548,ENSG00000167034,ENSG00000166741,ENSG00000148200,ENSG00000178694,ENSG00000076685,ENSG00000065320,ENSG00000122417,ENSG00000164920,ENSG00000078589,ENSG00000076641,ENSG00000110218,ENSG00000184588,ENSG00000113448,ENSG00000164951,ENSG00000162493,ENSG00000146247,ENSG00000140451,ENSG00000126003,ENSG00000075651,ENSG00000116095,ENSG00000143850,ENSG00000126822,ENSG00000178385,ENSG00000023902,ENSG00000107020,ENSG00000188313,ENSG00000114698,ENSG00000221866,ENSG00000164050,ENSG00000124225,ENSG00000140464,ENSG00000146278,ENSG00000163644,ENSG00000173281,ENSG00000120910,ENSG00000196850,ENSG00000057657,ENSG00000135378,ENSG00000167371,ENSG00000156011,ENSG00000041357,ENSG00000240065,ENSG00000169403,ENSG00000165186,ENSG00000124212,ENSG00000175354,ENSG00000073008,ENSG00000116260,ENSG00000169228,ENSG00000127328,ENSG00000166128,ENSG00000116191,ENSG00000123728,ENSG00000172575,ENSG00000125826,ENSG00000213516,ENSG00000092871,ENSG00000080298,ENSG00000150977,ENSG00000115963,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000134321,ENSG00000146374,ENSG00000136514,ENSG00000013392,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000155307,ENSG00000136193,ENSG00000146555,ENSG00000170542,ENSG00000149131,ENSG00000187231,ENSG00000168878,ENSG00000162105,ENSG00000197555,ENSG00000136603,ENSG00000117090,ENSG00000112394,ENSG00000147454,ENSG00000146411,ENSG00000160326,ENSG00000170385,ENSG00000080189,ENSG00000160190,ENSG00000111371,ENSG00000104635,ENSG00000136052,ENSG00000167703,ENSG00000197818,ENSG00000176463,ENSG00000166750,ENSG00000023608,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000104450,ENSG00000182957,ENSG00000138600,ENSG00000168939,ENSG00000157350,ENSG00000184005,ENSG00000113532,ENSG00000115415,ENSG00000113739,ENSG00000127954,ENSG00000081320,ENSG00000196792,ENSG00000135604,ENSG00000182253,ENSG00000172403,ENSG00000132718,ENSG00000065491,ENSG00000111490,ENSG00000109436,ENSG00000101849,ENSG00000171703,ENSG00000204219,ENSG00000135269,ENSG00000163235,ENSG00000185561,ENSG00000169908,ENSG00000251201,ENSG00000170006,ENSG00000166822,ENSG00000198133,ENSG00000196932,ENSG00000183726,ENSG00000165685,ENSG00000185215,ENSG00000118503,ENSG00000145779,ENSG00000120949,ENSG00000154310,ENSG00000168884,ENSG00000078804,ENSG00000169902,ENSG00000056558,ENSG00000132274,ENSG00000169871,ENSG00000196428,ENSG00000170892,ENSG00000121297,ENSG00000085831,ENSG00000150991,ENSG00000213886,ENSG00000108106,ENSG00000215114,ENSG00000144224,ENSG00000148154,ENSG00000083290,ENSG00000130477,ENSG00000102226,ENSG00000058056,ENSG00000148429,ENSG00000175073,ENSG00000127831,ENSG00000147852,ENSG00000168658,ENSG00000114742,ENSG00000114251,ENSG00000114127,ENSG00000119801,ENSG00000204186,ENSG00000188706,ENSG00000156639,ENSG00000136367,ENSG00000106261,ENSG00000196387,ENSG00000159915,ENSG00000204947,ENSG00000130818,ENSG00000243660,ENSG00000187187,ENSG00000229809,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-1294</t>
+  </si>
+  <si>
+    <t>ENSG00000165029,ENSG00000160179,ENSG00000196177,ENSG00000135074,ENSG00000042980,ENSG00000138316,ENSG00000158859,ENSG00000006831,ENSG00000128165,ENSG00000155966,ENSG00000177674,ENSG00000162433,ENSG00000111254,ENSG00000117020,ENSG00000136010,ENSG00000198796,ENSG00000174945,ENSG00000152766,ENSG00000164236,ENSG00000157823,ENSG00000100478,ENSG00000169083,ENSG00000134909,ENSG00000150347,ENSG00000113966,ENSG00000128203,ENSG00000110046,ENSG00000121578,ENSG00000168062,ENSG00000076108,ENSG00000114439,ENSG00000121380,ENSG00000167995,ENSG00000176171,ENSG00000144857,ENSG00000183826,ENSG00000026950,ENSG00000186470,ENSG00000111801,ENSG00000167173,ENSG00000205710,ENSG00000173918,ENSG00000154642,ENSG00000082213,ENSG00000074410,ENSG00000165806,ENSG00000198624,ENSG00000169515,ENSG00000149231,ENSG00000125633,ENSG00000107771,ENSG00000186407,ENSG00000004468,ENSG00000121594,ENSG00000112149,ENSG00000143776,ENSG00000179604,ENSG00000197622,ENSG00000186567,ENSG00000173575,ENSG00000016391,ENSG00000204116,ENSG00000086065,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000114737,ENSG00000163347,ENSG00000157224,ENSG00000130779,ENSG00000242689,ENSG00000044459,ENSG00000184144,ENSG00000203710,ENSG00000103196,ENSG00000110925,ENSG00000138755,ENSG00000160683,ENSG00000172817,ENSG00000115165,ENSG00000188215,ENSG00000175084,ENSG00000100697,ENSG00000150672,ENSG00000171462,ENSG00000170464,ENSG00000115137,ENSG00000111817,ENSG00000111266,ENSG00000164330,ENSG00000088881,ENSG00000117298,ENSG00000134109,ENSG00000078401,ENSG00000184349,ENSG00000135766,ENSG00000110047,ENSG00000173812,ENSG00000125977,ENSG00000126767,ENSG00000164181,ENSG00000154380,ENSG00000138185,ENSG00000124882,ENSG00000178607,ENSG00000010030,ENSG00000150510,ENSG00000054965,ENSG00000108950,ENSG00000173065,ENSG00000156860,ENSG00000075420,ENSG00000075426,ENSG00000128573,ENSG00000131482,ENSG00000033327,ENSG00000162645,ENSG00000183347,ENSG00000055211,ENSG00000187513,ENSG00000107249,ENSG00000135677,ENSG00000183484,ENSG00000013588,ENSG00000089351,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000198785,ENSG00000151233,ENSG00000049239,ENSG00000170961,ENSG00000113070,ENSG00000068024,ENSG00000173706,ENSG00000122557,ENSG00000100644,ENSG00000206503,ENSG00000204592,ENSG00000105707,ENSG00000153976,ENSG00000117594,ENSG00000155304,ENSG00000126803,ENSG00000173110,ENSG00000162783,ENSG00000137965,ENSG00000137959,ENSG00000185201,ENSG00000142089,ENSG00000159110,ENSG00000142549,ENSG00000123411,ENSG00000110324,ENSG00000137496,ENSG00000100385,ENSG00000090376,ENSG00000137265,ENSG00000213928,ENSG00000066583,ENSG00000213949,ENSG00000005844,ENSG00000148841,ENSG00000173338,ENSG00000171121,ENSG00000184156,ENSG00000117139,ENSG00000235750,ENSG00000189013,ENSG00000133116,ENSG00000155090,ENSG00000119138,ENSG00000129451,ENSG00000118058,ENSG00000183762,ENSG00000174611,ENSG00000150457,ENSG00000108679,ENSG00000104974,ENSG00000164715,ENSG00000197324,ENSG00000144063,ENSG00000073803,ENSG00000156265,ENSG00000169184,ENSG00000153029,ENSG00000204839,ENSG00000065911,ENSG00000100330,ENSG00000059728,ENSG00000119950,ENSG00000116990,ENSG00000133392,ENSG00000145555,ENSG00000139597,ENSG00000138386,ENSG00000173559,ENSG00000141562,ENSG00000158517,ENSG00000166579,ENSG00000070614,ENSG00000235568,ENSG00000082641,ENSG00000050344,ENSG00000100906,ENSG00000131669,ENSG00000172548,ENSG00000166741,ENSG00000175206,ENSG00000160113,ENSG00000178694,ENSG00000179299,ENSG00000076685,ENSG00000065320,ENSG00000167693,ENSG00000111335,ENSG00000173391,ENSG00000123240,ENSG00000160991,ENSG00000099985,ENSG00000068308,ENSG00000145730,ENSG00000110218,ENSG00000183570,ENSG00000113448,ENSG00000110435,ENSG00000087157,ENSG00000112511,ENSG00000073921,ENSG00000085514,ENSG00000137193,ENSG00000117215,ENSG00000116095,ENSG00000143850,ENSG00000126822,ENSG00000023902,ENSG00000107020,ENSG00000221866,ENSG00000141682,ENSG00000124225,ENSG00000140464,ENSG00000240694,ENSG00000146278,ENSG00000121577,ENSG00000158615,ENSG00000135447,ENSG00000173281,ENSG00000124224,ENSG00000057657,ENSG00000116132,ENSG00000156011,ENSG00000169403,ENSG00000165186,ENSG00000124212,ENSG00000196396,ENSG00000073008,ENSG00000116260,ENSG00000137502,ENSG00000172780,ENSG00000116191,ENSG00000054967,ENSG00000092871,ENSG00000080298,ENSG00000144468,ENSG00000164327,ENSG00000115963,ENSG00000124226,ENSG00000151692,ENSG00000141622,ENSG00000166439,ENSG00000173821,ENSG00000169855,ENSG00000020633,ENSG00000156671,ENSG00000136193,ENSG00000000457,ENSG00000138593,ENSG00000141574,ENSG00000197249,ENSG00000149131,ENSG00000187231,ENSG00000168878,ENSG00000125731,ENSG00000174705,ENSG00000160584,ENSG00000177045,ENSG00000136603,ENSG00000117090,ENSG00000100652,ENSG00000110436,ENSG00000163393,ENSG00000147454,ENSG00000117394,ENSG00000160326,ENSG00000170385,ENSG00000158014,ENSG00000136867,ENSG00000160190,ENSG00000111371,ENSG00000134294,ENSG00000138821,ENSG00000133065,ENSG00000111181,ENSG00000196517,ENSG00000183023,ENSG00000197818,ENSG00000166750,ENSG00000101665,ENSG00000124216,ENSG00000167208,ENSG00000112096,ENSG00000269404,ENSG00000168939,ENSG00000168610,ENSG00000127954,ENSG00000067221,ENSG00000162520,ENSG00000182253,ENSG00000172403,ENSG00000103528,ENSG00000204267,ENSG00000065491,ENSG00000111490,ENSG00000204219,ENSG00000196663,ENSG00000135426,ENSG00000114126,ENSG00000163235,ENSG00000196781,ENSG00000106829,ENSG00000101916,ENSG00000106565,ENSG00000196932,ENSG00000095209,ENSG00000136842,ENSG00000128872,ENSG00000137747,ENSG00000232810,ENSG00000145779,ENSG00000154310,ENSG00000078804,ENSG00000124251,ENSG00000056558,ENSG00000170892,ENSG00000145777,ENSG00000259024,ENSG00000162971,ENSG00000150991,ENSG00000148154,ENSG00000177169,ENSG00000130477,ENSG00000148429,ENSG00000038427,ENSG00000175073,ENSG00000111424,ENSG00000112715,ENSG00000075399,ENSG00000186806,ENSG00000101966,ENSG00000119820,ENSG00000119801,ENSG00000181472,ENSG00000156639,ENSG00000136367,ENSG00000128016,ENSG00000106261,ENSG00000010539,ENSG00000198839,ENSG00000127081,ENSG00000243660,ENSG00000223547,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-1296-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000160179,ENSG00000143322,ENSG00000144476,ENSG00000139567,ENSG00000138316,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000128165,ENSG00000155966,ENSG00000158467,ENSG00000111254,ENSG00000162551,ENSG00000114019,ENSG00000133805,ENSG00000164236,ENSG00000100478,ENSG00000128284,ENSG00000221963,ENSG00000134909,ENSG00000113966,ENSG00000029153,ENSG00000151693,ENSG00000130707,ENSG00000168874,ENSG00000058063,ENSG00000106605,ENSG00000183826,ENSG00000026950,ENSG00000167173,ENSG00000205710,ENSG00000164096,ENSG00000113583,ENSG00000074410,ENSG00000185015,ENSG00000160200,ENSG00000100147,ENSG00000152492,ENSG00000198624,ENSG00000126353,ENSG00000150637,ENSG00000004468,ENSG00000026508,ENSG00000179604,ENSG00000101290,ENSG00000166446,ENSG00000008300,ENSG00000129749,ENSG00000122863,ENSG00000169504,ENSG00000242689,ENSG00000108582,ENSG00000103196,ENSG00000161921,ENSG00000163735,ENSG00000160683,ENSG00000172817,ENSG00000108669,ENSG00000135766,ENSG00000173812,ENSG00000129595,ENSG00000178567,ENSG00000133106,ENSG00000141736,ENSG00000136541,ENSG00000150510,ENSG00000054965,ENSG00000108950,ENSG00000108306,ENSG00000158869,ENSG00000161958,ENSG00000132589,ENSG00000075420,ENSG00000128573,ENSG00000131482,ENSG00000257594,ENSG00000162645,ENSG00000121743,ENSG00000175066,ENSG00000023171,ENSG00000023171,ENSG00000170961,ENSG00000159399,ENSG00000123411,ENSG00000137496,ENSG00000139269,ENSG00000125629,ENSG00000090376,ENSG00000159556,ENSG00000259207,ENSG00000105855,ENSG00000113263,ENSG00000114982,ENSG00000184156,ENSG00000235750,ENSG00000179454,ENSG00000118058,ENSG00000141068,ENSG00000115919,ENSG00000108679,ENSG00000104974,ENSG00000101670,ENSG00000164187,ENSG00000048540,ENSG00000175130,ENSG00000153029,ENSG00000178860,ENSG00000198417,ENSG00000188786,ENSG00000145555,ENSG00000102921,ENSG00000173559,ENSG00000161653,ENSG00000070614,ENSG00000235568,ENSG00000109320,ENSG00000131669,ENSG00000172548,ENSG00000140807,ENSG00000148200,ENSG00000135318,ENSG00000167693,ENSG00000160991,ENSG00000181631,ENSG00000100889,ENSG00000173889,ENSG00000118762,ENSG00000126003,ENSG00000116095,ENSG00000178385,ENSG00000023902,ENSG00000221866,ENSG00000164050,ENSG00000180316,ENSG00000158615,ENSG00000124224,ENSG00000167371,ENSG00000165186,ENSG00000125384,ENSG00000116191,ENSG00000123094,ENSG00000159200,ENSG00000054967,ENSG00000143390,ENSG00000168421,ENSG00000104312,ENSG00000166439,ENSG00000101236,ENSG00000134321,ENSG00000020633,ENSG00000013392,ENSG00000213694,ENSG00000213694,ENSG00000130590,ENSG00000136193,ENSG00000187231,ENSG00000174705,ENSG00000162105,ENSG00000160584,ENSG00000155287,ENSG00000147454,ENSG00000117394,ENSG00000138459,ENSG00000133065,ENSG00000167703,ENSG00000183023,ENSG00000166750,ENSG00000182957,ENSG00000168939,ENSG00000075142,ENSG00000115415,ENSG00000081320,ENSG00000067221,ENSG00000173705,ENSG00000204267,ENSG00000073861,ENSG00000204219,ENSG00000129566,ENSG00000135269,ENSG00000105967,ENSG00000163235,ENSG00000104067,ENSG00000185561,ENSG00000169908,ENSG00000135926,ENSG00000133069,ENSG00000170006,ENSG00000196932,ENSG00000078804,ENSG00000056558,ENSG00000121060,ENSG00000234127,ENSG00000112343,ENSG00000100991,ENSG00000104833,ENSG00000143367,ENSG00000159202,ENSG00000188021,ENSG00000058056,ENSG00000168140,ENSG00000143816,ENSG00000132530,ENSG00000205189,ENSG00000188706,ENSG00000106261,ENSG00000162702,ENSG00000127081,ENSG00000124201,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-133a-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000160179,ENSG00000143322,ENSG00000166016,ENSG00000196177,ENSG00000087116,ENSG00000185736,ENSG00000128271,ENSG00000196526,ENSG00000155966,ENSG00000173744,ENSG00000158467,ENSG00000204673,ENSG00000136010,ENSG00000136859,ENSG00000029534,ENSG00000145362,ENSG00000160117,ENSG00000152766,ENSG00000164236,ENSG00000185101,ENSG00000157823,ENSG00000100478,ENSG00000239713,ENSG00000100342,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000138639,ENSG00000134909,ENSG00000165997,ENSG00000113966,ENSG00000172379,ENSG00000113369,ENSG00000140450,ENSG00000169136,ENSG00000168874,ENSG00000058063,ENSG00000163635,ENSG00000086062,ENSG00000158470,ENSG00000153094,ENSG00000186174,ENSG00000167995,ENSG00000133134,ENSG00000106605,ENSG00000153162,ENSG00000133639,ENSG00000124508,ENSG00000205710,ENSG00000197982,ENSG00000139178,ENSG00000166278,ENSG00000154642,ENSG00000181577,ENSG00000164305,ENSG00000165806,ENSG00000139899,ENSG00000167131,ENSG00000152492,ENSG00000108702,ENSG00000260916,ENSG00000160791,ENSG00000107771,ENSG00000158473,ENSG00000120217,ENSG00000026508,ENSG00000173762,ENSG00000112149,ENSG00000197622,ENSG00000158985,ENSG00000101290,ENSG00000186567,ENSG00000135837,ENSG00000173575,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000130779,ENSG00000176571,ENSG00000108582,ENSG00000103196,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000135047,ENSG00000119522,ENSG00000150672,ENSG00000104093,ENSG00000105993,ENSG00000111817,ENSG00000111266,ENSG00000164330,ENSG00000088881,ENSG00000117298,ENSG00000184349,ENSG00000110047,ENSG00000118985,ENSG00000154380,ENSG00000138185,ENSG00000197217,ENSG00000129595,ENSG00000178567,ENSG00000165591,ENSG00000169122,ENSG00000150510,ENSG00000054965,ENSG00000173065,ENSG00000108306,ENSG00000116663,ENSG00000162897,ENSG00000143226,ENSG00000145780,ENSG00000073712,ENSG00000075426,ENSG00000171051,ENSG00000155760,ENSG00000033327,ENSG00000131386,ENSG00000117228,ENSG00000162645,ENSG00000198380,ENSG00000121743,ENSG00000164411,ENSG00000175066,ENSG00000107249,ENSG00000173221,ENSG00000151948,ENSG00000135821,ENSG00000120370,ENSG00000062194,ENSG00000179399,ENSG00000115159,ENSG00000180758,ENSG00000174946,ENSG00000164294,ENSG00000198785,ENSG00000100226,ENSG00000049239,ENSG00000170961,ENSG00000068024,ENSG00000130589,ENSG00000138646,ENSG00000164683,ENSG00000100644,ENSG00000206503,ENSG00000125430,ENSG00000117594,ENSG00000155304,ENSG00000090339,ENSG00000163600,ENSG00000142166,ENSG00000167244,ENSG00000146674,ENSG00000142549,ENSG00000243646,ENSG00000113302,ENSG00000134470,ENSG00000134460,ENSG00000100385,ENSG00000122641,ENSG00000125629,ENSG00000090376,ENSG00000198001,ENSG00000066583,ENSG00000213949,ENSG00000005844,ENSG00000259207,ENSG00000113263,ENSG00000148841,ENSG00000205730,ENSG00000243789,ENSG00000157551,ENSG00000123700,ENSG00000184156,ENSG00000117139,ENSG00000132510,ENSG00000235750,ENSG00000189013,ENSG00000119138,ENSG00000179454,ENSG00000141068,ENSG00000174611,ENSG00000078081,ENSG00000179241,ENSG00000111052,ENSG00000101670,ENSG00000048540,ENSG00000164715,ENSG00000171236,ENSG00000088899,ENSG00000156265,ENSG00000006432,ENSG00000152939,ENSG00000175471,ENSG00000134138,ENSG00000133816,ENSG00000204516,ENSG00000155545,ENSG00000183486,ENSG00000059728,ENSG00000119950,ENSG00000116990,ENSG00000145555,ENSG00000173559,ENSG00000188554,ENSG00000166507,ENSG00000185633,ENSG00000235568,ENSG00000146232,ENSG00000131669,ENSG00000172548,ENSG00000140807,ENSG00000166741,ENSG00000113580,ENSG00000148200,ENSG00000125841,ENSG00000178694,ENSG00000065320,ENSG00000167693,ENSG00000135114,ENSG00000173391,ENSG00000172818,ENSG00000089041,ENSG00000110218,ENSG00000111224,ENSG00000041880,ENSG00000168300,ENSG00000152256,ENSG00000164951,ENSG00000162493,ENSG00000170525,ENSG00000140451,ENSG00000165195,ENSG00000126003,ENSG00000023902,ENSG00000188313,ENSG00000221866,ENSG00000164050,ENSG00000101751,ENSG00000121577,ENSG00000185250,ENSG00000173281,ENSG00000124224,ENSG00000196850,ENSG00000156011,ENSG00000240065,ENSG00000165186,ENSG00000073008,ENSG00000069974,ENSG00000155961,ENSG00000127328,ENSG00000116191,ENSG00000123094,ENSG00000184898,ENSG00000159200,ENSG00000172348,ENSG00000173039,ENSG00000144468,ENSG00000115963,ENSG00000151692,ENSG00000166439,ENSG00000173821,ENSG00000101236,ENSG00000137075,ENSG00000169855,ENSG00000048392,ENSG00000134321,ENSG00000146374,ENSG00000159216,ENSG00000020633,ENSG00000156671,ENSG00000104112,ENSG00000136193,ENSG00000146555,ENSG00000197249,ENSG00000170542,ENSG00000149131,ENSG00000187231,ENSG00000162105,ENSG00000088827,ENSG00000142512,ENSG00000177045,ENSG00000117090,ENSG00000197208,ENSG00000185052,ENSG00000146411,ENSG00000170385,ENSG00000080189,ENSG00000111371,ENSG00000167703,ENSG00000151012,ENSG00000103257,ENSG00000183023,ENSG00000197818,ENSG00000176463,ENSG00000166750,ENSG00000084070,ENSG00000112096,ENSG00000182957,ENSG00000157350,ENSG00000113532,ENSG00000115415,ENSG00000115183,ENSG00000111490,ENSG00000101849,ENSG00000196663,ENSG00000114126,ENSG00000163235,ENSG00000163659,ENSG00000104067,ENSG00000169908,ENSG00000170006,ENSG00000155755,ENSG00000095209,ENSG00000183726,ENSG00000136842,ENSG00000128872,ENSG00000145779,ENSG00000100284,ENSG00000136816,ENSG00000078804,ENSG00000112195,ENSG00000234127,ENSG00000112343,ENSG00000104321,ENSG00000121297,ENSG00000085831,ENSG00000162971,ENSG00000033178,ENSG00000215114,ENSG00000111981,ENSG00000177169,ENSG00000083290,ENSG00000182168,ENSG00000184979,ENSG00000148429,ENSG00000038427,ENSG00000114742,ENSG00000143816,ENSG00000114127,ENSG00000119820,ENSG00000116809,ENSG00000163958,ENSG00000178764,ENSG00000159915,ENSG00000188994,ENSG00000130818,ENSG00000223547,ENSG00000124201</t>
+  </si>
+  <si>
+    <t>hsa-miR-1343-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000165029,ENSG00000160179,ENSG00000143322,ENSG00000196177,ENSG00000157766,ENSG00000123130,ENSG00000139567,ENSG00000135074,ENSG00000138316,ENSG00000087116,ENSG00000185736,ENSG00000128165,ENSG00000128271,ENSG00000196526,ENSG00000173744,ENSG00000177674,ENSG00000158467,ENSG00000162433,ENSG00000131016,ENSG00000162551,ENSG00000114019,ENSG00000174945,ENSG00000029534,ENSG00000160117,ENSG00000100478,ENSG00000254470,ENSG00000034053,ENSG00000128394,ENSG00000100342,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000138639,ENSG00000134909,ENSG00000050327,ENSG00000179361,ENSG00000196843,ENSG00000150347,ENSG00000172379,ENSG00000029153,ENSG00000205784,ENSG00000151693,ENSG00000128203,ENSG00000162772,ENSG00000110046,ENSG00000168874,ENSG00000185344,ENSG00000163635,ENSG00000155096,ENSG00000121578,ENSG00000168062,ENSG00000076108,ENSG00000153094,ENSG00000069399,ENSG00000186174,ENSG00000167995,ENSG00000142959,ENSG00000023445,ENSG00000106605,ENSG00000125845,ENSG00000153162,ENSG00000176171,ENSG00000100916,ENSG00000183826,ENSG00000133639,ENSG00000112763,ENSG00000124508,ENSG00000026950,ENSG00000186470,ENSG00000111801,ENSG00000167173,ENSG00000166455,ENSG00000205710,ENSG00000186665,ENSG00000131943,ENSG00000125462,ENSG00000173918,ENSG00000139178,ENSG00000182326,ENSG00000181577,ENSG00000074410,ENSG00000185015,ENSG00000136436,ENSG00000008118,ENSG00000070808,ENSG00000160200,ENSG00000152492,ENSG00000198624,ENSG00000125633,ENSG00000138764,ENSG00000158473,ENSG00000150637,ENSG00000186407,ENSG00000101017,ENSG00000143776,ENSG00000179604,ENSG00000158985,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000172292,ENSG00000173575,ENSG00000016391,ENSG00000204116,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000114737,ENSG00000175505,ENSG00000157224,ENSG00000169504,ENSG00000120885,ENSG00000176571,ENSG00000070729,ENSG00000143771,ENSG00000173786,ENSG00000184144,ENSG00000108582,ENSG00000095321,ENSG00000121005,ENSG00000103196,ENSG00000144655,ENSG00000110925,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000156234,ENSG00000163735,ENSG00000160683,ENSG00000167600,ENSG00000172817,ENSG00000070190,ENSG00000188215,ENSG00000168209,ENSG00000105339,ENSG00000175084,ENSG00000100418,ENSG00000150672,ENSG00000170464,ENSG00000115137,ENSG00000101134,ENSG00000136048,ENSG00000111817,ENSG00000120129,ENSG00000111266,ENSG00000088881,ENSG00000117298,ENSG00000134109,ENSG00000184349,ENSG00000135766,ENSG00000110047,ENSG00000126767,ENSG00000118985,ENSG00000062598,ENSG00000138185,ENSG00000115109,ENSG00000177106,ENSG00000141736,ENSG00000124882,ENSG00000107566,ENSG00000178607,ENSG00000134954,ENSG00000157557,ENSG00000117036,ENSG00000253831,ENSG00000139083,ENSG00000150510,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000108950,ENSG00000173065,ENSG00000117560,ENSG00000166147,ENSG00000156860,ENSG00000108306,ENSG00000112234,ENSG00000126262,ENSG00000161958,ENSG00000132589,ENSG00000075420,ENSG00000075426,ENSG00000171051,ENSG00000010810,ENSG00000131482,ENSG00000033327,ENSG00000204681,ENSG00000130222,ENSG00000131386,ENSG00000143641,ENSG00000162654,ENSG00000183347,ENSG00000135968,ENSG00000176928,ENSG00000164949,ENSG00000198380,ENSG00000055211,ENSG00000121743,ENSG00000175066,ENSG00000107249,ENSG00000173221,ENSG00000151948,ENSG00000135821,ENSG00000120063,ENSG00000060558,ENSG00000135677,ENSG00000204438,ENSG00000062194,ENSG00000115159,ENSG00000183484,ENSG00000158292,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000180875,ENSG00000198785,ENSG00000104518,ENSG00000100226,ENSG00000172432,ENSG00000049239,ENSG00000140511,ENSG00000170961,ENSG00000206344,ENSG00000173706,ENSG00000130589,ENSG00000122557,ENSG00000206503,ENSG00000182952,ENSG00000221887,ENSG00000159184,ENSG00000125430,ENSG00000117594,ENSG00000155304,ENSG00000126803,ENSG00000173110,ENSG00000188676,ENSG00000169991,ENSG00000152778,ENSG00000142166,ENSG00000159110,ENSG00000006652,ENSG00000146674,ENSG00000142549,ENSG00000110324,ENSG00000113302,ENSG00000096996,ENSG00000164136,ENSG00000134470,ENSG00000144730,ENSG00000137496,ENSG00000115008,ENSG00000196083,ENSG00000134460,ENSG00000100385,ENSG00000185291,ENSG00000145103,ENSG00000134070,ENSG00000090376,ENSG00000137265,ENSG00000172183,ENSG00000159556,ENSG00000213949,ENSG00000005844,ENSG00000259207,ENSG00000113263,ENSG00000148841,ENSG00000205730,ENSG00000096968,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000184156,ENSG00000174996,ENSG00000119138,ENSG00000179454,ENSG00000172578,ENSG00000129451,ENSG00000118058,ENSG00000183762,ENSG00000128422,ENSG00000128422,ENSG00000159166,ENSG00000179241,ENSG00000108679,ENSG00000156959,ENSG00000104974,ENSG00000104972,ENSG00000131042,ENSG00000186818,ENSG00000182541,ENSG00000111052,ENSG00000101670,ENSG00000164715,ENSG00000198121,ENSG00000171236,ENSG00000121931,ENSG00000137269,ENSG00000137507,ENSG00000162494,ENSG00000160285,ENSG00000254087,ENSG00000088899,ENSG00000116670,ENSG00000144063,ENSG00000013619,ENSG00000189221,ENSG00000006432,ENSG00000134046,ENSG00000143384,ENSG00000197771,ENSG00000140563,ENSG00000123066,ENSG00000106780,ENSG00000105419,ENSG00000204520,ENSG00000133816,ENSG00000204516,ENSG00000099875,ENSG00000150051,ENSG00000213190,ENSG00000157227,ENSG00000008516,ENSG00000205362,ENSG00000198417,ENSG00000188786,ENSG00000065911,ENSG00000185499,ENSG00000183486,ENSG00000086967,ENSG00000116990,ENSG00000133392,ENSG00000145555,ENSG00000142661,ENSG00000102921,ENSG00000139597,ENSG00000138386,ENSG00000173559,ENSG00000141562,ENSG00000158517,ENSG00000189430,ENSG00000166579,ENSG00000104419,ENSG00000070614,ENSG00000235568,ENSG00000104825,ENSG00000131669,ENSG00000140807,ENSG00000140853,ENSG00000166741,ENSG00000167207,ENSG00000160113,ENSG00000113580,ENSG00000148200,ENSG00000125841,ENSG00000178694,ENSG00000076685,ENSG00000065320,ENSG00000163545,ENSG00000013374,ENSG00000176046,ENSG00000167693,ENSG00000111335,ENSG00000111331,ENSG00000123240,ENSG00000160991,ENSG00000170909,ENSG00000099985,ENSG00000164920,ENSG00000135124,ENSG00000089041,ENSG00000076641,ENSG00000110218,ENSG00000073150,ENSG00000178685,ENSG00000111224,ENSG00000183570,ENSG00000254122,ENSG00000184588,ENSG00000113448,ENSG00000197461,ENSG00000134853,ENSG00000113721,ENSG00000152256,ENSG00000186862,ENSG00000170525,ENSG00000173889,ENSG00000146247,ENSG00000165195,ENSG00000085514,ENSG00000102096,ENSG00000091622,ENSG00000118762,ENSG00000126003,ENSG00000143850,ENSG00000090924,ENSG00000126822,ENSG00000178385,ENSG00000023902,ENSG00000107020,ENSG00000188313,ENSG00000221866,ENSG00000124225,ENSG00000140464,ENSG00000180316,ENSG00000146278,ENSG00000163644,ENSG00000173281,ENSG00000068971,ENSG00000120910,ENSG00000057657,ENSG00000152784,ENSG00000180644,ENSG00000012211,ENSG00000112619,ENSG00000156011,ENSG00000240065,ENSG00000169403,ENSG00000165186,ENSG00000125384,ENSG00000148344,ENSG00000124212,ENSG00000196396,ENSG00000175354,ENSG00000073008,ENSG00000116260,ENSG00000107560,ENSG00000129472,ENSG00000155961,ENSG00000127328,ENSG00000116191,ENSG00000108352,ENSG00000165105,ENSG00000089050,ENSG00000125826,ENSG00000159200,ENSG00000172348,ENSG00000054967,ENSG00000087903,ENSG00000108370,ENSG00000144468,ENSG00000164292,ENSG00000168421,ENSG00000101782,ENSG00000137393,ENSG00000163162,ENSG00000141622,ENSG00000166439,ENSG00000173821,ENSG00000101236,ENSG00000089169,ENSG00000126458,ENSG00000133818,ENSG00000048392,ENSG00000146374,ENSG00000018189,ENSG00000020633,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000177409,ENSG00000074660,ENSG00000136193,ENSG00000000457,ENSG00000124145,ENSG00000125775,ENSG00000146555,ENSG00000135094,ENSG00000196189,ENSG00000197249,ENSG00000242550,ENSG00000149131,ENSG00000197019,ENSG00000187231,ENSG00000168878,ENSG00000163082,ENSG00000174705,ENSG00000162105,ENSG00000088827,ENSG00000142512,ENSG00000197555,ENSG00000198053,ENSG00000100652,ENSG00000018280,ENSG00000112394,ENSG00000110436,ENSG00000155287,ENSG00000147454,ENSG00000174502,ENSG00000117394,ENSG00000173262,ENSG00000059804,ENSG00000158014,ENSG00000104154,ENSG00000136867,ENSG00000080189,ENSG00000111371,ENSG00000134294,ENSG00000104635,ENSG00000133065,ENSG00000167703,ENSG00000169241,ENSG00000103257,ENSG00000183023,ENSG00000100678,ENSG00000180251,ENSG00000197818,ENSG00000137571,ENSG00000166750,ENSG00000101596,ENSG00000256235,ENSG00000198742,ENSG00000178996,ENSG00000120833,ENSG00000112096,ENSG00000104450,ENSG00000269404,ENSG00000138600,ENSG00000154548,ENSG00000157350,ENSG00000110080,ENSG00000113532,ENSG00000178078,ENSG00000115415,ENSG00000113739,ENSG00000164543,ENSG00000081320,ENSG00000067221,ENSG00000135604,ENSG00000182253,ENSG00000171992,ENSG00000132718,ENSG00000157625,ENSG00000204267,ENSG00000065491,ENSG00000111490,ENSG00000204219,ENSG00000146221,ENSG00000196663,ENSG00000205678,ENSG00000129566,ENSG00000114126,ENSG00000105967,ENSG00000129028,ENSG00000169231,ENSG00000185561,ENSG00000169908,ENSG00000135926,ENSG00000251201,ENSG00000170006,ENSG00000188760,ENSG00000172738,ENSG00000155755,ENSG00000196932,ENSG00000165685,ENSG00000136842,ENSG00000128872,ENSG00000185215,ENSG00000118503,ENSG00000145779,ENSG00000028137,ENSG00000120949,ENSG00000154310,ENSG00000100284,ENSG00000136816,ENSG00000102871,ENSG00000056558,ENSG00000056972,ENSG00000112195,ENSG00000121060,ENSG00000204599,ENSG00000116525,ENSG00000125733,ENSG00000104321,ENSG00000102804,ENSG00000196428,ENSG00000170892,ENSG00000123297,ENSG00000128881,ENSG00000085831,ENSG00000104833,ENSG00000143367,ENSG00000033178,ENSG00000150991,ENSG00000108106,ENSG00000188021,ENSG00000173960,ENSG00000111981,ENSG00000177169,ENSG00000083290,ENSG00000182168,ENSG00000148429,ENSG00000168140,ENSG00000038427,ENSG00000111424,ENSG00000112715,ENSG00000075399,ENSG00000114251,ENSG00000047644,ENSG00000101966,ENSG00000119820,ENSG00000196449,ENSG00000188707,ENSG00000205189,ENSG00000116809,ENSG00000188818,ENSG00000188706,ENSG00000136367,ENSG00000105278,ENSG00000106261,ENSG00000196387,ENSG00000159915,ENSG00000204947,ENSG00000130818,ENSG00000229809,ENSG00000223547,ENSG00000124201,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-139-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000165029,ENSG00000136754,ENSG00000143322,ENSG00000123130,ENSG00000134575,ENSG00000073670,ENSG00000135074,ENSG00000087116,ENSG00000158859,ENSG00000128165,ENSG00000128271,ENSG00000159322,ENSG00000196526,ENSG00000173744,ENSG00000204673,ENSG00000128918,ENSG00000136010,ENSG00000108602,ENSG00000114019,ENSG00000174945,ENSG00000136859,ENSG00000029534,ENSG00000152766,ENSG00000163297,ENSG00000131471,ENSG00000128335,ENSG00000221963,ENSG00000103569,ENSG00000047365,ENSG00000242247,ENSG00000134909,ENSG00000150347,ENSG00000165997,ENSG00000172379,ENSG00000110046,ENSG00000168874,ENSG00000235863,ENSG00000086062,ENSG00000158470,ENSG00000156273,ENSG00000121380,ENSG00000113916,ENSG00000186174,ENSG00000085185,ENSG00000122870,ENSG00000106605,ENSG00000119411,ENSG00000183826,ENSG00000124508,ENSG00000026950,ENSG00000131943,ENSG00000173918,ENSG00000154642,ENSG00000165806,ENSG00000130940,ENSG00000160200,ENSG00000169515,ENSG00000125633,ENSG00000108702,ENSG00000163660,ENSG00000160791,ENSG00000126353,ENSG00000120217,ENSG00000204345,ENSG00000179604,ENSG00000101290,ENSG00000149187,ENSG00000174799,ENSG00000172292,ENSG00000173575,ENSG00000204116,ENSG00000171310,ENSG00000122863,ENSG00000136026,ENSG00000175505,ENSG00000166523,ENSG00000044459,ENSG00000115520,ENSG00000103196,ENSG00000108342,ENSG00000161544,ENSG00000111012,ENSG00000167600,ENSG00000172817,ENSG00000108669,ENSG00000188215,ENSG00000100697,ENSG00000170464,ENSG00000168259,ENSG00000111817,ENSG00000117298,ENSG00000173812,ENSG00000102034,ENSG00000126767,ENSG00000118985,ENSG00000062598,ENSG00000138185,ENSG00000187672,ENSG00000124882,ENSG00000117036,ENSG00000253831,ENSG00000139083,ENSG00000054965,ENSG00000108950,ENSG00000173065,ENSG00000150337,ENSG00000198019,ENSG00000143226,ENSG00000181036,ENSG00000161958,ENSG00000075426,ENSG00000131482,ENSG00000033327,ENSG00000133561,ENSG00000055211,ENSG00000121743,ENSG00000164411,ENSG00000175066,ENSG00000135821,ENSG00000179399,ENSG00000125772,ENSG00000013588,ENSG00000164294,ENSG00000180875,ENSG00000198785,ENSG00000049239,ENSG00000105509,ENSG00000068024,ENSG00000173706,ENSG00000127311,ENSG00000130589,ENSG00000159399,ENSG00000206503,ENSG00000234745,ENSG00000204525,ENSG00000241106,ENSG00000182952,ENSG00000153976,ENSG00000125430,ENSG00000117594,ENSG00000173110,ENSG00000163600,ENSG00000169991,ENSG00000137959,ENSG00000119922,ENSG00000142166,ENSG00000103742,ENSG00000167244,ENSG00000073792,ENSG00000134470,ENSG00000196083,ENSG00000139269,ENSG00000173404,ENSG00000148841,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000123700,ENSG00000184156,ENSG00000117139,ENSG00000132510,ENSG00000235750,ENSG00000189013,ENSG00000174996,ENSG00000130487,ENSG00000129451,ENSG00000183762,ENSG00000141068,ENSG00000174611,ENSG00000159166,ENSG00000129988,ENSG00000156959,ENSG00000104974,ENSG00000111052,ENSG00000164715,ENSG00000198121,ENSG00000171517,ENSG00000171236,ENSG00000137507,ENSG00000160285,ENSG00000101460,ENSG00000153898,ENSG00000140563,ENSG00000204520,ENSG00000153029,ENSG00000204839,ENSG00000178860,ENSG00000205358,ENSG00000100330,ENSG00000145555,ENSG00000102921,ENSG00000078177,ENSG00000173559,ENSG00000104320,ENSG00000070614,ENSG00000082641,ENSG00000140807,ENSG00000168256,ENSG00000167034,ENSG00000140853,ENSG00000148200,ENSG00000125841,ENSG00000065320,ENSG00000173391,ENSG00000160991,ENSG00000164920,ENSG00000135124,ENSG00000110218,ENSG00000100311,ENSG00000134853,ENSG00000110435,ENSG00000152256,ENSG00000164951,ENSG00000173889,ENSG00000040199,ENSG00000137193,ENSG00000198355,ENSG00000145287,ENSG00000090924,ENSG00000126822,ENSG00000188313,ENSG00000221866,ENSG00000164050,ENSG00000213639,ENSG00000116132,ENSG00000156011,ENSG00000106588,ENSG00000169403,ENSG00000165186,ENSG00000073008,ENSG00000116260,ENSG00000129472,ENSG00000179331,ENSG00000127328,ENSG00000166128,ENSG00000125826,ENSG00000184898,ENSG00000172348,ENSG00000054967,ENSG00000092871,ENSG00000087903,ENSG00000144468,ENSG00000187010,ENSG00000168421,ENSG00000164327,ENSG00000151692,ENSG00000163162,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000134321,ENSG00000146374,ENSG00000020633,ENSG00000013392,ENSG00000146555,ENSG00000187764,ENSG00000170542,ENSG00000149131,ENSG00000095370,ENSG00000162105,ENSG00000198053,ENSG00000177045,ENSG00000018280,ENSG00000147454,ENSG00000158014,ENSG00000080189,ENSG00000134294,ENSG00000133065,ENSG00000167703,ENSG00000166750,ENSG00000188817,ENSG00000184557,ENSG00000105866,ENSG00000182957,ENSG00000154548,ENSG00000157350,ENSG00000184005,ENSG00000101972,ENSG00000170581,ENSG00000148175,ENSG00000067221,ENSG00000196792,ENSG00000182253,ENSG00000132718,ENSG00000157625,ENSG00000204267,ENSG00000167202,ENSG00000111490,ENSG00000166046,ENSG00000145365,ENSG00000185561,ENSG00000196781,ENSG00000178826,ENSG00000152128,ENSG00000166822,ENSG00000155755,ENSG00000145779,ENSG00000154310,ENSG00000145901,ENSG00000168884,ENSG00000056972,ENSG00000112343,ENSG00000100505,ENSG00000196428,ENSG00000150991,ENSG00000148154,ENSG00000177169,ENSG00000083290,ENSG00000130477,ENSG00000168899,ENSG00000114742,ENSG00000114251,ENSG00000143816,ENSG00000047644,ENSG00000132530,ENSG00000114127,ENSG00000205189,ENSG00000188706,ENSG00000010539,ENSG00000198839,ENSG00000125945,ENSG00000223547,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-148a-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000143322,ENSG00000068366,ENSG00000115170,ENSG00000135503,ENSG00000114948,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000155966,ENSG00000162433,ENSG00000131016,ENSG00000198074,ENSG00000128918,ENSG00000133805,ENSG00000145362,ENSG00000164236,ENSG00000065413,ENSG00000254470,ENSG00000154856,ENSG00000128284,ENSG00000221963,ENSG00000047365,ENSG00000189079,ENSG00000150347,ENSG00000165997,ENSG00000113966,ENSG00000172379,ENSG00000029153,ENSG00000128203,ENSG00000058063,ENSG00000155096,ENSG00000086062,ENSG00000121578,ENSG00000156273,ENSG00000153094,ENSG00000121380,ENSG00000186174,ENSG00000167995,ENSG00000142959,ENSG00000144857,ENSG00000026950,ENSG00000173918,ENSG00000182326,ENSG00000154642,ENSG00000181577,ENSG00000074410,ENSG00000064989,ENSG00000164305,ENSG00000105971,ENSG00000152492,ENSG00000260916,ENSG00000121807,ENSG00000126353,ENSG00000150637,ENSG00000186407,ENSG00000026508,ENSG00000112149,ENSG00000158985,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000172292,ENSG00000172824,ENSG00000000971,ENSG00000128849,ENSG00000204116,ENSG00000171310,ENSG00000163347,ENSG00000155962,ENSG00000169504,ENSG00000130779,ENSG00000137200,ENSG00000143771,ENSG00000106603,ENSG00000108582,ENSG00000121005,ENSG00000103196,ENSG00000100368,ENSG00000147408,ENSG00000110925,ENSG00000175215,ENSG00000156234,ENSG00000172817,ENSG00000115165,ENSG00000139990,ENSG00000188215,ENSG00000115137,ENSG00000136048,ENSG00000134755,ENSG00000111817,ENSG00000163840,ENSG00000120875,ENSG00000186197,ENSG00000134109,ENSG00000183690,ENSG00000110047,ENSG00000126767,ENSG00000154380,ENSG00000001561,ENSG00000138185,ENSG00000115109,ENSG00000178567,ENSG00000107566,ENSG00000139083,ENSG00000158769,ENSG00000169122,ENSG00000156500,ENSG00000155744,ENSG00000154319,ENSG00000108950,ENSG00000026103,ENSG00000166147,ENSG00000162897,ENSG00000145780,ENSG00000126262,ENSG00000161958,ENSG00000129682,ENSG00000157827,ENSG00000128573,ENSG00000171051,ENSG00000033327,ENSG00000130222,ENSG00000131386,ENSG00000183347,ENSG00000176928,ENSG00000164949,ENSG00000055211,ENSG00000189280,ENSG00000164411,ENSG00000198814,ENSG00000175066,ENSG00000120063,ENSG00000179399,ENSG00000180875,ENSG00000151233,ENSG00000049239,ENSG00000170961,ENSG00000068024,ENSG00000122557,ENSG00000100644,ENSG00000206503,ENSG00000204632,ENSG00000136630,ENSG00000221887,ENSG00000153976,ENSG00000155304,ENSG00000126803,ENSG00000173110,ENSG00000172201,ENSG00000169991,ENSG00000126709,ENSG00000111537,ENSG00000006652,ENSG00000146674,ENSG00000110324,ENSG00000137496,ENSG00000196083,ENSG00000197272,ENSG00000185291,ENSG00000136244,ENSG00000145103,ENSG00000198001,ENSG00000213949,ENSG00000105855,ENSG00000180509,ENSG00000184156,ENSG00000147050,ENSG00000235750,ENSG00000189013,ENSG00000119138,ENSG00000172578,ENSG00000118058,ENSG00000174611,ENSG00000115919,ENSG00000159166,ENSG00000002549,ENSG00000150457,ENSG00000179241,ENSG00000156959,ENSG00000204577,ENSG00000182541,ENSG00000111052,ENSG00000101670,ENSG00000113368,ENSG00000143013,ENSG00000154359,ENSG00000147650,ENSG00000137269,ENSG00000162494,ENSG00000188906,ENSG00000181016,ENSG00000185231,ENSG00000123066,ENSG00000106780,ENSG00000105976,ENSG00000198160,ENSG00000169184,ENSG00000197965,ENSG00000205362,ENSG00000100330,ENSG00000183486,ENSG00000059728,ENSG00000119950,ENSG00000078177,ENSG00000138386,ENSG00000173559,ENSG00000188554,ENSG00000235568,ENSG00000144802,ENSG00000172548,ENSG00000140807,ENSG00000140853,ENSG00000148200,ENSG00000178694,ENSG00000179299,ENSG00000076685,ENSG00000135318,ENSG00000163545,ENSG00000089127,ENSG00000111335,ENSG00000135114,ENSG00000180304,ENSG00000122417,ENSG00000119900,ENSG00000173391,ENSG00000170909,ENSG00000145623,ENSG00000089041,ENSG00000181631,ENSG00000122884,ENSG00000111224,ENSG00000173193,ENSG00000041880,ENSG00000184588,ENSG00000113448,ENSG00000100311,ENSG00000134853,ENSG00000110435,ENSG00000152256,ENSG00000197121,ENSG00000173889,ENSG00000140451,ENSG00000144837,ENSG00000145287,ENSG00000116095,ENSG00000090924,ENSG00000178385,ENSG00000023902,ENSG00000188313,ENSG00000221866,ENSG00000240694,ENSG00000135241,ENSG00000185250,ENSG00000213639,ENSG00000158615,ENSG00000120910,ENSG00000124224,ENSG00000196850,ENSG00000005249,ENSG00000112619,ENSG00000135378,ENSG00000156011,ENSG00000240065,ENSG00000092010,ENSG00000165186,ENSG00000116260,ENSG00000107560,ENSG00000137502,ENSG00000127328,ENSG00000166128,ENSG00000123728,ENSG00000165105,ENSG00000213516,ENSG00000159200,ENSG00000054967,ENSG00000092871,ENSG00000080298,ENSG00000168421,ENSG00000115963,ENSG00000163162,ENSG00000176641,ENSG00000116514,ENSG00000137075,ENSG00000133818,ENSG00000018189,ENSG00000013392,ENSG00000171509,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000104112,ENSG00000187231,ENSG00000104205,ENSG00000163082,ENSG00000162105,ENSG00000112394,ENSG00000163393,ENSG00000170385,ENSG00000138459,ENSG00000080189,ENSG00000111371,ENSG00000136052,ENSG00000167703,ENSG00000151012,ENSG00000183023,ENSG00000180251,ENSG00000166750,ENSG00000112096,ENSG00000105866,ENSG00000104450,ENSG00000075142,ENSG00000154548,ENSG00000141380,ENSG00000123096,ENSG00000184005,ENSG00000101972,ENSG00000115415,ENSG00000170581,ENSG00000164543,ENSG00000081320,ENSG00000182253,ENSG00000172403,ENSG00000132718,ENSG00000157625,ENSG00000115183,ENSG00000231925,ENSG00000111490,ENSG00000109436,ENSG00000101849,ENSG00000129566,ENSG00000105967,ENSG00000177426,ENSG00000129028,ENSG00000145365,ENSG00000104067,ENSG00000185561,ENSG00000106829,ENSG00000137462,ENSG00000101916,ENSG00000169908,ENSG00000075568,ENSG00000146859,ENSG00000170006,ENSG00000166822,ENSG00000095209,ENSG00000136842,ENSG00000128872,ENSG00000179104,ENSG00000232810,ENSG00000145779,ENSG00000154310,ENSG00000136816,ENSG00000078804,ENSG00000112195,ENSG00000112343,ENSG00000116525,ENSG00000196428,ENSG00000157514,ENSG00000170892,ENSG00000121297,ENSG00000128881,ENSG00000162971,ENSG00000213886,ENSG00000173960,ENSG00000215114,ENSG00000169764,ENSG00000111981,ENSG00000083290,ENSG00000182168,ENSG00000058056,ENSG00000106346,ENSG00000175073,ENSG00000111424,ENSG00000147852,ENSG00000186806,ENSG00000114251,ENSG00000176105,ENSG00000119820,ENSG00000205189,ENSG00000058673,ENSG00000204186,ENSG00000188706,ENSG00000196387,ENSG00000159915,ENSG00000162702,ENSG00000188994,ENSG00000130818,ENSG00000127081</t>
+  </si>
+  <si>
+    <t>hsa-miR-149-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000165029,ENSG00000166016,ENSG00000157766,ENSG00000144476,ENSG00000134575,ENSG00000135503,ENSG00000139567,ENSG00000073670,ENSG00000114948,ENSG00000138316,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000128165,ENSG00000155966,ENSG00000188157,ENSG00000177674,ENSG00000117020,ENSG00000136010,ENSG00000114019,ENSG00000174945,ENSG00000167772,ENSG00000029534,ENSG00000176915,ENSG00000152766,ENSG00000163297,ENSG00000131471,ENSG00000157823,ENSG00000100478,ENSG00000254470,ENSG00000154856,ENSG00000243811,ENSG00000128394,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000169083,ENSG00000047365,ENSG00000137727,ENSG00000134909,ENSG00000050327,ENSG00000140450,ENSG00000110046,ENSG00000168874,ENSG00000058063,ENSG00000163635,ENSG00000121578,ENSG00000158470,ENSG00000105327,ENSG00000181004,ENSG00000153094,ENSG00000186174,ENSG00000167995,ENSG00000142959,ENSG00000123095,ENSG00000176171,ENSG00000119411,ENSG00000151136,ENSG00000183826,ENSG00000124508,ENSG00000026950,ENSG00000186470,ENSG00000111801,ENSG00000167173,ENSG00000205710,ENSG00000163145,ENSG00000164096,ENSG00000113583,ENSG00000082213,ENSG00000181577,ENSG00000074410,ENSG00000064989,ENSG00000130940,ENSG00000160200,ENSG00000198624,ENSG00000125633,ENSG00000108702,ENSG00000152669,ENSG00000126353,ENSG00000186407,ENSG00000004468,ENSG00000026508,ENSG00000121594,ENSG00000143776,ENSG00000179604,ENSG00000197622,ENSG00000158985,ENSG00000101290,ENSG00000166446,ENSG00000007129,ENSG00000149187,ENSG00000172292,ENSG00000128849,ENSG00000204116,ENSG00000166869,ENSG00000123989,ENSG00000122863,ENSG00000114737,ENSG00000175505,ENSG00000166523,ENSG00000120885,ENSG00000143771,ENSG00000173786,ENSG00000115520,ENSG00000150938,ENSG00000121005,ENSG00000103196,ENSG00000160741,ENSG00000144655,ENSG00000175215,ENSG00000116761,ENSG00000141086,ENSG00000163735,ENSG00000160683,ENSG00000188215,ENSG00000105339,ENSG00000150672,ENSG00000170464,ENSG00000115137,ENSG00000138101,ENSG00000111266,ENSG00000120875,ENSG00000134109,ENSG00000169242,ENSG00000129521,ENSG00000110047,ENSG00000173812,ENSG00000114784,ENSG00000102034,ENSG00000126767,ENSG00000164181,ENSG00000129595,ENSG00000141736,ENSG00000107566,ENSG00000134954,ENSG00000157557,ENSG00000010030,ENSG00000150510,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000151327,ENSG00000108950,ENSG00000173065,ENSG00000117560,ENSG00000156860,ENSG00000116663,ENSG00000186431,ENSG00000145780,ENSG00000161958,ENSG00000090554,ENSG00000075426,ENSG00000155760,ENSG00000131482,ENSG00000033327,ENSG00000143641,ENSG00000162645,ENSG00000023909,ENSG00000176928,ENSG00000198380,ENSG00000189280,ENSG00000175066,ENSG00000135821,ENSG00000158292,ENSG00000180758,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000215045,ENSG00000198785,ENSG00000100226,ENSG00000049239,ENSG00000170961,ENSG00000182782,ENSG00000255398,ENSG00000206344,ENSG00000165259,ENSG00000173706,ENSG00000241106,ENSG00000204592,ENSG00000221887,ENSG00000159184,ENSG00000153976,ENSG00000125430,ENSG00000155304,ENSG00000163600,ENSG00000172201,ENSG00000162783,ENSG00000169991,ENSG00000142166,ENSG00000159110,ENSG00000111537,ENSG00000167244,ENSG00000073792,ENSG00000142549,ENSG00000243646,ENSG00000144730,ENSG00000137496,ENSG00000115008,ENSG00000125538,ENSG00000100385,ENSG00000136244,ENSG00000145103,ENSG00000125629,ENSG00000090376,ENSG00000198001,ENSG00000159556,ENSG00000213949,ENSG00000005844,ENSG00000259207,ENSG00000113263,ENSG00000148841,ENSG00000205730,ENSG00000243789,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000117139,ENSG00000235750,ENSG00000149571,ENSG00000155090,ENSG00000130487,ENSG00000118058,ENSG00000183762,ENSG00000174611,ENSG00000078081,ENSG00000043462,ENSG00000179241,ENSG00000156959,ENSG00000104974,ENSG00000104972,ENSG00000131042,ENSG00000111052,ENSG00000101670,ENSG00000204020,ENSG00000189067,ENSG00000139636,ENSG00000164715,ENSG00000154359,ENSG00000113083,ENSG00000134013,ENSG00000121931,ENSG00000197324,ENSG00000137507,ENSG00000013619,ENSG00000006432,ENSG00000175130,ENSG00000143384,ENSG00000140563,ENSG00000103313,ENSG00000134138,ENSG00000204516,ENSG00000157227,ENSG00000087245,ENSG00000008516,ENSG00000155363,ENSG00000079931,ENSG00000197965,ENSG00000178860,ENSG00000205358,ENSG00000188786,ENSG00000100330,ENSG00000183486,ENSG00000059728,ENSG00000133392,ENSG00000173559,ENSG00000161653,ENSG00000104419,ENSG00000070614,ENSG00000185633,ENSG00000082641,ENSG00000050344,ENSG00000104825,ENSG00000146232,ENSG00000131669,ENSG00000140807,ENSG00000168256,ENSG00000140853,ENSG00000119508,ENSG00000148200,ENSG00000125841,ENSG00000076685,ENSG00000176046,ENSG00000167693,ENSG00000111335,ENSG00000111331,ENSG00000122417,ENSG00000205927,ENSG00000160991,ENSG00000170909,ENSG00000132823,ENSG00000172818,ENSG00000089041,ENSG00000076641,ENSG00000110218,ENSG00000073150,ENSG00000111224,ENSG00000173193,ENSG00000113448,ENSG00000073417,ENSG00000197461,ENSG00000134853,ENSG00000113721,ENSG00000152256,ENSG00000162493,ENSG00000112378,ENSG00000173889,ENSG00000040199,ENSG00000091622,ENSG00000116095,ENSG00000143850,ENSG00000090924,ENSG00000126822,ENSG00000178385,ENSG00000023902,ENSG00000107020,ENSG00000188313,ENSG00000221866,ENSG00000140464,ENSG00000127838,ENSG00000185250,ENSG00000163644,ENSG00000087074,ENSG00000158615,ENSG00000120910,ENSG00000152784,ENSG00000180644,ENSG00000101000,ENSG00000112619,ENSG00000135378,ENSG00000116132,ENSG00000156011,ENSG00000041357,ENSG00000204264,ENSG00000169403,ENSG00000165186,ENSG00000125384,ENSG00000160013,ENSG00000124212,ENSG00000073008,ENSG00000116260,ENSG00000155961,ENSG00000127328,ENSG00000172780,ENSG00000166128,ENSG00000127314,ENSG00000123094,ENSG00000125826,ENSG00000184898,ENSG00000153250,ENSG00000159200,ENSG00000172348,ENSG00000092871,ENSG00000131378,ENSG00000080298,ENSG00000138835,ENSG00000164292,ENSG00000172602,ENSG00000151692,ENSG00000141622,ENSG00000116514,ENSG00000101236,ENSG00000159216,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000130590,ENSG00000177409,ENSG00000151748,ENSG00000074660,ENSG00000105711,ENSG00000136193,ENSG00000146555,ENSG00000141574,ENSG00000187764,ENSG00000149131,ENSG00000187231,ENSG00000104205,ENSG00000163082,ENSG00000162105,ENSG00000088827,ENSG00000177045,ENSG00000026751,ENSG00000112394,ENSG00000110436,ENSG00000163393,ENSG00000185052,ENSG00000147454,ENSG00000174502,ENSG00000146411,ENSG00000160326,ENSG00000158014,ENSG00000104154,ENSG00000080189,ENSG00000160190,ENSG00000111371,ENSG00000133065,ENSG00000167703,ENSG00000151012,ENSG00000103257,ENSG00000183023,ENSG00000197818,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000256235,ENSG00000198742,ENSG00000178996,ENSG00000185338,ENSG00000184557,ENSG00000112096,ENSG00000168939,ENSG00000154548,ENSG00000157350,ENSG00000070731,ENSG00000184005,ENSG00000113532,ENSG00000164543,ENSG00000081320,ENSG00000067221,ENSG00000173705,ENSG00000153157,ENSG00000162520,ENSG00000171992,ENSG00000157625,ENSG00000168394,ENSG00000065491,ENSG00000167202,ENSG00000111490,ENSG00000101849,ENSG00000204219,ENSG00000105967,ENSG00000140682,ENSG00000145365,ENSG00000185561,ENSG00000101916,ENSG00000135926,ENSG00000251201,ENSG00000146859,ENSG00000170006,ENSG00000134851,ENSG00000166822,ENSG00000188760,ENSG00000198133,ENSG00000095209,ENSG00000128872,ENSG00000232810,ENSG00000185215,ENSG00000118503,ENSG00000145779,ENSG00000120949,ENSG00000154310,ENSG00000145901,ENSG00000168884,ENSG00000050730,ENSG00000102871,ENSG00000056558,ENSG00000056972,ENSG00000112195,ENSG00000112343,ENSG00000204599,ENSG00000163462,ENSG00000196428,ENSG00000128881,ENSG00000085831,ENSG00000143367,ENSG00000259024,ENSG00000162971,ENSG00000213886,ENSG00000188021,ENSG00000215114,ENSG00000083290,ENSG00000130477,ENSG00000182168,ENSG00000168140,ENSG00000111424,ENSG00000147852,ENSG00000186806,ENSG00000114742,ENSG00000047644,ENSG00000101966,ENSG00000119820,ENSG00000196449,ENSG00000205189,ENSG00000116809,ENSG00000181472,ENSG00000188818,ENSG00000156639,ENSG00000105278,ENSG00000196387,ENSG00000198839,ENSG00000188994,ENSG00000125945,ENSG00000124201,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-2-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000154265,ENSG00000160179,ENSG00000196177,ENSG00000087085,ENSG00000115170,ENSG00000135503,ENSG00000139567,ENSG00000073670,ENSG00000114948,ENSG00000087116,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000155966,ENSG00000173744,ENSG00000177674,ENSG00000131016,ENSG00000148677,ENSG00000164236,ENSG00000065413,ENSG00000163297,ENSG00000157823,ENSG00000138613,ENSG00000128284,ENSG00000221963,ENSG00000047365,ENSG00000109321,ENSG00000134909,ENSG00000189079,ENSG00000150347,ENSG00000172379,ENSG00000029153,ENSG00000140450,ENSG00000162772,ENSG00000168874,ENSG00000058063,ENSG00000086062,ENSG00000121578,ENSG00000156273,ENSG00000176788,ENSG00000105327,ENSG00000114439,ENSG00000153094,ENSG00000167995,ENSG00000176171,ENSG00000183826,ENSG00000133639,ENSG00000112763,ENSG00000124508,ENSG00000186470,ENSG00000167173,ENSG00000197982,ENSG00000139178,ENSG00000113583,ENSG00000082213,ENSG00000181577,ENSG00000147894,ENSG00000074410,ENSG00000136436,ENSG00000070808,ENSG00000164305,ENSG00000100147,ENSG00000152492,ENSG00000149231,ENSG00000108702,ENSG00000166946,ENSG00000138764,ENSG00000152669,ENSG00000260916,ENSG00000120217,ENSG00000004468,ENSG00000026508,ENSG00000173762,ENSG00000143776,ENSG00000179604,ENSG00000158985,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000154240,ENSG00000135837,ENSG00000128849,ENSG00000173575,ENSG00000016391,ENSG00000204116,ENSG00000166664,ENSG00000129749,ENSG00000147434,ENSG00000171310,ENSG00000175040,ENSG00000122863,ENSG00000136026,ENSG00000120885,ENSG00000134326,ENSG00000091317,ENSG00000070729,ENSG00000143771,ENSG00000242689,ENSG00000184144,ENSG00000108582,ENSG00000166426,ENSG00000150938,ENSG00000121005,ENSG00000103196,ENSG00000160741,ENSG00000151292,ENSG00000175215,ENSG00000256043,ENSG00000169245,ENSG00000167600,ENSG00000108669,ENSG00000115165,ENSG00000100418,ENSG00000155011,ENSG00000128512,ENSG00000136048,ENSG00000111266,ENSG00000120875,ENSG00000138166,ENSG00000088881,ENSG00000105246,ENSG00000186197,ENSG00000134109,ENSG00000078401,ENSG00000135766,ENSG00000110047,ENSG00000173812,ENSG00000125977,ENSG00000102034,ENSG00000164181,ENSG00000154380,ENSG00000138185,ENSG00000197217,ENSG00000115109,ENSG00000178567,ENSG00000141736,ENSG00000124882,ENSG00000134954,ENSG00000205436,ENSG00000156500,ENSG00000154319,ENSG00000054965,ENSG00000151327,ENSG00000173065,ENSG00000026103,ENSG00000166147,ENSG00000108306,ENSG00000132879,ENSG00000186431,ENSG00000145780,ENSG00000075426,ENSG00000128573,ENSG00000150667,ENSG00000010810,ENSG00000033327,ENSG00000204681,ENSG00000143641,ENSG00000117226,ENSG00000183347,ENSG00000023909,ENSG00000121743,ENSG00000165474,ENSG00000164411,ENSG00000198814,ENSG00000175066,ENSG00000173221,ENSG00000135821,ENSG00000120063,ENSG00000135677,ENSG00000115159,ENSG00000183484,ENSG00000180758,ENSG00000023171,ENSG00000023171,ENSG00000180875,ENSG00000215045,ENSG00000151233,ENSG00000068024,ENSG00000173706,ENSG00000163666,ENSG00000164683,ENSG00000159399,ENSG00000206503,ENSG00000241106,ENSG00000204592,ENSG00000117594,ENSG00000126803,ENSG00000172201,ENSG00000188676,ENSG00000160888,ENSG00000162783,ENSG00000169991,ENSG00000137959,ENSG00000142166,ENSG00000159110,ENSG00000006652,ENSG00000167244,ENSG00000142549,ENSG00000123411,ENSG00000144730,ENSG00000122641,ENSG00000125629,ENSG00000168310,ENSG00000137265,ENSG00000117595,ENSG00000205730,ENSG00000162434,ENSG00000096968,ENSG00000105639,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000123700,ENSG00000173338,ENSG00000184156,ENSG00000117139,ENSG00000235750,ENSG00000174996,ENSG00000155090,ENSG00000130487,ENSG00000179454,ENSG00000183762,ENSG00000141068,ENSG00000179241,ENSG00000104972,ENSG00000131042,ENSG00000204577,ENSG00000182541,ENSG00000111052,ENSG00000101670,ENSG00000204020,ENSG00000189067,ENSG00000164187,ENSG00000164715,ENSG00000205791,ENSG00000134013,ENSG00000171517,ENSG00000171236,ENSG00000121931,ENSG00000197324,ENSG00000147650,ENSG00000137269,ENSG00000137507,ENSG00000162494,ENSG00000160285,ENSG00000254087,ENSG00000102316,ENSG00000006432,ENSG00000134046,ENSG00000143384,ENSG00000197771,ENSG00000153898,ENSG00000140563,ENSG00000108510,ENSG00000204520,ENSG00000198160,ENSG00000155545,ENSG00000150051,ENSG00000213190,ENSG00000157227,ENSG00000008516,ENSG00000153029,ENSG00000179826,ENSG00000188786,ENSG00000119950,ENSG00000173559,ENSG00000161653,ENSG00000105835,ENSG00000141562,ENSG00000104320,ENSG00000070614,ENSG00000235568,ENSG00000050344,ENSG00000131669,ENSG00000140807,ENSG00000168256,ENSG00000167034,ENSG00000166741,ENSG00000167207,ENSG00000113580,ENSG00000148200,ENSG00000178694,ENSG00000076685,ENSG00000163545,ENSG00000167693,ENSG00000101888,ENSG00000135114,ENSG00000180304,ENSG00000119900,ENSG00000173391,ENSG00000160991,ENSG00000172818,ENSG00000076641,ENSG00000073150,ENSG00000113448,ENSG00000134853,ENSG00000152256,ENSG00000164951,ENSG00000170525,ENSG00000197121,ENSG00000087157,ENSG00000173889,ENSG00000146247,ENSG00000040199,ENSG00000126003,ENSG00000011422,ENSG00000101333,ENSG00000075651,ENSG00000116095,ENSG00000143850,ENSG00000178385,ENSG00000107020,ENSG00000188313,ENSG00000221866,ENSG00000124225,ENSG00000140464,ENSG00000213639,ENSG00000173281,ENSG00000120910,ENSG00000124224,ENSG00000163605,ENSG00000196850,ENSG00000135378,ENSG00000116132,ENSG00000156011,ENSG00000152229,ENSG00000169403,ENSG00000165186,ENSG00000125384,ENSG00000124212,ENSG00000175354,ENSG00000073008,ENSG00000116260,ENSG00000107560,ENSG00000137502,ENSG00000155961,ENSG00000127328,ENSG00000175582,ENSG00000166128,ENSG00000006451,ENSG00000109756,ENSG00000172575,ENSG00000089050,ENSG00000159200,ENSG00000054967,ENSG00000164292,ENSG00000168421,ENSG00000116574,ENSG00000164327,ENSG00000151692,ENSG00000141622,ENSG00000116514,ENSG00000173821,ENSG00000137075,ENSG00000169855,ENSG00000048392,ENSG00000159216,ENSG00000124813,ENSG00000163602,ENSG00000173432,ENSG00000155307,ENSG00000151748,ENSG00000126524,ENSG00000064932,ENSG00000136193,ENSG00000146555,ENSG00000138593,ENSG00000170542,ENSG00000174705,ENSG00000108061,ENSG00000088827,ENSG00000142512,ENSG00000197555,ENSG00000136603,ENSG00000117090,ENSG00000110436,ENSG00000147454,ENSG00000174502,ENSG00000104154,ENSG00000138459,ENSG00000080189,ENSG00000134294,ENSG00000104635,ENSG00000151012,ENSG00000103257,ENSG00000183023,ENSG00000100678,ENSG00000197818,ENSG00000166750,ENSG00000101665,ENSG00000086300,ENSG00000178996,ENSG00000112096,ENSG00000105866,ENSG00000168939,ENSG00000141380,ENSG00000123096,ENSG00000115415,ENSG00000113739,ENSG00000127954,ENSG00000130413,ENSG00000067221,ENSG00000173705,ENSG00000182253,ENSG00000172403,ENSG00000103528,ENSG00000065491,ENSG00000167202,ENSG00000111490,ENSG00000146221,ENSG00000196663,ENSG00000114126,ENSG00000177426,ENSG00000127666,ENSG00000185561,ENSG00000178826,ENSG00000170006,ENSG00000198133,ENSG00000155755,ENSG00000095209,ENSG00000165071,ENSG00000128872,ENSG00000232810,ENSG00000145779,ENSG00000100284,ENSG00000136816,ENSG00000124251,ENSG00000056558,ENSG00000135148,ENSG00000101255,ENSG00000121060,ENSG00000234127,ENSG00000163462,ENSG00000102804,ENSG00000196428,ENSG00000128881,ENSG00000085831,ENSG00000156587,ENSG00000083290,ENSG00000182168,ENSG00000184979,ENSG00000148429,ENSG00000168140,ENSG00000038427,ENSG00000175073,ENSG00000111424,ENSG00000127831,ENSG00000147852,ENSG00000075399,ENSG00000114742,ENSG00000143816,ENSG00000047644,ENSG00000132530,ENSG00000101966,ENSG00000114127,ENSG00000163874,ENSG00000188706,ENSG00000136367,ENSG00000106261,ENSG00000162702,ENSG00000130818,ENSG00000198342,ENSG00000187187,ENSG00000223547,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000160179,ENSG00000135503,ENSG00000196526,ENSG00000155966,ENSG00000152766,ENSG00000221963,ENSG00000103569,ENSG00000205710,ENSG00000131943,ENSG00000074410,ENSG00000126353,ENSG00000150637,ENSG00000160683,ENSG00000188215,ENSG00000136048,ENSG00000197217,ENSG00000139083,ENSG00000010030,ENSG00000204681,ENSG00000099860,ENSG00000121743,ENSG00000175066,ENSG00000155304,ENSG00000182541,ENSG00000048540,ENSG00000164715,ENSG00000139329,ENSG00000128285,ENSG00000198160,ENSG00000099875,ENSG00000169184,ENSG00000161653,ENSG00000013374,ENSG00000138496,ENSG00000112378,ENSG00000140464,ENSG00000156011,ENSG00000169403,ENSG00000108352,ENSG00000163162,ENSG00000167703,ENSG00000103257,ENSG00000184557,ENSG00000172403,ENSG00000115183,ENSG00000204267,ENSG00000146859,ENSG00000170006,ENSG00000198133,ENSG00000095209,ENSG00000154310,ENSG00000102804,ENSG00000111981,ENSG00000130818</t>
+  </si>
+  <si>
+    <t>hsa-miR-191-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000160179,ENSG00000128271,ENSG00000029534,ENSG00000151693,ENSG00000183826,ENSG00000205710,ENSG00000074410,ENSG00000160200,ENSG00000101331,ENSG00000152669,ENSG00000136026,ENSG00000103196,ENSG00000116761,ENSG00000132792,ENSG00000161544,ENSG00000100697,ENSG00000173812,ENSG00000115109,ENSG00000139083,ENSG00000205436,ENSG00000108950,ENSG00000143641,ENSG00000183484,ENSG00000158292,ENSG00000158055,ENSG00000068024,ENSG00000204592,ENSG00000159184,ENSG00000160888,ENSG00000142166,ENSG00000148841,ENSG00000168970,ENSG00000132510,ENSG00000174611,ENSG00000013619,ENSG00000006432,ENSG00000008516,ENSG00000119950,ENSG00000173559,ENSG00000167034,ENSG00000113580,ENSG00000179299,ENSG00000065320,ENSG00000122417,ENSG00000160991,ENSG00000126822,ENSG00000124225,ENSG00000121577,ENSG00000196396,ENSG00000179331,ENSG00000172780,ENSG00000125826,ENSG00000159200,ENSG00000054967,ENSG00000166592,ENSG00000163602,ENSG00000141574,ENSG00000177045,ENSG00000117090,ENSG00000018280,ENSG00000111371,ENSG00000104635,ENSG00000103257,ENSG00000120833,ENSG00000157350,ENSG00000114126,ENSG00000130775,ENSG00000112195,ENSG00000213886,ENSG00000182168,ENSG00000112715</t>
+  </si>
+  <si>
+    <t>hsa-miR-199a-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000008311,ENSG00000165029,ENSG00000160179,ENSG00000136379,ENSG00000136754,ENSG00000143322,ENSG00000166016,ENSG00000087085,ENSG00000134575,ENSG00000139567,ENSG00000135074,ENSG00000114948,ENSG00000158859,ENSG00000185736,ENSG00000128165,ENSG00000196526,ENSG00000155966,ENSG00000177674,ENSG00000162433,ENSG00000111254,ENSG00000117020,ENSG00000111275,ENSG00000198796,ENSG00000133805,ENSG00000145362,ENSG00000164236,ENSG00000157823,ENSG00000254470,ENSG00000138613,ENSG00000128335,ENSG00000128284,ENSG00000103569,ENSG00000047365,ENSG00000137727,ENSG00000050327,ENSG00000189079,ENSG00000175906,ENSG00000172379,ENSG00000128203,ENSG00000162772,ENSG00000110046,ENSG00000155096,ENSG00000121578,ENSG00000158470,ENSG00000156273,ENSG00000105327,ENSG00000153094,ENSG00000186174,ENSG00000123095,ENSG00000023445,ENSG00000183826,ENSG00000133639,ENSG00000205710,ENSG00000131943,ENSG00000139178,ENSG00000154642,ENSG00000074410,ENSG00000136436,ENSG00000160200,ENSG00000115009,ENSG00000121807,ENSG00000126353,ENSG00000091972,ENSG00000120217,ENSG00000101017,ENSG00000112149,ENSG00000179604,ENSG00000124762,ENSG00000111276,ENSG00000101290,ENSG00000168944,ENSG00000135837,ENSG00000130779,ENSG00000120885,ENSG00000134326,ENSG00000070729,ENSG00000173786,ENSG00000242689,ENSG00000150938,ENSG00000103196,ENSG00000147408,ENSG00000110925,ENSG00000163735,ENSG00000124875,ENSG00000138755,ENSG00000100243,ENSG00000108669,ENSG00000181381,ENSG00000105339,ENSG00000100418,ENSG00000108771,ENSG00000100697,ENSG00000155011,ENSG00000150672,ENSG00000170464,ENSG00000115137,ENSG00000136048,ENSG00000111817,ENSG00000088881,ENSG00000117298,ENSG00000186197,ENSG00000134109,ENSG00000183690,ENSG00000184349,ENSG00000125977,ENSG00000154380,ENSG00000082397,ENSG00000136541,ENSG00000178607,ENSG00000134954,ENSG00000157557,ENSG00000253831,ENSG00000139083,ENSG00000010030,ENSG00000158769,ENSG00000150510,ENSG00000155744,ENSG00000173065,ENSG00000108306,ENSG00000162897,ENSG00000143226,ENSG00000181036,ENSG00000161958,ENSG00000075420,ENSG00000033327,ENSG00000143641,ENSG00000257594,ENSG00000117228,ENSG00000162645,ENSG00000131979,ENSG00000196329,ENSG00000121743,ENSG00000135821,ENSG00000135677,ENSG00000179399,ENSG00000115159,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000198785,ENSG00000151233,ENSG00000100453,ENSG00000049239,ENSG00000170961,ENSG00000182782,ENSG00000068024,ENSG00000173706,ENSG00000127311,ENSG00000138642,ENSG00000122557,ENSG00000100644,ENSG00000159399,ENSG00000206503,ENSG00000136630,ENSG00000117594,ENSG00000169991,ENSG00000068079,ENSG00000142166,ENSG00000159110,ENSG00000146674,ENSG00000110324,ENSG00000096996,ENSG00000144730,ENSG00000134460,ENSG00000100385,ENSG00000077238,ENSG00000134070,ENSG00000137265,ENSG00000213928,ENSG00000005844,ENSG00000105855,ENSG00000113263,ENSG00000148841,ENSG00000205730,ENSG00000184156,ENSG00000235750,ENSG00000133116,ENSG00000119138,ENSG00000172578,ENSG00000174611,ENSG00000179241,ENSG00000156959,ENSG00000101670,ENSG00000189067,ENSG00000048540,ENSG00000171236,ENSG00000137269,ENSG00000137507,ENSG00000127399,ENSG00000102897,ENSG00000006432,ENSG00000197771,ENSG00000175471,ENSG00000140563,ENSG00000134138,ENSG00000101574,ENSG00000204520,ENSG00000087245,ENSG00000008516,ENSG00000169184,ENSG00000204839,ENSG00000157601,ENSG00000173559,ENSG00000141562,ENSG00000158517,ENSG00000189430,ENSG00000166579,ENSG00000070614,ENSG00000082641,ENSG00000050344,ENSG00000165030,ENSG00000109320,ENSG00000131669,ENSG00000172548,ENSG00000140807,ENSG00000166741,ENSG00000160113,ENSG00000122643,ENSG00000065320,ENSG00000101888,ENSG00000123240,ENSG00000160991,ENSG00000089041,ENSG00000076641,ENSG00000113448,ENSG00000160191,ENSG00000100311,ENSG00000152256,ENSG00000162493,ENSG00000170525,ENSG00000197121,ENSG00000142657,ENSG00000173889,ENSG00000116095,ENSG00000090924,ENSG00000178385,ENSG00000023902,ENSG00000107020,ENSG00000188313,ENSG00000164050,ENSG00000124225,ENSG00000140464,ENSG00000121577,ENSG00000185250,ENSG00000117360,ENSG00000135378,ENSG00000116132,ENSG00000240065,ENSG00000092010,ENSG00000124212,ENSG00000116260,ENSG00000206418,ENSG00000137502,ENSG00000127328,ENSG00000166128,ENSG00000006451,ENSG00000108352,ENSG00000054967,ENSG00000092871,ENSG00000131378,ENSG00000080298,ENSG00000144468,ENSG00000187010,ENSG00000167550,ENSG00000168421,ENSG00000172602,ENSG00000124226,ENSG00000137393,ENSG00000163162,ENSG00000141622,ENSG00000173821,ENSG00000137075,ENSG00000134321,ENSG00000146374,ENSG00000136514,ENSG00000159216,ENSG00000020633,ENSG00000163602,ENSG00000205413,ENSG00000130066,ENSG00000000457,ENSG00000146555,ENSG00000138593,ENSG00000187764,ENSG00000166396,ENSG00000130766,ENSG00000187231,ENSG00000163082,ENSG00000174705,ENSG00000108061,ENSG00000117090,ENSG00000018280,ENSG00000112394,ENSG00000110436,ENSG00000185052,ENSG00000117394,ENSG00000146411,ENSG00000173262,ENSG00000059804,ENSG00000080189,ENSG00000134294,ENSG00000151012,ENSG00000103257,ENSG00000197818,ENSG00000137571,ENSG00000166750,ENSG00000256235,ENSG00000124216,ENSG00000184557,ENSG00000112096,ENSG00000135899,ENSG00000186583,ENSG00000141380,ENSG00000070731,ENSG00000182253,ENSG00000172403,ENSG00000132718,ENSG00000157625,ENSG00000231925,ENSG00000109436,ENSG00000159450,ENSG00000146221,ENSG00000196663,ENSG00000129566,ENSG00000135426,ENSG00000114126,ENSG00000163235,ENSG00000140682,ENSG00000173451,ENSG00000172738,ENSG00000137216,ENSG00000136842,ENSG00000145779,ENSG00000154310,ENSG00000056558,ENSG00000112195,ENSG00000101255,ENSG00000121060,ENSG00000112343,ENSG00000163462,ENSG00000116525,ENSG00000104321,ENSG00000102804,ENSG00000123297,ENSG00000085831,ENSG00000259024,ENSG00000162971,ENSG00000033178,ENSG00000150991,ENSG00000156587,ENSG00000159202,ENSG00000215114,ENSG00000148154,ENSG00000148429,ENSG00000175073,ENSG00000111424,ENSG00000112715,ENSG00000127831,ENSG00000257315,ENSG00000116809,ENSG00000204186,ENSG00000188706,ENSG00000178381,ENSG00000156639,ENSG00000196387,ENSG00000159915,ENSG00000204947,ENSG00000130818,ENSG00000187187,ENSG00000229809,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-219a-1-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000160179,ENSG00000166016,ENSG00000196177,ENSG00000151726,ENSG00000073670,ENSG00000042980,ENSG00000158859,ENSG00000185736,ENSG00000155966,ENSG00000173744,ENSG00000177674,ENSG00000204673,ENSG00000117020,ENSG00000179593,ENSG00000174945,ENSG00000163297,ENSG00000138356,ENSG00000100478,ENSG00000254470,ENSG00000138613,ENSG00000128394,ENSG00000100298,ENSG00000221963,ENSG00000169083,ENSG00000134909,ENSG00000070669,ENSG00000162772,ENSG00000185344,ENSG00000121578,ENSG00000076108,ENSG00000181004,ENSG00000153094,ENSG00000122870,ENSG00000023445,ENSG00000106605,ENSG00000154640,ENSG00000185015,ENSG00000064989,ENSG00000008118,ENSG00000152492,ENSG00000169515,ENSG00000108702,ENSG00000126353,ENSG00000107771,ENSG00000186407,ENSG00000004468,ENSG00000085117,ENSG00000112149,ENSG00000197622,ENSG00000111276,ENSG00000101290,ENSG00000149187,ENSG00000008300,ENSG00000168944,ENSG00000135837,ENSG00000172292,ENSG00000173575,ENSG00000166869,ENSG00000166664,ENSG00000175040,ENSG00000122863,ENSG00000136026,ENSG00000169504,ENSG00000113282,ENSG00000184144,ENSG00000103196,ENSG00000055130,ENSG00000138755,ENSG00000160683,ENSG00000019186,ENSG00000111012,ENSG00000167600,ENSG00000172817,ENSG00000188215,ENSG00000100697,ENSG00000150672,ENSG00000147647,ENSG00000111817,ENSG00000186197,ENSG00000184349,ENSG00000135766,ENSG00000102034,ENSG00000118985,ENSG00000154380,ENSG00000001561,ENSG00000138185,ENSG00000129595,ENSG00000115109,ENSG00000178567,ENSG00000124882,ENSG00000117036,ENSG00000150510,ENSG00000155744,ENSG00000108950,ENSG00000117560,ENSG00000112234,ENSG00000162897,ENSG00000181036,ENSG00000145780,ENSG00000075420,ENSG00000075426,ENSG00000171051,ENSG00000033327,ENSG00000204681,ENSG00000131386,ENSG00000143641,ENSG00000117228,ENSG00000162645,ENSG00000162654,ENSG00000131979,ENSG00000023909,ENSG00000189280,ENSG00000107249,ENSG00000173221,ENSG00000120063,ENSG00000135677,ENSG00000180758,ENSG00000174946,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000198785,ENSG00000100644,ENSG00000117594,ENSG00000173110,ENSG00000029559,ENSG00000137331,ENSG00000119917,ENSG00000142166,ENSG00000167244,ENSG00000146674,ENSG00000110324,ENSG00000243646,ENSG00000134470,ENSG00000144730,ENSG00000137496,ENSG00000134460,ENSG00000100385,ENSG00000090376,ENSG00000198001,ENSG00000159556,ENSG00000213949,ENSG00000138448,ENSG00000105855,ENSG00000086544,ENSG00000096968,ENSG00000123700,ENSG00000184156,ENSG00000117139,ENSG00000155090,ENSG00000067082,ENSG00000129451,ENSG00000141068,ENSG00000179241,ENSG00000104974,ENSG00000182541,ENSG00000111052,ENSG00000101670,ENSG00000164187,ENSG00000048540,ENSG00000205791,ENSG00000134013,ENSG00000138131,ENSG00000198121,ENSG00000137507,ENSG00000188906,ENSG00000248672,ENSG00000144063,ENSG00000189221,ENSG00000006432,ENSG00000134046,ENSG00000197771,ENSG00000175471,ENSG00000123066,ENSG00000134138,ENSG00000105419,ENSG00000133816,ENSG00000204516,ENSG00000133606,ENSG00000008516,ENSG00000197965,ENSG00000153029,ENSG00000119950,ENSG00000139597,ENSG00000173559,ENSG00000141562,ENSG00000050344,ENSG00000131669,ENSG00000140807,ENSG00000167034,ENSG00000166741,ENSG00000119508,ENSG00000148200,ENSG00000179299,ENSG00000111335,ENSG00000180304,ENSG00000122417,ENSG00000119900,ENSG00000173391,ENSG00000123240,ENSG00000160991,ENSG00000135124,ENSG00000089041,ENSG00000076641,ENSG00000134853,ENSG00000110435,ENSG00000146247,ENSG00000073921,ENSG00000137193,ENSG00000101333,ENSG00000178385,ENSG00000023902,ENSG00000188313,ENSG00000141682,ENSG00000124225,ENSG00000140464,ENSG00000121577,ENSG00000120910,ENSG00000171132,ENSG00000126464,ENSG00000135378,ENSG00000156011,ENSG00000171522,ENSG00000155961,ENSG00000123094,ENSG00000213516,ENSG00000054967,ENSG00000080298,ENSG00000144468,ENSG00000168421,ENSG00000151692,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000101236,ENSG00000137075,ENSG00000146374,ENSG00000018189,ENSG00000159216,ENSG00000013392,ENSG00000156671,ENSG00000205413,ENSG00000074660,ENSG00000104112,ENSG00000146555,ENSG00000138593,ENSG00000187231,ENSG00000163082,ENSG00000095370,ENSG00000088827,ENSG00000160584,ENSG00000177045,ENSG00000117090,ENSG00000112394,ENSG00000110436,ENSG00000174502,ENSG00000167703,ENSG00000111181,ENSG00000151012,ENSG00000166750,ENSG00000101665,ENSG00000198742,ENSG00000120833,ENSG00000112096,ENSG00000075142,ENSG00000141380,ENSG00000184005,ENSG00000113532,ENSG00000101972,ENSG00000168610,ENSG00000113739,ENSG00000164543,ENSG00000081320,ENSG00000130413,ENSG00000135604,ENSG00000162520,ENSG00000172403,ENSG00000132718,ENSG00000111490,ENSG00000109436,ENSG00000187735,ENSG00000159450,ENSG00000114126,ENSG00000105967,ENSG00000106829,ENSG00000101916,ENSG00000251201,ENSG00000170006,ENSG00000166822,ENSG00000198133,ENSG00000136842,ENSG00000128872,ENSG00000145779,ENSG00000154310,ENSG00000050730,ENSG00000136816,ENSG00000078804,ENSG00000056558,ENSG00000101255,ENSG00000132274,ENSG00000234127,ENSG00000100505,ENSG00000196428,ENSG00000145777,ENSG00000085831,ENSG00000033178,ENSG00000072401,ENSG00000215114,ENSG00000083290,ENSG00000182168,ENSG00000058056,ENSG00000145390,ENSG00000148429,ENSG00000175073,ENSG00000147852,ENSG00000132530,ENSG00000119820,ENSG00000156639,ENSG00000196387,ENSG00000125945,ENSG00000124201</t>
+  </si>
+  <si>
+    <t>hsa-miR-224-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000165029,ENSG00000143322,ENSG00000144476,ENSG00000068366,ENSG00000139567,ENSG00000128165,ENSG00000155966,ENSG00000173744,ENSG00000188157,ENSG00000042286,ENSG00000117020,ENSG00000114019,ENSG00000133805,ENSG00000174945,ENSG00000029534,ENSG00000164236,ENSG00000175311,ENSG00000034053,ENSG00000138613,ENSG00000100298,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000169083,ENSG00000137727,ENSG00000138639,ENSG00000134909,ENSG00000150347,ENSG00000175906,ENSG00000165997,ENSG00000113966,ENSG00000184867,ENSG00000172379,ENSG00000140450,ENSG00000130707,ENSG00000162772,ENSG00000168874,ENSG00000185344,ENSG00000155096,ENSG00000121578,ENSG00000156273,ENSG00000123685,ENSG00000076108,ENSG00000114439,ENSG00000153094,ENSG00000144857,ENSG00000183826,ENSG00000133639,ENSG00000154640,ENSG00000186470,ENSG00000111801,ENSG00000111678,ENSG00000131943,ENSG00000163145,ENSG00000182326,ENSG00000154642,ENSG00000113583,ENSG00000181577,ENSG00000164305,ENSG00000165806,ENSG00000152492,ENSG00000198624,ENSG00000138764,ENSG00000260916,ENSG00000160791,ENSG00000126353,ENSG00000107771,ENSG00000150637,ENSG00000004468,ENSG00000026508,ENSG00000124762,ENSG00000111276,ENSG00000101290,ENSG00000186567,ENSG00000135837,ENSG00000128849,ENSG00000173575,ENSG00000016391,ENSG00000166869,ENSG00000166664,ENSG00000147434,ENSG00000170175,ENSG00000171310,ENSG00000122863,ENSG00000157224,ENSG00000169504,ENSG00000134326,ENSG00000184144,ENSG00000100473,ENSG00000139117,ENSG00000203710,ENSG00000150938,ENSG00000103196,ENSG00000116761,ENSG00000132792,ENSG00000256043,ENSG00000169248,ENSG00000160683,ENSG00000019186,ENSG00000111012,ENSG00000167600,ENSG00000172817,ENSG00000115165,ENSG00000175197,ENSG00000181381,ENSG00000100697,ENSG00000155011,ENSG00000086061,ENSG00000134755,ENSG00000111817,ENSG00000120129,ENSG00000111266,ENSG00000120875,ENSG00000088881,ENSG00000184349,ENSG00000135766,ENSG00000102034,ENSG00000126767,ENSG00000118985,ENSG00000154380,ENSG00000115109,ENSG00000178567,ENSG00000133106,ENSG00000124882,ENSG00000107566,ENSG00000136541,ENSG00000178607,ENSG00000134954,ENSG00000117036,ENSG00000139083,ENSG00000010030,ENSG00000169122,ENSG00000150510,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000151327,ENSG00000272414,ENSG00000166147,ENSG00000108306,ENSG00000112234,ENSG00000145780,ENSG00000161958,ENSG00000075420,ENSG00000167996,ENSG00000143641,ENSG00000162645,ENSG00000131979,ENSG00000164949,ENSG00000133561,ENSG00000121743,ENSG00000198814,ENSG00000120063,ENSG00000135677,ENSG00000120370,ENSG00000062194,ENSG00000179399,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000180875,ENSG00000172432,ENSG00000170961,ENSG00000182782,ENSG00000255398,ENSG00000165259,ENSG00000100644,ENSG00000206503,ENSG00000234745,ENSG00000204525,ENSG00000204632,ENSG00000136630,ENSG00000182952,ENSG00000159184,ENSG00000113749,ENSG00000153976,ENSG00000125430,ENSG00000155304,ENSG00000126803,ENSG00000163600,ENSG00000137959,ENSG00000152778,ENSG00000185201,ENSG00000159110,ENSG00000146674,ENSG00000134470,ENSG00000137496,ENSG00000136688,ENSG00000125629,ENSG00000090376,ENSG00000125347,ENSG00000137265,ENSG00000213949,ENSG00000138448,ENSG00000148841,ENSG00000205730,ENSG00000114982,ENSG00000157551,ENSG00000155090,ENSG00000172578,ENSG00000129451,ENSG00000183762,ENSG00000141068,ENSG00000156959,ENSG00000111052,ENSG00000101670,ENSG00000164187,ENSG00000164715,ENSG00000198121,ENSG00000171236,ENSG00000254087,ENSG00000013619,ENSG00000189221,ENSG00000107968,ENSG00000006432,ENSG00000134046,ENSG00000185231,ENSG00000143384,ENSG00000175471,ENSG00000140563,ENSG00000108510,ENSG00000123066,ENSG00000106780,ENSG00000133816,ENSG00000079931,ENSG00000197965,ENSG00000205362,ENSG00000205358,ENSG00000188786,ENSG00000065911,ENSG00000100330,ENSG00000145555,ENSG00000102921,ENSG00000138386,ENSG00000173559,ENSG00000161653,ENSG00000105835,ENSG00000070614,ENSG00000050344,ENSG00000146232,ENSG00000131669,ENSG00000140807,ENSG00000167034,ENSG00000166741,ENSG00000175206,ENSG00000123358,ENSG00000119508,ENSG00000179299,ENSG00000076685,ENSG00000167693,ENSG00000145623,ENSG00000172818,ENSG00000076641,ENSG00000145730,ENSG00000110218,ENSG00000183570,ENSG00000073417,ENSG00000160191,ENSG00000134853,ENSG00000113721,ENSG00000152256,ENSG00000197329,ENSG00000170525,ENSG00000197121,ENSG00000146247,ENSG00000040199,ENSG00000121716,ENSG00000075651,ENSG00000116095,ENSG00000178385,ENSG00000188313,ENSG00000240694,ENSG00000180316,ENSG00000101751,ENSG00000121577,ENSG00000163644,ENSG00000213639,ENSG00000120910,ENSG00000124224,ENSG00000012211,ENSG00000135378,ENSG00000116132,ENSG00000156011,ENSG00000240065,ENSG00000169403,ENSG00000124212,ENSG00000196396,ENSG00000116260,ENSG00000107560,ENSG00000069974,ENSG00000127328,ENSG00000175582,ENSG00000166128,ENSG00000006451,ENSG00000116191,ENSG00000165105,ENSG00000172575,ENSG00000123094,ENSG00000089050,ENSG00000184898,ENSG00000159200,ENSG00000049449,ENSG00000054967,ENSG00000131378,ENSG00000164292,ENSG00000116574,ENSG00000150977,ENSG00000101782,ENSG00000115963,ENSG00000151692,ENSG00000137393,ENSG00000163162,ENSG00000176641,ENSG00000116514,ENSG00000137075,ENSG00000048392,ENSG00000134321,ENSG00000146374,ENSG00000136514,ENSG00000159216,ENSG00000124813,ENSG00000173432,ENSG00000104112,ENSG00000136193,ENSG00000124145,ENSG00000138593,ENSG00000075223,ENSG00000187764,ENSG00000242550,ENSG00000166396,ENSG00000197019,ENSG00000187231,ENSG00000104205,ENSG00000163082,ENSG00000174705,ENSG00000162105,ENSG00000088827,ENSG00000160584,ENSG00000112394,ENSG00000110436,ENSG00000185052,ENSG00000147454,ENSG00000146411,ENSG00000173262,ENSG00000059804,ENSG00000158014,ENSG00000104154,ENSG00000138459,ENSG00000080189,ENSG00000138821,ENSG00000133065,ENSG00000136052,ENSG00000151012,ENSG00000183023,ENSG00000166750,ENSG00000101596,ENSG00000256235,ENSG00000188817,ENSG00000086300,ENSG00000167208,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000138600,ENSG00000168939,ENSG00000075142,ENSG00000154548,ENSG00000184005,ENSG00000113532,ENSG00000164543,ENSG00000135604,ENSG00000162520,ENSG00000171992,ENSG00000172403,ENSG00000212127,ENSG00000111490,ENSG00000101849,ENSG00000135269,ENSG00000114126,ENSG00000105967,ENSG00000163235,ENSG00000173451,ENSG00000145365,ENSG00000163659,ENSG00000104067,ENSG00000185561,ENSG00000106829,ENSG00000135926,ENSG00000146859,ENSG00000170006,ENSG00000166822,ENSG00000172738,ENSG00000155755,ENSG00000196932,ENSG00000095209,ENSG00000165685,ENSG00000165071,ENSG00000128872,ENSG00000078804,ENSG00000124251,ENSG00000056972,ENSG00000135148,ENSG00000112195,ENSG00000112343,ENSG00000204599,ENSG00000100505,ENSG00000102804,ENSG00000196428,ENSG00000128881,ENSG00000143367,ENSG00000162971,ENSG00000072401,ENSG00000188021,ENSG00000144224,ENSG00000177169,ENSG00000083290,ENSG00000130477,ENSG00000145390,ENSG00000148429,ENSG00000175073,ENSG00000127831,ENSG00000147852,ENSG00000186806,ENSG00000187260,ENSG00000143816,ENSG00000047644,ENSG00000176105,ENSG00000119801,ENSG00000205189,ENSG00000204186,ENSG00000188706,ENSG00000156639,ENSG00000106261,ENSG00000196387,ENSG00000010539,ENSG00000198839,ENSG00000162702,ENSG00000125945,ENSG00000187187,ENSG00000223547,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-23b-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000162433,ENSG00000154856,ENSG00000165997,ENSG00000163660,ENSG00000150637,ENSG00000110925,ENSG00000163735,ENSG00000104714,ENSG00000180875,ENSG00000163666,ENSG00000136244,ENSG00000147050,ENSG00000171517,ENSG00000162494,ENSG00000107968,ENSG00000140563,ENSG00000144802,ENSG00000112378,ENSG00000141682,ENSG00000140464,ENSG00000180316,ENSG00000129472,ENSG00000149131,ENSG00000178996,ENSG00000138600,ENSG00000141380,ENSG00000065491,ENSG00000163235,ENSG00000177426,ENSG00000163659,ENSG00000095209,ENSG00000169902,ENSG00000112343,ENSG00000104321,ENSG00000072401,ENSG00000147852,ENSG00000101966</t>
+  </si>
+  <si>
+    <t>hsa-miR-26a-2-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000154265,ENSG00000162433,ENSG00000117020,ENSG00000100342,ENSG00000128335,ENSG00000137727,ENSG00000165997,ENSG00000172379,ENSG00000058063,ENSG00000023445,ENSG00000117475,ENSG00000082213,ENSG00000152492,ENSG00000158985,ENSG00000166527,ENSG00000242689,ENSG00000169862,ENSG00000184349,ENSG00000154380,ENSG00000001561,ENSG00000151327,ENSG00000112234,ENSG00000128573,ENSG00000176928,ENSG00000165474,ENSG00000198814,ENSG00000120370,ENSG00000139572,ENSG00000138642,ENSG00000122557,ENSG00000164683,ENSG00000148841,ENSG00000111052,ENSG00000189067,ENSG00000108510,ENSG00000153029,ENSG00000173559,ENSG00000122417,ENSG00000110435,ENSG00000005249,ENSG00000135378,ENSG00000165105,ENSG00000159200,ENSG00000049449,ENSG00000048392,ENSG00000187231,ENSG00000112394,ENSG00000101849,ENSG00000159450,ENSG00000251201,ENSG00000121236,ENSG00000215114,ENSG00000106346,ENSG00000147852,ENSG00000205189,ENSG00000204186,ENSG00000188994,ENSG00000243660</t>
+  </si>
+  <si>
+    <t>hsa-miR-26b-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000154265,ENSG00000136379,ENSG00000136754,ENSG00000143322,ENSG00000123130,ENSG00000068366,ENSG00000135074,ENSG00000042980,ENSG00000158859,ENSG00000006831,ENSG00000155966,ENSG00000173744,ENSG00000177674,ENSG00000162433,ENSG00000131016,ENSG00000136010,ENSG00000109107,ENSG00000179593,ENSG00000198796,ENSG00000114019,ENSG00000174945,ENSG00000136859,ENSG00000164236,ENSG00000163297,ENSG00000254470,ENSG00000100342,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000242247,ENSG00000137727,ENSG00000138639,ENSG00000134909,ENSG00000189079,ENSG00000150347,ENSG00000128203,ENSG00000162772,ENSG00000110046,ENSG00000058063,ENSG00000185344,ENSG00000163635,ENSG00000155096,ENSG00000086062,ENSG00000121578,ENSG00000158470,ENSG00000114439,ENSG00000121380,ENSG00000113916,ENSG00000186174,ENSG00000123095,ENSG00000122870,ENSG00000106605,ENSG00000125845,ENSG00000153162,ENSG00000144857,ENSG00000183826,ENSG00000133639,ENSG00000026950,ENSG00000163145,ENSG00000115998,ENSG00000082213,ENSG00000181577,ENSG00000074410,ENSG00000064989,ENSG00000130940,ENSG00000167131,ENSG00000152492,ENSG00000198624,ENSG00000125633,ENSG00000108702,ENSG00000115009,ENSG00000166946,ENSG00000138764,ENSG00000260916,ENSG00000160791,ENSG00000158473,ENSG00000004468,ENSG00000179604,ENSG00000197622,ENSG00000101290,ENSG00000166446,ENSG00000168944,ENSG00000174799,ENSG00000016391,ENSG00000064886,ENSG00000204116,ENSG00000170175,ENSG00000171310,ENSG00000122863,ENSG00000114737,ENSG00000155962,ENSG00000169504,ENSG00000120885,ENSG00000070729,ENSG00000173786,ENSG00000108582,ENSG00000103196,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000256043,ENSG00000055130,ENSG00000163739,ENSG00000081041,ENSG00000163734,ENSG00000161544,ENSG00000188215,ENSG00000128917,ENSG00000136048,ENSG00000111817,ENSG00000163840,ENSG00000111266,ENSG00000120875,ENSG00000186197,ENSG00000183690,ENSG00000135766,ENSG00000126767,ENSG00000154380,ENSG00000001561,ENSG00000197217,ENSG00000115109,ENSG00000133106,ENSG00000104714,ENSG00000178607,ENSG00000169122,ENSG00000150510,ENSG00000054965,ENSG00000173065,ENSG00000272414,ENSG00000026103,ENSG00000156860,ENSG00000108306,ENSG00000112234,ENSG00000162897,ENSG00000157827,ENSG00000171051,ENSG00000155760,ENSG00000033327,ENSG00000131386,ENSG00000162654,ENSG00000183347,ENSG00000135968,ENSG00000198380,ENSG00000133561,ENSG00000055211,ENSG00000121743,ENSG00000120063,ENSG00000135677,ENSG00000062194,ENSG00000183484,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000198785,ENSG00000151233,ENSG00000049239,ENSG00000255398,ENSG00000165259,ENSG00000173706,ENSG00000130589,ENSG00000241106,ENSG00000153976,ENSG00000117594,ENSG00000173110,ENSG00000090339,ENSG00000169991,ENSG00000068079,ENSG00000137959,ENSG00000119922,ENSG00000142166,ENSG00000146674,ENSG00000123411,ENSG00000144730,ENSG00000137496,ENSG00000125538,ENSG00000134460,ENSG00000136688,ENSG00000185291,ENSG00000077238,ENSG00000122641,ENSG00000134070,ENSG00000125347,ENSG00000137265,ENSG00000117595,ENSG00000159556,ENSG00000105855,ENSG00000113263,ENSG00000086544,ENSG00000114982,ENSG00000184156,ENSG00000117139,ENSG00000189013,ENSG00000067082,ENSG00000119138,ENSG00000172578,ENSG00000118058,ENSG00000183762,ENSG00000159166,ENSG00000104974,ENSG00000131042,ENSG00000111052,ENSG00000101670,ENSG00000189067,ENSG00000113083,ENSG00000198121,ENSG00000171517,ENSG00000197324,ENSG00000162494,ENSG00000088899,ENSG00000006432,ENSG00000134046,ENSG00000185231,ENSG00000128285,ENSG00000143384,ENSG00000197771,ENSG00000140563,ENSG00000111554,ENSG00000103313,ENSG00000106780,ENSG00000105976,ENSG00000204520,ENSG00000198160,ENSG00000157227,ENSG00000008516,ENSG00000197965,ENSG00000153029,ENSG00000251349,ENSG00000188786,ENSG00000100330,ENSG00000119950,ENSG00000145555,ENSG00000078177,ENSG00000139597,ENSG00000161653,ENSG00000104320,ENSG00000188554,ENSG00000188505,ENSG00000158517,ENSG00000070614,ENSG00000235568,ENSG00000050344,ENSG00000131669,ENSG00000172548,ENSG00000168256,ENSG00000166741,ENSG00000119508,ENSG00000148200,ENSG00000178694,ENSG00000135318,ENSG00000065320,ENSG00000013374,ENSG00000167693,ENSG00000089127,ENSG00000180304,ENSG00000122417,ENSG00000119900,ENSG00000123240,ENSG00000160991,ENSG00000145623,ENSG00000165312,ENSG00000135124,ENSG00000089041,ENSG00000078589,ENSG00000072682,ENSG00000076641,ENSG00000059378,ENSG00000173193,ENSG00000254122,ENSG00000113448,ENSG00000073417,ENSG00000110435,ENSG00000173889,ENSG00000146247,ENSG00000040199,ENSG00000159337,ENSG00000075651,ENSG00000116095,ENSG00000143850,ENSG00000023902,ENSG00000188313,ENSG00000164050,ENSG00000124225,ENSG00000140464,ENSG00000180316,ENSG00000101751,ENSG00000163644,ENSG00000124224,ENSG00000163605,ENSG00000196850,ENSG00000171132,ENSG00000116132,ENSG00000156011,ENSG00000041357,ENSG00000169403,ENSG00000165186,ENSG00000125384,ENSG00000124212,ENSG00000073008,ENSG00000179331,ENSG00000172780,ENSG00000175582,ENSG00000166128,ENSG00000172819,ENSG00000123094,ENSG00000159200,ENSG00000092871,ENSG00000116741,ENSG00000168421,ENSG00000164327,ENSG00000101782,ENSG00000115963,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000101236,ENSG00000134321,ENSG00000136514,ENSG00000018189,ENSG00000159216,ENSG00000124813,ENSG00000020633,ENSG00000013392,ENSG00000171509,ENSG00000156671,ENSG00000177409,ENSG00000151748,ENSG00000074660,ENSG00000136193,ENSG00000125775,ENSG00000146555,ENSG00000091490,ENSG00000197249,ENSG00000170542,ENSG00000135919,ENSG00000197019,ENSG00000187231,ENSG00000163082,ENSG00000095370,ENSG00000162105,ENSG00000177045,ENSG00000117090,ENSG00000070915,ENSG00000112394,ENSG00000110436,ENSG00000163393,ENSG00000170385,ENSG00000138459,ENSG00000080189,ENSG00000138821,ENSG00000133065,ENSG00000151012,ENSG00000183023,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000167208,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000182957,ENSG00000138600,ENSG00000168939,ENSG00000075142,ENSG00000154548,ENSG00000141380,ENSG00000123096,ENSG00000115415,ENSG00000170581,ENSG00000168610,ENSG00000113739,ENSG00000067221,ENSG00000135604,ENSG00000182253,ENSG00000164691,ENSG00000115183,ENSG00000204267,ENSG00000111490,ENSG00000109436,ENSG00000073861,ENSG00000204219,ENSG00000205678,ENSG00000129566,ENSG00000135426,ENSG00000163235,ENSG00000173451,ENSG00000185561,ENSG00000101916,ENSG00000170006,ENSG00000106565,ENSG00000155755,ENSG00000095209,ENSG00000183726,ENSG00000121900,ENSG00000165071,ENSG00000136842,ENSG00000137747,ENSG00000118503,ENSG00000120949,ENSG00000145901,ENSG00000056558,ENSG00000112195,ENSG00000132274,ENSG00000121060,ENSG00000112343,ENSG00000204599,ENSG00000169871,ENSG00000100505,ENSG00000102804,ENSG00000157514,ENSG00000123297,ENSG00000128881,ENSG00000074935,ENSG00000033178,ENSG00000213886,ENSG00000072401,ENSG00000215114,ENSG00000111981,ENSG00000130477,ENSG00000182168,ENSG00000102226,ENSG00000058056,ENSG00000148429,ENSG00000038427,ENSG00000111424,ENSG00000112715,ENSG00000127831,ENSG00000147852,ENSG00000047644,ENSG00000132530,ENSG00000108039,ENSG00000176105,ENSG00000119820,ENSG00000119801,ENSG00000204186,ENSG00000156639,ENSG00000106261,ENSG00000198839,ENSG00000188994,ENSG00000125945,ENSG00000198342,ENSG00000102984,ENSG00000223547,ENSG00000124201,ENSG00000180233,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-30a-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000165029,ENSG00000143322,ENSG00000166016,ENSG00000107897,ENSG00000139567,ENSG00000114948,ENSG00000042980,ENSG00000158859,ENSG00000185736,ENSG00000038002,ENSG00000173744,ENSG00000188157,ENSG00000131016,ENSG00000117020,ENSG00000136010,ENSG00000111275,ENSG00000114019,ENSG00000136859,ENSG00000152766,ENSG00000164236,ENSG00000065413,ENSG00000175311,ENSG00000128383,ENSG00000243811,ENSG00000128394,ENSG00000100342,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000169083,ENSG00000137727,ENSG00000050327,ENSG00000113966,ENSG00000184867,ENSG00000113369,ENSG00000151693,ENSG00000163635,ENSG00000155096,ENSG00000121578,ENSG00000158470,ENSG00000114439,ENSG00000153094,ENSG00000121380,ENSG00000085185,ENSG00000106605,ENSG00000183826,ENSG00000125462,ENSG00000182326,ENSG00000154642,ENSG00000164096,ENSG00000147894,ENSG00000164305,ENSG00000138764,ENSG00000160791,ENSG00000150637,ENSG00000004468,ENSG00000026508,ENSG00000121594,ENSG00000085117,ENSG00000112149,ENSG00000101290,ENSG00000153046,ENSG00000149187,ENSG00000168944,ENSG00000174799,ENSG00000172292,ENSG00000172824,ENSG00000128849,ENSG00000173575,ENSG00000204116,ENSG00000166869,ENSG00000166664,ENSG00000175040,ENSG00000122863,ENSG00000175505,ENSG00000155962,ENSG00000169504,ENSG00000120885,ENSG00000070729,ENSG00000143771,ENSG00000173786,ENSG00000242689,ENSG00000044459,ENSG00000106603,ENSG00000100473,ENSG00000108582,ENSG00000139117,ENSG00000203710,ENSG00000121005,ENSG00000103196,ENSG00000100368,ENSG00000147408,ENSG00000116761,ENSG00000132792,ENSG00000256043,ENSG00000169245,ENSG00000169248,ENSG00000163734,ENSG00000138755,ENSG00000172817,ENSG00000070190,ENSG00000139990,ENSG00000188215,ENSG00000080007,ENSG00000150672,ENSG00000104093,ENSG00000086061,ENSG00000136048,ENSG00000111817,ENSG00000143507,ENSG00000120875,ENSG00000164330,ENSG00000186197,ENSG00000184349,ENSG00000135766,ENSG00000129521,ENSG00000173812,ENSG00000102034,ENSG00000126767,ENSG00000118985,ENSG00000197217,ENSG00000082397,ENSG00000115109,ENSG00000178567,ENSG00000141736,ENSG00000187672,ENSG00000139083,ENSG00000010030,ENSG00000158769,ENSG00000154319,ENSG00000054965,ENSG00000166147,ENSG00000108306,ENSG00000112234,ENSG00000145780,ENSG00000073712,ENSG00000157827,ENSG00000075426,ENSG00000170802,ENSG00000128573,ENSG00000171051,ENSG00000010810,ENSG00000155760,ENSG00000131482,ENSG00000131386,ENSG00000143641,ENSG00000257594,ENSG00000117228,ENSG00000162645,ENSG00000117226,ENSG00000162654,ENSG00000135968,ENSG00000023909,ENSG00000055211,ENSG00000121743,ENSG00000198814,ENSG00000107249,ENSG00000151948,ENSG00000135821,ENSG00000120063,ENSG00000135677,ENSG00000062194,ENSG00000125772,ENSG00000115159,ENSG00000013588,ENSG00000106070,ENSG00000198785,ENSG00000173706,ENSG00000122557,ENSG00000163666,ENSG00000234745,ENSG00000241106,ENSG00000204592,ENSG00000136630,ENSG00000182952,ENSG00000110756,ENSG00000153976,ENSG00000125430,ENSG00000100209,ENSG00000117594,ENSG00000173110,ENSG00000090339,ENSG00000163600,ENSG00000172201,ENSG00000137959,ENSG00000119922,ENSG00000142166,ENSG00000006652,ENSG00000163453,ENSG00000123411,ENSG00000110324,ENSG00000243646,ENSG00000144730,ENSG00000125538,ENSG00000196083,ENSG00000197272,ENSG00000122641,ENSG00000125629,ENSG00000164675,ENSG00000134070,ENSG00000090376,ENSG00000198001,ENSG00000137265,ENSG00000213928,ENSG00000159556,ENSG00000113263,ENSG00000148841,ENSG00000162434,ENSG00000096968,ENSG00000114982,ENSG00000157551,ENSG00000123700,ENSG00000171121,ENSG00000184156,ENSG00000117139,ENSG00000147050,ENSG00000132510,ENSG00000155090,ENSG00000119138,ENSG00000172578,ENSG00000118058,ENSG00000174611,ENSG00000159166,ENSG00000002549,ENSG00000166173,ENSG00000150457,ENSG00000043462,ENSG00000182508,ENSG00000186818,ENSG00000111052,ENSG00000101670,ENSG00000164187,ENSG00000164715,ENSG00000113083,ENSG00000134013,ENSG00000171517,ENSG00000121931,ENSG00000197324,ENSG00000137507,ENSG00000162494,ENSG00000160285,ENSG00000248672,ENSG00000254087,ENSG00000102897,ENSG00000189221,ENSG00000006432,ENSG00000185231,ENSG00000197771,ENSG00000153898,ENSG00000175471,ENSG00000140563,ENSG00000108510,ENSG00000106780,ENSG00000105976,ENSG00000198160,ENSG00000133606,ENSG00000150051,ENSG00000155363,ENSG00000079931,ENSG00000153029,ENSG00000205362,ENSG00000205358,ENSG00000188786,ENSG00000065911,ENSG00000119950,ENSG00000142661,ENSG00000139597,ENSG00000104320,ENSG00000188554,ENSG00000188505,ENSG00000070614,ENSG00000235568,ENSG00000109320,ENSG00000104825,ENSG00000146232,ENSG00000140807,ENSG00000106100,ENSG00000175206,ENSG00000160113,ENSG00000119508,ENSG00000178694,ENSG00000076685,ENSG00000160991,ENSG00000089041,ENSG00000076641,ENSG00000110218,ENSG00000041880,ENSG00000254122,ENSG00000168300,ENSG00000113448,ENSG00000134853,ENSG00000110435,ENSG00000197121,ENSG00000173889,ENSG00000040199,ENSG00000073921,ENSG00000165195,ENSG00000118762,ENSG00000116095,ENSG00000143850,ENSG00000178385,ENSG00000107020,ENSG00000188313,ENSG00000114698,ENSG00000221866,ENSG00000146281,ENSG00000141682,ENSG00000124225,ENSG00000240694,ENSG00000135241,ENSG00000185250,ENSG00000158615,ENSG00000173281,ENSG00000120910,ENSG00000124224,ENSG00000163605,ENSG00000057657,ENSG00000005249,ENSG00000101000,ENSG00000112619,ENSG00000135378,ENSG00000116132,ENSG00000135069,ENSG00000156011,ENSG00000165186,ENSG00000073008,ENSG00000116260,ENSG00000137502,ENSG00000155961,ENSG00000127328,ENSG00000006451,ENSG00000116191,ENSG00000109756,ENSG00000165105,ENSG00000123094,ENSG00000089050,ENSG00000184898,ENSG00000213516,ENSG00000159200,ENSG00000092871,ENSG00000164292,ENSG00000150977,ENSG00000124226,ENSG00000137393,ENSG00000176641,ENSG00000166439,ENSG00000173821,ENSG00000169855,ENSG00000134321,ENSG00000136514,ENSG00000124813,ENSG00000163602,ENSG00000130590,ENSG00000156671,ENSG00000000457,ENSG00000075223,ENSG00000168878,ENSG00000104205,ENSG00000125731,ENSG00000162105,ENSG00000197555,ENSG00000117090,ENSG00000110436,ENSG00000079215,ENSG00000163393,ENSG00000197208,ENSG00000147454,ENSG00000146411,ENSG00000170385,ENSG00000104154,ENSG00000080189,ENSG00000134294,ENSG00000167703,ENSG00000151012,ENSG00000100678,ENSG00000180251,ENSG00000197818,ENSG00000166750,ENSG00000101665,ENSG00000084070,ENSG00000198742,ENSG00000124216,ENSG00000188817,ENSG00000086300,ENSG00000178996,ENSG00000112096,ENSG00000135899,ENSG00000105866,ENSG00000269404,ENSG00000168939,ENSG00000075142,ENSG00000154548,ENSG00000141380,ENSG00000123096,ENSG00000113532,ENSG00000138378,ENSG00000113739,ENSG00000081320,ENSG00000148175,ENSG00000196792,ENSG00000135604,ENSG00000162520,ENSG00000172403,ENSG00000132718,ENSG00000157625,ENSG00000204267,ENSG00000231925,ENSG00000167202,ENSG00000111490,ENSG00000109436,ENSG00000073861,ENSG00000129566,ENSG00000145365,ENSG00000163659,ENSG00000185561,ENSG00000106829,ENSG00000169908,ENSG00000251201,ENSG00000178826,ENSG00000146859,ENSG00000166822,ENSG00000155755,ENSG00000165685,ENSG00000121900,ENSG00000136842,ENSG00000128872,ENSG00000118503,ENSG00000145779,ENSG00000243509,ENSG00000154310,ENSG00000050730,ENSG00000136816,ENSG00000056558,ENSG00000135148,ENSG00000112195,ENSG00000132274,ENSG00000234127,ENSG00000204599,ENSG00000196428,ENSG00000157514,ENSG00000123297,ENSG00000145777,ENSG00000128881,ENSG00000143367,ENSG00000259024,ENSG00000033178,ENSG00000150991,ENSG00000156587,ENSG00000108106,ENSG00000159202,ENSG00000173960,ENSG00000215114,ENSG00000144224,ENSG00000111981,ENSG00000130477,ENSG00000182168,ENSG00000058056,ENSG00000148429,ENSG00000038427,ENSG00000175073,ENSG00000111424,ENSG00000186806,ENSG00000168658,ENSG00000187260,ENSG00000114251,ENSG00000132530,ENSG00000114127,ENSG00000176105,ENSG00000119820,ENSG00000119801,ENSG00000188707,ENSG00000205189,ENSG00000181472,ENSG00000204186,ENSG00000156639,ENSG00000136367,ENSG00000106261,ENSG00000141497,ENSG00000196387,ENSG00000198839,ENSG00000162702,ENSG00000188994,ENSG00000130818,ENSG00000125945,ENSG00000198342,ENSG00000127081,ENSG00000187187,ENSG00000229809,ENSG00000223547,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-30c-1-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000154265,ENSG00000143322,ENSG00000134575,ENSG00000135503,ENSG00000087116,ENSG00000185736,ENSG00000196526,ENSG00000155966,ENSG00000117020,ENSG00000029534,ENSG00000163297,ENSG00000254470,ENSG00000124701,ENSG00000173627,ENSG00000137727,ENSG00000134909,ENSG00000050327,ENSG00000189079,ENSG00000113966,ENSG00000205784,ENSG00000162772,ENSG00000058063,ENSG00000155096,ENSG00000153094,ENSG00000085185,ENSG00000106605,ENSG00000144857,ENSG00000026950,ENSG00000205710,ENSG00000070808,ENSG00000101331,ENSG00000166946,ENSG00000121807,ENSG00000186407,ENSG00000111276,ENSG00000149187,ENSG00000008300,ENSG00000168944,ENSG00000087237,ENSG00000204116,ENSG00000123989,ENSG00000166664,ENSG00000171310,ENSG00000120885,ENSG00000091317,ENSG00000070729,ENSG00000173786,ENSG00000044459,ENSG00000156234,ENSG00000081041,ENSG00000148795,ENSG00000172817,ENSG00000105339,ENSG00000155011,ENSG00000150672,ENSG00000163840,ENSG00000164330,ENSG00000117298,ENSG00000186197,ENSG00000114784,ENSG00000154380,ENSG00000117036,ENSG00000253831,ENSG00000155744,ENSG00000026103,ENSG00000129682,ENSG00000075426,ENSG00000204681,ENSG00000162654,ENSG00000175066,ENSG00000107249,ENSG00000204438,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000158055,ENSG00000178719,ENSG00000170961,ENSG00000130589,ENSG00000241106,ENSG00000095066,ENSG00000113749,ENSG00000117594,ENSG00000126709,ENSG00000103742,ENSG00000110324,ENSG00000196083,ENSG00000090376,ENSG00000137265,ENSG00000180509,ENSG00000184156,ENSG00000151364,ENSG00000130487,ENSG00000118058,ENSG00000183762,ENSG00000174611,ENSG00000104974,ENSG00000186818,ENSG00000164715,ENSG00000171236,ENSG00000137269,ENSG00000137507,ENSG00000162494,ENSG00000013619,ENSG00000006432,ENSG00000185231,ENSG00000197771,ENSG00000175471,ENSG00000198160,ENSG00000150051,ENSG00000213190,ENSG00000178860,ENSG00000198417,ENSG00000136371,ENSG00000100330,ENSG00000185499,ENSG00000116990,ENSG00000142661,ENSG00000050344,ENSG00000131669,ENSG00000106100,ENSG00000153234,ENSG00000119508,ENSG00000125841,ENSG00000076685,ENSG00000135114,ENSG00000122884,ENSG00000168300,ENSG00000113448,ENSG00000173889,ENSG00000159337,ENSG00000126003,ENSG00000101333,ENSG00000075651,ENSG00000107020,ENSG00000188313,ENSG00000146281,ENSG00000140464,ENSG00000146278,ENSG00000121577,ENSG00000158615,ENSG00000112619,ENSG00000156011,ENSG00000100902,ENSG00000165186,ENSG00000169228,ENSG00000172780,ENSG00000175582,ENSG00000116191,ENSG00000159200,ENSG00000172348,ENSG00000092871,ENSG00000176641,ENSG00000166439,ENSG00000173821,ENSG00000126458,ENSG00000136514,ENSG00000163602,ENSG00000173432,ENSG00000156671,ENSG00000074660,ENSG00000136193,ENSG00000146555,ENSG00000174705,ENSG00000108061,ENSG00000198053,ENSG00000136603,ENSG00000070915,ENSG00000112394,ENSG00000111371,ENSG00000133065,ENSG00000136052,ENSG00000183023,ENSG00000100678,ENSG00000166750,ENSG00000188817,ENSG00000157350,ENSG00000184005,ENSG00000127954,ENSG00000171992,ENSG00000172403,ENSG00000103528,ENSG00000167202,ENSG00000101849,ENSG00000205678,ENSG00000129566,ENSG00000114126,ENSG00000105967,ENSG00000173451,ENSG00000133069,ENSG00000178826,ENSG00000146859,ENSG00000188760,ENSG00000121900,ENSG00000128872,ENSG00000154310,ENSG00000112343,ENSG00000033178,ENSG00000108106,ENSG00000173960,ENSG00000177169,ENSG00000168140,ENSG00000147852,ENSG00000176105,ENSG00000058673,ENSG00000156639,ENSG00000141497,ENSG00000196387,ENSG00000198839,ENSG00000130818,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-30d-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000123130,ENSG00000177674,ENSG00000158467,ENSG00000163297,ENSG00000100478,ENSG00000123095,ENSG00000104327,ENSG00000158985,ENSG00000205846,ENSG00000181381,ENSG00000154380,ENSG00000136541,ENSG00000150510,ENSG00000155744,ENSG00000179399,ENSG00000164294,ENSG00000113070,ENSG00000206344,ENSG00000165259,ENSG00000188676,ENSG00000066583,ENSG00000180509,ENSG00000129451,ENSG00000115919,ENSG00000104974,ENSG00000113368,ENSG00000048540,ENSG00000128285,ENSG00000124785,ENSG00000122417,ENSG00000146247,ENSG00000145287,ENSG00000101751,ENSG00000213639,ENSG00000169228,ENSG00000129472,ENSG00000164327,ENSG00000101236,ENSG00000013392,ENSG00000163082,ENSG00000184005,ENSG00000164543,ENSG00000205678,ENSG00000163235,ENSG00000170006,ENSG00000124208,ENSG00000179104,ENSG00000121858,ENSG00000125657,ENSG00000072401,ENSG00000257315,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-331-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000165029,ENSG00000136754,ENSG00000143322,ENSG00000123130,ENSG00000073670,ENSG00000158859,ENSG00000155966,ENSG00000173744,ENSG00000131016,ENSG00000136859,ENSG00000148677,ENSG00000152766,ENSG00000163297,ENSG00000128394,ENSG00000173627,ENSG00000221963,ENSG00000184831,ENSG00000169379,ENSG00000165997,ENSG00000113966,ENSG00000113369,ENSG00000140450,ENSG00000151693,ENSG00000121578,ENSG00000114439,ENSG00000121380,ENSG00000123095,ENSG00000125845,ENSG00000100916,ENSG00000133639,ENSG00000124508,ENSG00000163145,ENSG00000139178,ENSG00000064989,ENSG00000166946,ENSG00000138764,ENSG00000260916,ENSG00000107771,ENSG00000158473,ENSG00000150637,ENSG00000120217,ENSG00000026508,ENSG00000143776,ENSG00000111276,ENSG00000149187,ENSG00000168944,ENSG00000174799,ENSG00000135837,ENSG00000128849,ENSG00000016391,ENSG00000175040,ENSG00000169504,ENSG00000134326,ENSG00000091317,ENSG00000184144,ENSG00000100473,ENSG00000147408,ENSG00000151292,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000169248,ENSG00000111012,ENSG00000172817,ENSG00000108669,ENSG00000115165,ENSG00000188215,ENSG00000105993,ENSG00000115137,ENSG00000120129,ENSG00000164330,ENSG00000134109,ENSG00000102034,ENSG00000164181,ENSG00000138185,ENSG00000197217,ENSG00000115109,ENSG00000178567,ENSG00000155744,ENSG00000151327,ENSG00000173065,ENSG00000112234,ENSG00000143226,ENSG00000161958,ENSG00000075420,ENSG00000116717,ENSG00000131386,ENSG00000176928,ENSG00000198380,ENSG00000121743,ENSG00000198814,ENSG00000135821,ENSG00000120063,ENSG00000120370,ENSG00000023171,ENSG00000023171,ENSG00000151233,ENSG00000170961,ENSG00000068024,ENSG00000165259,ENSG00000122557,ENSG00000100644,ENSG00000155304,ENSG00000173110,ENSG00000172201,ENSG00000162783,ENSG00000152778,ENSG00000115008,ENSG00000100385,ENSG00000104432,ENSG00000173404,ENSG00000134070,ENSG00000137265,ENSG00000213949,ENSG00000138448,ENSG00000105855,ENSG00000205730,ENSG00000096968,ENSG00000157551,ENSG00000123700,ENSG00000171121,ENSG00000184156,ENSG00000067082,ENSG00000172578,ENSG00000108679,ENSG00000101670,ENSG00000204020,ENSG00000189067,ENSG00000164187,ENSG00000113083,ENSG00000121931,ENSG00000188906,ENSG00000248672,ENSG00000254087,ENSG00000189221,ENSG00000134046,ENSG00000197771,ENSG00000153898,ENSG00000175471,ENSG00000140563,ENSG00000106780,ENSG00000105419,ENSG00000155545,ENSG00000197965,ENSG00000153029,ENSG00000100330,ENSG00000145555,ENSG00000139597,ENSG00000173559,ENSG00000104320,ENSG00000050344,ENSG00000140807,ENSG00000167034,ENSG00000113580,ENSG00000179299,ENSG00000163545,ENSG00000072682,ENSG00000197461,ENSG00000152256,ENSG00000170525,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000116095,ENSG00000178385,ENSG00000107020,ENSG00000135241,ENSG00000121577,ENSG00000213639,ENSG00000135447,ENSG00000173281,ENSG00000124224,ENSG00000163605,ENSG00000057657,ENSG00000171132,ENSG00000116132,ENSG00000165186,ENSG00000107560,ENSG00000129472,ENSG00000155961,ENSG00000127328,ENSG00000123728,ENSG00000172575,ENSG00000123094,ENSG00000089050,ENSG00000213516,ENSG00000080298,ENSG00000164327,ENSG00000116514,ENSG00000101236,ENSG00000169855,ENSG00000018189,ENSG00000124813,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000000457,ENSG00000146555,ENSG00000138593,ENSG00000075223,ENSG00000206073,ENSG00000149131,ENSG00000187231,ENSG00000174705,ENSG00000100652,ENSG00000112394,ENSG00000110436,ENSG00000079215,ENSG00000117394,ENSG00000059804,ENSG00000170385,ENSG00000111371,ENSG00000138821,ENSG00000136052,ENSG00000151012,ENSG00000183023,ENSG00000166750,ENSG00000188817,ENSG00000086300,ENSG00000178996,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000182957,ENSG00000122862,ENSG00000154548,ENSG00000184005,ENSG00000113532,ENSG00000173705,ENSG00000111490,ENSG00000205678,ENSG00000135426,ENSG00000105967,ENSG00000129028,ENSG00000101916,ENSG00000170006,ENSG00000198133,ENSG00000196932,ENSG00000095209,ENSG00000179104,ENSG00000145779,ENSG00000124251,ENSG00000056972,ENSG00000121236,ENSG00000100505,ENSG00000104321,ENSG00000128881,ENSG00000162971,ENSG00000033178,ENSG00000188021,ENSG00000127831,ENSG00000136059,ENSG00000114742,ENSG00000132530,ENSG00000114127,ENSG00000119820,ENSG00000205189,ENSG00000116809,ENSG00000132950,ENSG00000159915,ENSG00000198839,ENSG00000188994,ENSG00000198342,ENSG00000180233,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-335-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000165029,ENSG00000136754,ENSG00000143322,ENSG00000196177,ENSG00000107897,ENSG00000123130,ENSG00000068366,ENSG00000042980,ENSG00000087116,ENSG00000158859,ENSG00000196526,ENSG00000155966,ENSG00000173744,ENSG00000177674,ENSG00000158467,ENSG00000162433,ENSG00000117020,ENSG00000128918,ENSG00000136010,ENSG00000114019,ENSG00000133805,ENSG00000136859,ENSG00000029534,ENSG00000145362,ENSG00000176915,ENSG00000152766,ENSG00000164236,ENSG00000065413,ENSG00000163297,ENSG00000131471,ENSG00000138356,ENSG00000157823,ENSG00000100478,ENSG00000034053,ENSG00000154856,ENSG00000138613,ENSG00000100298,ENSG00000173627,ENSG00000100342,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000169083,ENSG00000047365,ENSG00000137727,ENSG00000138639,ENSG00000134909,ENSG00000213214,ENSG00000050327,ENSG00000189079,ENSG00000179361,ENSG00000054267,ENSG00000150347,ENSG00000169379,ENSG00000165997,ENSG00000113966,ENSG00000172379,ENSG00000029153,ENSG00000113369,ENSG00000140450,ENSG00000070669,ENSG00000058063,ENSG00000185344,ENSG00000163635,ENSG00000155096,ENSG00000121578,ENSG00000156273,ENSG00000176788,ENSG00000198604,ENSG00000114439,ENSG00000121380,ENSG00000085185,ENSG00000123095,ENSG00000122870,ENSG00000125845,ENSG00000144857,ENSG00000100916,ENSG00000151136,ENSG00000183826,ENSG00000133639,ENSG00000154640,ENSG00000112763,ENSG00000124508,ENSG00000166455,ENSG00000131943,ENSG00000163145,ENSG00000154642,ENSG00000164096,ENSG00000181577,ENSG00000074410,ENSG00000136436,ENSG00000064989,ENSG00000070808,ENSG00000164305,ENSG00000105971,ENSG00000160200,ENSG00000152492,ENSG00000169515,ENSG00000125633,ENSG00000108700,ENSG00000166946,ENSG00000138764,ENSG00000163660,ENSG00000152669,ENSG00000260916,ENSG00000184451,ENSG00000160791,ENSG00000158473,ENSG00000091972,ENSG00000150637,ENSG00000120217,ENSG00000004468,ENSG00000026508,ENSG00000085117,ENSG00000143776,ENSG00000179604,ENSG00000158985,ENSG00000111276,ENSG00000101290,ENSG00000153046,ENSG00000166446,ENSG00000149187,ENSG00000168944,ENSG00000174799,ENSG00000135837,ENSG00000172292,ENSG00000173575,ENSG00000016391,ENSG00000204116,ENSG00000086065,ENSG00000175040,ENSG00000136026,ENSG00000157224,ENSG00000155962,ENSG00000169504,ENSG00000113282,ENSG00000130779,ENSG00000120885,ENSG00000070729,ENSG00000173786,ENSG00000044459,ENSG00000100473,ENSG00000108582,ENSG00000203710,ENSG00000150938,ENSG00000121005,ENSG00000103196,ENSG00000151292,ENSG00000110925,ENSG00000055130,ENSG00000169248,ENSG00000163734,ENSG00000138755,ENSG00000111012,ENSG00000172817,ENSG00000115165,ENSG00000070190,ENSG00000139990,ENSG00000168209,ENSG00000080007,ENSG00000108771,ENSG00000100697,ENSG00000155011,ENSG00000171462,ENSG00000104093,ENSG00000170464,ENSG00000128512,ENSG00000134755,ENSG00000111817,ENSG00000163840,ENSG00000120875,ENSG00000164330,ENSG00000088881,ENSG00000134109,ENSG00000184349,ENSG00000135766,ENSG00000255150,ENSG00000125977,ENSG00000126767,ENSG00000118985,ENSG00000164181,ENSG00000154380,ENSG00000001561,ENSG00000138185,ENSG00000197217,ENSG00000082397,ENSG00000129595,ENSG00000178567,ENSG00000133106,ENSG00000187672,ENSG00000124882,ENSG00000136541,ENSG00000178607,ENSG00000134954,ENSG00000117036,ENSG00000139083,ENSG00000010030,ENSG00000169122,ENSG00000150510,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000151327,ENSG00000026103,ENSG00000117560,ENSG00000166147,ENSG00000108306,ENSG00000112234,ENSG00000116661,ENSG00000186431,ENSG00000150337,ENSG00000198019,ENSG00000145780,ENSG00000073712,ENSG00000126262,ENSG00000075420,ENSG00000075426,ENSG00000170802,ENSG00000128573,ENSG00000171051,ENSG00000171049,ENSG00000155760,ENSG00000131482,ENSG00000033327,ENSG00000139112,ENSG00000116717,ENSG00000131386,ENSG00000257594,ENSG00000117228,ENSG00000162645,ENSG00000162654,ENSG00000183347,ENSG00000135968,ENSG00000023909,ENSG00000176928,ENSG00000164949,ENSG00000198380,ENSG00000055211,ENSG00000121743,ENSG00000198814,ENSG00000175066,ENSG00000107249,ENSG00000173221,ENSG00000120063,ENSG00000060558,ENSG00000135677,ENSG00000120370,ENSG00000062194,ENSG00000179399,ENSG00000125772,ENSG00000115159,ENSG00000174946,ENSG00000013588,ENSG00000164294,ENSG00000180875,ENSG00000198785,ENSG00000151233,ENSG00000170961,ENSG00000113070,ENSG00000206344,ENSG00000165259,ENSG00000122557,ENSG00000100644,ENSG00000095951,ENSG00000159399,ENSG00000241106,ENSG00000204592,ENSG00000221887,ENSG00000153976,ENSG00000125430,ENSG00000100209,ENSG00000155304,ENSG00000126803,ENSG00000173110,ENSG00000172201,ENSG00000162783,ENSG00000137965,ENSG00000137959,ENSG00000119922,ENSG00000142166,ENSG00000111537,ENSG00000006652,ENSG00000167244,ENSG00000110324,ENSG00000144730,ENSG00000137496,ENSG00000196083,ENSG00000100385,ENSG00000077238,ENSG00000104432,ENSG00000122641,ENSG00000125629,ENSG00000090376,ENSG00000198001,ENSG00000168310,ENSG00000137265,ENSG00000117595,ENSG00000213949,ENSG00000138448,ENSG00000105855,ENSG00000113263,ENSG00000148841,ENSG00000205730,ENSG00000096968,ENSG00000157551,ENSG00000123700,ENSG00000171121,ENSG00000184156,ENSG00000235750,ENSG00000133116,ENSG00000155090,ENSG00000102554,ENSG00000067082,ENSG00000119138,ENSG00000179454,ENSG00000172578,ENSG00000141068,ENSG00000174611,ENSG00000159166,ENSG00000196878,ENSG00000078081,ENSG00000002549,ENSG00000043462,ENSG00000156959,ENSG00000104974,ENSG00000104972,ENSG00000131042,ENSG00000186818,ENSG00000182541,ENSG00000101670,ENSG00000204020,ENSG00000189067,ENSG00000164187,ENSG00000048540,ENSG00000143013,ENSG00000113083,ENSG00000198121,ENSG00000171517,ENSG00000171236,ENSG00000197324,ENSG00000147650,ENSG00000137269,ENSG00000137507,ENSG00000188906,ENSG00000181016,ENSG00000248672,ENSG00000189221,ENSG00000073803,ENSG00000156265,ENSG00000107968,ENSG00000006432,ENSG00000152939,ENSG00000134046,ENSG00000185231,ENSG00000128285,ENSG00000197771,ENSG00000175471,ENSG00000140563,ENSG00000111554,ENSG00000108510,ENSG00000123066,ENSG00000106780,ENSG00000134138,ENSG00000105976,ENSG00000101574,ENSG00000204520,ENSG00000133816,ENSG00000198160,ENSG00000133606,ENSG00000150051,ENSG00000213190,ENSG00000169184,ENSG00000155363,ENSG00000197965,ENSG00000153029,ENSG00000251349,ENSG00000205358,ENSG00000188786,ENSG00000065911,ENSG00000136371,ENSG00000100330,ENSG00000059728,ENSG00000119950,ENSG00000145555,ENSG00000142661,ENSG00000078177,ENSG00000139597,ENSG00000138386,ENSG00000173559,ENSG00000161653,ENSG00000105835,ENSG00000141562,ENSG00000104320,ENSG00000188554,ENSG00000188505,ENSG00000082641,ENSG00000050344,ENSG00000104825,ENSG00000131669,ENSG00000189134,ENSG00000140807,ENSG00000167034,ENSG00000123609,ENSG00000166741,ENSG00000160113,ENSG00000113580,ENSG00000119508,ENSG00000148200,ENSG00000124785,ENSG00000178694,ENSG00000179299,ENSG00000135318,ENSG00000013374,ENSG00000167693,ENSG00000101888,ENSG00000111331,ENSG00000122417,ENSG00000119900,ENSG00000205927,ENSG00000123240,ENSG00000160991,ENSG00000145623,ENSG00000089041,ENSG00000078589,ENSG00000076641,ENSG00000110218,ENSG00000111224,ENSG00000173193,ENSG00000138496,ENSG00000168300,ENSG00000113448,ENSG00000073417,ENSG00000197461,ENSG00000134853,ENSG00000110435,ENSG00000152256,ENSG00000164951,ENSG00000162493,ENSG00000112378,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000040199,ENSG00000073921,ENSG00000165195,ENSG00000137193,ENSG00000091622,ENSG00000145287,ENSG00000011422,ENSG00000101333,ENSG00000075651,ENSG00000116095,ENSG00000178385,ENSG00000023902,ENSG00000107020,ENSG00000152952,ENSG00000188313,ENSG00000114698,ENSG00000221866,ENSG00000146281,ENSG00000141682,ENSG00000124225,ENSG00000240694,ENSG00000135241,ENSG00000146278,ENSG00000101751,ENSG00000185250,ENSG00000163644,ENSG00000213639,ENSG00000087074,ENSG00000158615,ENSG00000173281,ENSG00000120910,ENSG00000124224,ENSG00000163605,ENSG00000005249,ENSG00000171132,ENSG00000112619,ENSG00000184838,ENSG00000135378,ENSG00000116132,ENSG00000135069,ENSG00000156011,ENSG00000100902,ENSG00000240065,ENSG00000152229,ENSG00000169403,ENSG00000165186,ENSG00000125384,ENSG00000124212,ENSG00000073756,ENSG00000196396,ENSG00000175354,ENSG00000116260,ENSG00000107560,ENSG00000206418,ENSG00000069974,ENSG00000137502,ENSG00000179331,ENSG00000155961,ENSG00000127328,ENSG00000175582,ENSG00000166128,ENSG00000006451,ENSG00000116191,ENSG00000127314,ENSG00000109756,ENSG00000165105,ENSG00000172575,ENSG00000089050,ENSG00000184898,ENSG00000153250,ENSG00000159200,ENSG00000172348,ENSG00000049449,ENSG00000054967,ENSG00000092871,ENSG00000080298,ENSG00000187010,ENSG00000164292,ENSG00000164327,ENSG00000101782,ENSG00000172602,ENSG00000115963,ENSG00000151692,ENSG00000137393,ENSG00000163162,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000101236,ENSG00000137075,ENSG00000169855,ENSG00000089169,ENSG00000159216,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000205413,ENSG00000130066,ENSG00000104112,ENSG00000136193,ENSG00000000457,ENSG00000146555,ENSG00000135094,ENSG00000141574,ENSG00000075223,ENSG00000242550,ENSG00000170542,ENSG00000135919,ENSG00000187231,ENSG00000104205,ENSG00000163082,ENSG00000125731,ENSG00000108061,ENSG00000088827,ENSG00000160584,ENSG00000136603,ENSG00000117090,ENSG00000026751,ENSG00000100652,ENSG00000112394,ENSG00000110436,ENSG00000079215,ENSG00000163393,ENSG00000197208,ENSG00000174502,ENSG00000146411,ENSG00000170385,ENSG00000104154,ENSG00000136867,ENSG00000080189,ENSG00000111371,ENSG00000134294,ENSG00000104635,ENSG00000138821,ENSG00000136052,ENSG00000167703,ENSG00000151012,ENSG00000183023,ENSG00000100678,ENSG00000197818,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000101665,ENSG00000101596,ENSG00000086300,ENSG00000178996,ENSG00000109762,ENSG00000120833,ENSG00000184557,ENSG00000112096,ENSG00000135899,ENSG00000105866,ENSG00000104450,ENSG00000182957,ENSG00000269404,ENSG00000138600,ENSG00000168939,ENSG00000122862,ENSG00000075142,ENSG00000154548,ENSG00000141380,ENSG00000157350,ENSG00000184005,ENSG00000113532,ENSG00000115415,ENSG00000138378,ENSG00000127954,ENSG00000164543,ENSG00000081320,ENSG00000148175,ENSG00000067221,ENSG00000196792,ENSG00000135604,ENSG00000173705,ENSG00000162520,ENSG00000182253,ENSG00000171992,ENSG00000172403,ENSG00000132718,ENSG00000157625,ENSG00000164691,ENSG00000115183,ENSG00000204267,ENSG00000231925,ENSG00000167202,ENSG00000109436,ENSG00000187735,ENSG00000204219,ENSG00000159450,ENSG00000205678,ENSG00000135269,ENSG00000135426,ENSG00000114126,ENSG00000105967,ENSG00000163235,ENSG00000177426,ENSG00000129028,ENSG00000173451,ENSG00000145365,ENSG00000163659,ENSG00000104067,ENSG00000185561,ENSG00000106829,ENSG00000101916,ENSG00000169908,ENSG00000135926,ENSG00000251201,ENSG00000178826,ENSG00000170006,ENSG00000166822,ENSG00000155755,ENSG00000095209,ENSG00000165685,ENSG00000165071,ENSG00000136842,ENSG00000128872,ENSG00000137747,ENSG00000118503,ENSG00000145779,ENSG00000121858,ENSG00000102524,ENSG00000154310,ENSG00000050730,ENSG00000136816,ENSG00000056558,ENSG00000112195,ENSG00000121060,ENSG00000112343,ENSG00000121236,ENSG00000100505,ENSG00000104321,ENSG00000102804,ENSG00000196428,ENSG00000123297,ENSG00000121297,ENSG00000145777,ENSG00000128881,ENSG00000085831,ENSG00000259024,ENSG00000162971,ENSG00000033178,ENSG00000072401,ENSG00000188021,ENSG00000173960,ENSG00000144224,ENSG00000148154,ENSG00000111981,ENSG00000083290,ENSG00000130477,ENSG00000182168,ENSG00000058056,ENSG00000145390,ENSG00000148429,ENSG00000038427,ENSG00000175073,ENSG00000127831,ENSG00000147852,ENSG00000114251,ENSG00000047644,ENSG00000101966,ENSG00000119820,ENSG00000119801,ENSG00000257315,ENSG00000205189,ENSG00000058673,ENSG00000204186,ENSG00000156639,ENSG00000136367,ENSG00000106261,ENSG00000141497,ENSG00000196387,ENSG00000159915,ENSG00000198839,ENSG00000162702,ENSG00000188994,ENSG00000130818,ENSG00000125945,ENSG00000198342,ENSG00000127081,ENSG00000187187,ENSG00000223547,ENSG00000180233,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-345-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000160179,ENSG00000143322,ENSG00000196177,ENSG00000139567,ENSG00000135074,ENSG00000042980,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000128165,ENSG00000155966,ENSG00000177674,ENSG00000158467,ENSG00000162433,ENSG00000131016,ENSG00000117020,ENSG00000128918,ENSG00000136010,ENSG00000111275,ENSG00000109107,ENSG00000152766,ENSG00000164236,ENSG00000254470,ENSG00000138613,ENSG00000100342,ENSG00000128335,ENSG00000221963,ENSG00000169083,ENSG00000137727,ENSG00000134909,ENSG00000050327,ENSG00000175906,ENSG00000113966,ENSG00000172379,ENSG00000029153,ENSG00000168874,ENSG00000185344,ENSG00000086062,ENSG00000076108,ENSG00000105327,ENSG00000114439,ENSG00000153094,ENSG00000186174,ENSG00000123095,ENSG00000176171,ENSG00000183826,ENSG00000112763,ENSG00000124508,ENSG00000186470,ENSG00000163145,ENSG00000139178,ENSG00000181577,ENSG00000074410,ENSG00000185015,ENSG00000152492,ENSG00000125633,ENSG00000108702,ENSG00000108700,ENSG00000163660,ENSG00000152669,ENSG00000260916,ENSG00000160791,ENSG00000107771,ENSG00000150637,ENSG00000186407,ENSG00000004468,ENSG00000112149,ENSG00000143776,ENSG00000149798,ENSG00000158985,ENSG00000124762,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000008300,ENSG00000135837,ENSG00000172292,ENSG00000173575,ENSG00000016391,ENSG00000166869,ENSG00000138435,ENSG00000175040,ENSG00000122863,ENSG00000136026,ENSG00000113282,ENSG00000120885,ENSG00000070729,ENSG00000143771,ENSG00000242689,ENSG00000108821,ENSG00000108582,ENSG00000150938,ENSG00000121005,ENSG00000103196,ENSG00000147408,ENSG00000116761,ENSG00000256043,ENSG00000160683,ENSG00000100243,ENSG00000111012,ENSG00000172817,ENSG00000108669,ENSG00000070190,ENSG00000139990,ENSG00000184014,ENSG00000167536,ENSG00000186047,ENSG00000170464,ENSG00000128512,ENSG00000111817,ENSG00000163840,ENSG00000146425,ENSG00000088881,ENSG00000134109,ENSG00000184349,ENSG00000102034,ENSG00000126767,ENSG00000154380,ENSG00000138185,ENSG00000115109,ENSG00000124882,ENSG00000178607,ENSG00000117036,ENSG00000139083,ENSG00000158769,ENSG00000156500,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000173065,ENSG00000108306,ENSG00000112234,ENSG00000145780,ENSG00000073712,ENSG00000126262,ENSG00000185897,ENSG00000161958,ENSG00000075420,ENSG00000075426,ENSG00000128573,ENSG00000171051,ENSG00000033327,ENSG00000162654,ENSG00000176928,ENSG00000133561,ENSG00000055211,ENSG00000187513,ENSG00000164411,ENSG00000135821,ENSG00000204438,ENSG00000115159,ENSG00000183484,ENSG00000180758,ENSG00000126251,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000180875,ENSG00000151233,ENSG00000049239,ENSG00000068024,ENSG00000173706,ENSG00000138642,ENSG00000100644,ENSG00000206503,ENSG00000204592,ENSG00000110756,ENSG00000153976,ENSG00000125430,ENSG00000173110,ENSG00000090339,ENSG00000172201,ENSG00000119922,ENSG00000142166,ENSG00000159110,ENSG00000167244,ENSG00000146674,ENSG00000110324,ENSG00000144730,ENSG00000122641,ENSG00000139269,ENSG00000125629,ENSG00000173404,ENSG00000134070,ENSG00000090376,ENSG00000198001,ENSG00000125347,ENSG00000137265,ENSG00000172183,ENSG00000213949,ENSG00000259207,ENSG00000105855,ENSG00000086544,ENSG00000205730,ENSG00000114982,ENSG00000180509,ENSG00000157551,ENSG00000171121,ENSG00000184156,ENSG00000117139,ENSG00000235750,ENSG00000155090,ENSG00000119138,ENSG00000183762,ENSG00000174611,ENSG00000043462,ENSG00000179241,ENSG00000156959,ENSG00000104972,ENSG00000186818,ENSG00000182541,ENSG00000101670,ENSG00000204020,ENSG00000189067,ENSG00000113083,ENSG00000198121,ENSG00000162494,ENSG00000102897,ENSG00000189221,ENSG00000101460,ENSG00000156265,ENSG00000006432,ENSG00000134046,ENSG00000128285,ENSG00000197771,ENSG00000140563,ENSG00000106780,ENSG00000133816,ENSG00000197965,ENSG00000188786,ENSG00000100330,ENSG00000157601,ENSG00000059728,ENSG00000136286,ENSG00000078177,ENSG00000139597,ENSG00000138386,ENSG00000161653,ENSG00000104320,ENSG00000158517,ENSG00000166579,ENSG00000070614,ENSG00000050344,ENSG00000165030,ENSG00000104825,ENSG00000189134,ENSG00000168256,ENSG00000160113,ENSG00000178694,ENSG00000179299,ENSG00000135318,ENSG00000122417,ENSG00000160991,ENSG00000170909,ENSG00000099985,ENSG00000089041,ENSG00000145730,ENSG00000173193,ENSG00000184588,ENSG00000134853,ENSG00000113721,ENSG00000110435,ENSG00000152256,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000145287,ENSG00000126822,ENSG00000178385,ENSG00000187583,ENSG00000023902,ENSG00000124225,ENSG00000121577,ENSG00000158615,ENSG00000124224,ENSG00000196850,ENSG00000057657,ENSG00000012211,ENSG00000117360,ENSG00000156011,ENSG00000240065,ENSG00000165186,ENSG00000116260,ENSG00000206418,ENSG00000137502,ENSG00000155961,ENSG00000127328,ENSG00000172780,ENSG00000116191,ENSG00000165105,ENSG00000123094,ENSG00000089050,ENSG00000159200,ENSG00000172348,ENSG00000173039,ENSG00000092871,ENSG00000080298,ENSG00000144468,ENSG00000187010,ENSG00000164292,ENSG00000101782,ENSG00000151692,ENSG00000137393,ENSG00000141622,ENSG00000116514,ENSG00000173821,ENSG00000101236,ENSG00000134321,ENSG00000020633,ENSG00000163602,ENSG00000205413,ENSG00000130066,ENSG00000074660,ENSG00000138593,ENSG00000108061,ENSG00000026751,ENSG00000112394,ENSG00000110436,ENSG00000163393,ENSG00000147454,ENSG00000174502,ENSG00000146411,ENSG00000158014,ENSG00000080189,ENSG00000111371,ENSG00000104635,ENSG00000151012,ENSG00000183023,ENSG00000100678,ENSG00000197818,ENSG00000166750,ENSG00000102038,ENSG00000188817,ENSG00000112096,ENSG00000135899,ENSG00000182957,ENSG00000269404,ENSG00000138600,ENSG00000168939,ENSG00000075142,ENSG00000101972,ENSG00000113739,ENSG00000081320,ENSG00000135604,ENSG00000172403,ENSG00000132718,ENSG00000231925,ENSG00000111490,ENSG00000101849,ENSG00000146221,ENSG00000196663,ENSG00000114126,ENSG00000145365,ENSG00000185561,ENSG00000101916,ENSG00000169908,ENSG00000251201,ENSG00000178826,ENSG00000137216,ENSG00000128872,ENSG00000179104,ENSG00000185215,ENSG00000118503,ENSG00000145779,ENSG00000028137,ENSG00000102524,ENSG00000056558,ENSG00000121060,ENSG00000112343,ENSG00000204599,ENSG00000169871,ENSG00000116525,ENSG00000162971,ENSG00000033178,ENSG00000156587,ENSG00000108106,ENSG00000173960,ENSG00000111981,ENSG00000182168,ENSG00000058056,ENSG00000184979,ENSG00000148429,ENSG00000168140,ENSG00000111424,ENSG00000147852,ENSG00000143816,ENSG00000047644,ENSG00000176105,ENSG00000119820,ENSG00000116809,ENSG00000105278,ENSG00000106261,ENSG00000159915,ENSG00000125945,ENSG00000187187,ENSG00000223547,ENSG00000180233,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-361-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000165029,ENSG00000154265,ENSG00000143322,ENSG00000196177,ENSG00000068366,ENSG00000042980,ENSG00000155966,ENSG00000177674,ENSG00000158467,ENSG00000162433,ENSG00000131016,ENSG00000117020,ENSG00000136010,ENSG00000160117,ENSG00000176915,ENSG00000163297,ENSG00000131471,ENSG00000138613,ENSG00000221963,ENSG00000169083,ENSG00000137727,ENSG00000189079,ENSG00000150347,ENSG00000169379,ENSG00000175906,ENSG00000113966,ENSG00000113369,ENSG00000058063,ENSG00000185344,ENSG00000250565,ENSG00000163635,ENSG00000156273,ENSG00000114439,ENSG00000153094,ENSG00000085185,ENSG00000167995,ENSG00000176171,ENSG00000172331,ENSG00000119411,ENSG00000151136,ENSG00000133639,ENSG00000166455,ENSG00000082213,ENSG00000136436,ENSG00000064989,ENSG00000165806,ENSG00000105971,ENSG00000152492,ENSG00000166946,ENSG00000260916,ENSG00000126353,ENSG00000121594,ENSG00000149798,ENSG00000101290,ENSG00000166446,ENSG00000174007,ENSG00000172292,ENSG00000016391,ENSG00000204116,ENSG00000086065,ENSG00000171310,ENSG00000114737,ENSG00000136026,ENSG00000166523,ENSG00000155962,ENSG00000169504,ENSG00000120885,ENSG00000134326,ENSG00000143771,ENSG00000173786,ENSG00000242689,ENSG00000044459,ENSG00000100473,ENSG00000108582,ENSG00000203710,ENSG00000121005,ENSG00000103196,ENSG00000151292,ENSG00000110925,ENSG00000121552,ENSG00000169862,ENSG00000256043,ENSG00000124875,ENSG00000172817,ENSG00000115165,ENSG00000070190,ENSG00000139990,ENSG00000188215,ENSG00000100418,ENSG00000100697,ENSG00000150672,ENSG00000134755,ENSG00000111817,ENSG00000111266,ENSG00000120875,ENSG00000164330,ENSG00000186197,ENSG00000183690,ENSG00000129521,ENSG00000164181,ENSG00000001561,ENSG00000138185,ENSG00000178567,ENSG00000187672,ENSG00000136541,ENSG00000117036,ENSG00000156500,ENSG00000026103,ENSG00000108306,ENSG00000112234,ENSG00000150337,ENSG00000198019,ENSG00000145780,ENSG00000075426,ENSG00000170802,ENSG00000128573,ENSG00000171049,ENSG00000131482,ENSG00000183347,ENSG00000176928,ENSG00000164949,ENSG00000198380,ENSG00000133561,ENSG00000121743,ENSG00000175066,ENSG00000107249,ENSG00000173221,ENSG00000120063,ENSG00000062194,ENSG00000179399,ENSG00000164294,ENSG00000049239,ENSG00000170961,ENSG00000100644,ENSG00000206503,ENSG00000182952,ENSG00000153976,ENSG00000125430,ENSG00000117594,ENSG00000126803,ENSG00000172201,ENSG00000162783,ENSG00000169991,ENSG00000119922,ENSG00000159110,ENSG00000113302,ENSG00000125629,ENSG00000090376,ENSG00000213949,ENSG00000138448,ENSG00000259207,ENSG00000171121,ENSG00000149571,ENSG00000119138,ENSG00000179454,ENSG00000115919,ENSG00000159166,ENSG00000002549,ENSG00000150457,ENSG00000186818,ENSG00000182541,ENSG00000111052,ENSG00000164187,ENSG00000143013,ENSG00000113083,ENSG00000198121,ENSG00000171517,ENSG00000147650,ENSG00000181016,ENSG00000248672,ENSG00000144063,ENSG00000006432,ENSG00000134046,ENSG00000143384,ENSG00000140563,ENSG00000123066,ENSG00000105976,ENSG00000150051,ENSG00000119950,ENSG00000142661,ENSG00000173559,ENSG00000188554,ENSG00000189134,ENSG00000166741,ENSG00000153234,ENSG00000125841,ENSG00000179299,ENSG00000076685,ENSG00000122643,ENSG00000122417,ENSG00000119900,ENSG00000123240,ENSG00000165312,ENSG00000122884,ENSG00000072682,ENSG00000076641,ENSG00000073150,ENSG00000111224,ENSG00000168300,ENSG00000184588,ENSG00000113448,ENSG00000134853,ENSG00000152256,ENSG00000112378,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000165195,ENSG00000145287,ENSG00000075651,ENSG00000116095,ENSG00000090924,ENSG00000178385,ENSG00000114698,ENSG00000146281,ENSG00000240694,ENSG00000146278,ENSG00000163644,ENSG00000158615,ENSG00000124224,ENSG00000163605,ENSG00000196850,ENSG00000005249,ENSG00000101000,ENSG00000156011,ENSG00000116260,ENSG00000107560,ENSG00000206418,ENSG00000137502,ENSG00000116191,ENSG00000165105,ENSG00000089050,ENSG00000153250,ENSG00000172348,ENSG00000092871,ENSG00000080298,ENSG00000168421,ENSG00000164327,ENSG00000115963,ENSG00000151692,ENSG00000137393,ENSG00000176641,ENSG00000116514,ENSG00000048392,ENSG00000159216,ENSG00000163602,ENSG00000156671,ENSG00000205413,ENSG00000074660,ENSG00000104112,ENSG00000136193,ENSG00000146555,ENSG00000138593,ENSG00000091490,ENSG00000197019,ENSG00000187231,ENSG00000162105,ENSG00000108061,ENSG00000142512,ENSG00000136603,ENSG00000117090,ENSG00000100652,ENSG00000112394,ENSG00000079215,ENSG00000163393,ENSG00000147454,ENSG00000173262,ENSG00000059804,ENSG00000170385,ENSG00000136867,ENSG00000111371,ENSG00000133065,ENSG00000136052,ENSG00000111181,ENSG00000151012,ENSG00000183023,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000178996,ENSG00000112096,ENSG00000269404,ENSG00000168939,ENSG00000157350,ENSG00000168610,ENSG00000127954,ENSG00000081320,ENSG00000135604,ENSG00000172403,ENSG00000132718,ENSG00000157625,ENSG00000065491,ENSG00000111490,ENSG00000109436,ENSG00000159450,ENSG00000135426,ENSG00000105967,ENSG00000163235,ENSG00000173451,ENSG00000104067,ENSG00000185561,ENSG00000169908,ENSG00000251201,ENSG00000155755,ENSG00000196932,ENSG00000183726,ENSG00000128872,ENSG00000179104,ENSG00000145779,ENSG00000154310,ENSG00000056558,ENSG00000112195,ENSG00000121060,ENSG00000112343,ENSG00000121236,ENSG00000196428,ENSG00000128881,ENSG00000085831,ENSG00000143367,ENSG00000162971,ENSG00000033178,ENSG00000072401,ENSG00000173960,ENSG00000083290,ENSG00000106346,ENSG00000145390,ENSG00000148429,ENSG00000038427,ENSG00000175073,ENSG00000112715,ENSG00000147852,ENSG00000132530,ENSG00000119820,ENSG00000205189,ENSG00000188706,ENSG00000136367,ENSG00000106261,ENSG00000196387,ENSG00000010539,ENSG00000198839,ENSG00000188994,ENSG00000130818,ENSG00000187187,ENSG00000180233,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-3613-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000154265,ENSG00000136379,ENSG00000143322,ENSG00000196177,ENSG00000107897,ENSG00000068366,ENSG00000114948,ENSG00000042980,ENSG00000087116,ENSG00000158859,ENSG00000196526,ENSG00000155966,ENSG00000177674,ENSG00000117020,ENSG00000145362,ENSG00000164236,ENSG00000163297,ENSG00000157823,ENSG00000100478,ENSG00000254470,ENSG00000138613,ENSG00000221963,ENSG00000134909,ENSG00000189079,ENSG00000054267,ENSG00000196843,ENSG00000128203,ENSG00000058063,ENSG00000185344,ENSG00000114439,ENSG00000113916,ENSG00000167995,ENSG00000100916,ENSG00000112763,ENSG00000124508,ENSG00000154642,ENSG00000181577,ENSG00000074410,ENSG00000108702,ENSG00000166946,ENSG00000160791,ENSG00000126353,ENSG00000158473,ENSG00000150637,ENSG00000004468,ENSG00000101017,ENSG00000026508,ENSG00000168944,ENSG00000016391,ENSG00000157224,ENSG00000113282,ENSG00000120885,ENSG00000184144,ENSG00000115520,ENSG00000147408,ENSG00000151292,ENSG00000116761,ENSG00000019186,ENSG00000172817,ENSG00000139990,ENSG00000155011,ENSG00000150672,ENSG00000136048,ENSG00000111817,ENSG00000163840,ENSG00000143507,ENSG00000164330,ENSG00000088881,ENSG00000186197,ENSG00000134109,ENSG00000183690,ENSG00000169242,ENSG00000154380,ENSG00000138185,ENSG00000115109,ENSG00000133106,ENSG00000187672,ENSG00000124882,ENSG00000178607,ENSG00000158769,ENSG00000169122,ENSG00000150510,ENSG00000155744,ENSG00000026103,ENSG00000145780,ENSG00000170802,ENSG00000150667,ENSG00000131386,ENSG00000162645,ENSG00000135968,ENSG00000176928,ENSG00000198814,ENSG00000115159,ENSG00000198785,ENSG00000153976,ENSG00000155304,ENSG00000090339,ENSG00000137959,ENSG00000146674,ENSG00000123411,ENSG00000173404,ENSG00000159556,ENSG00000138448,ENSG00000105855,ENSG00000205730,ENSG00000157551,ENSG00000123700,ENSG00000067082,ENSG00000119138,ENSG00000172578,ENSG00000118058,ENSG00000104974,ENSG00000164187,ENSG00000198121,ENSG00000121931,ENSG00000248672,ENSG00000156265,ENSG00000197771,ENSG00000123066,ENSG00000134138,ENSG00000133816,ENSG00000169184,ENSG00000169715,ENSG00000187193,ENSG00000125148,ENSG00000065911,ENSG00000134571,ENSG00000145555,ENSG00000161653,ENSG00000158517,ENSG00000070614,ENSG00000140807,ENSG00000113580,ENSG00000153234,ENSG00000179299,ENSG00000076685,ENSG00000167693,ENSG00000122417,ENSG00000160991,ENSG00000173193,ENSG00000152256,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000165195,ENSG00000145287,ENSG00000188313,ENSG00000146281,ENSG00000146278,ENSG00000120910,ENSG00000196850,ENSG00000101000,ENSG00000112619,ENSG00000126464,ENSG00000156011,ENSG00000240065,ENSG00000152229,ENSG00000165186,ENSG00000069974,ENSG00000127328,ENSG00000127314,ENSG00000165105,ENSG00000089050,ENSG00000213516,ENSG00000049449,ENSG00000080298,ENSG00000187010,ENSG00000101782,ENSG00000115963,ENSG00000176641,ENSG00000101236,ENSG00000137075,ENSG00000169071,ENSG00000133818,ENSG00000136514,ENSG00000159216,ENSG00000013392,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000126524,ENSG00000000457,ENSG00000146555,ENSG00000166396,ENSG00000187231,ENSG00000162105,ENSG00000108061,ENSG00000117090,ENSG00000112394,ENSG00000110436,ENSG00000174502,ENSG00000134294,ENSG00000136052,ENSG00000167703,ENSG00000151012,ENSG00000183023,ENSG00000176463,ENSG00000137571,ENSG00000084070,ENSG00000178996,ENSG00000167208,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000182957,ENSG00000168939,ENSG00000075142,ENSG00000115415,ENSG00000127954,ENSG00000067221,ENSG00000204267,ENSG00000109436,ENSG00000204219,ENSG00000196663,ENSG00000135426,ENSG00000105967,ENSG00000173451,ENSG00000104067,ENSG00000169908,ENSG00000251201,ENSG00000155755,ENSG00000121858,ENSG00000154310,ENSG00000112343,ENSG00000196428,ENSG00000083290,ENSG00000182168,ENSG00000058056,ENSG00000038427,ENSG00000175073,ENSG00000147852,ENSG00000114742,ENSG00000146457,ENSG00000132530,ENSG00000119820,ENSG00000257315,ENSG00000181472,ENSG00000198839,ENSG00000162702,ENSG00000187187,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-378a-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000160179,ENSG00000143322,ENSG00000123130,ENSG00000135074,ENSG00000042980,ENSG00000158859,ENSG00000006831,ENSG00000128165,ENSG00000196526,ENSG00000173744,ENSG00000177674,ENSG00000158467,ENSG00000029534,ENSG00000034053,ENSG00000124701,ENSG00000047365,ENSG00000242247,ENSG00000137727,ENSG00000134909,ENSG00000150347,ENSG00000169379,ENSG00000113966,ENSG00000162772,ENSG00000110046,ENSG00000168874,ENSG00000155096,ENSG00000121578,ENSG00000168062,ENSG00000198604,ENSG00000076108,ENSG00000153094,ENSG00000125845,ENSG00000176171,ENSG00000151136,ENSG00000186470,ENSG00000205710,ENSG00000139178,ENSG00000074410,ENSG00000008118,ENSG00000160200,ENSG00000198624,ENSG00000149231,ENSG00000125633,ENSG00000101331,ENSG00000138764,ENSG00000152669,ENSG00000126353,ENSG00000107771,ENSG00000091972,ENSG00000150637,ENSG00000120217,ENSG00000186407,ENSG00000004468,ENSG00000143776,ENSG00000166446,ENSG00000008300,ENSG00000168944,ENSG00000128849,ENSG00000016391,ENSG00000204116,ENSG00000166869,ENSG00000166664,ENSG00000129749,ENSG00000171310,ENSG00000175040,ENSG00000122863,ENSG00000114737,ENSG00000157224,ENSG00000181885,ENSG00000120885,ENSG00000137200,ENSG00000143771,ENSG00000173786,ENSG00000184144,ENSG00000115520,ENSG00000108582,ENSG00000103196,ENSG00000100368,ENSG00000116761,ENSG00000256043,ENSG00000138755,ENSG00000161544,ENSG00000111012,ENSG00000172817,ENSG00000108669,ENSG00000115165,ENSG00000139990,ENSG00000108771,ENSG00000150672,ENSG00000104093,ENSG00000170464,ENSG00000163840,ENSG00000120875,ENSG00000146425,ENSG00000088881,ENSG00000117298,ENSG00000134109,ENSG00000184349,ENSG00000110047,ENSG00000154380,ENSG00000082397,ENSG00000141736,ENSG00000139083,ENSG00000155744,ENSG00000054965,ENSG00000108950,ENSG00000026103,ENSG00000108306,ENSG00000150337,ENSG00000198019,ENSG00000126262,ENSG00000075420,ENSG00000075426,ENSG00000171051,ENSG00000150667,ENSG00000155760,ENSG00000131482,ENSG00000139112,ENSG00000099860,ENSG00000257594,ENSG00000162645,ENSG00000162654,ENSG00000198380,ENSG00000131459,ENSG00000099998,ENSG00000175066,ENSG00000107249,ENSG00000135821,ENSG00000120063,ENSG00000125772,ENSG00000180758,ENSG00000013588,ENSG00000151233,ENSG00000100453,ENSG00000049239,ENSG00000170961,ENSG00000206344,ENSG00000068024,ENSG00000130589,ENSG00000122557,ENSG00000010818,ENSG00000206503,ENSG00000241106,ENSG00000221887,ENSG00000119922,ENSG00000152778,ENSG00000144730,ENSG00000134460,ENSG00000122641,ENSG00000139269,ENSG00000090376,ENSG00000213949,ENSG00000005844,ENSG00000113263,ENSG00000205730,ENSG00000157551,ENSG00000184156,ENSG00000155090,ENSG00000141068,ENSG00000159166,ENSG00000108679,ENSG00000156959,ENSG00000182541,ENSG00000101670,ENSG00000204020,ENSG00000164187,ENSG00000164715,ENSG00000134013,ENSG00000171517,ENSG00000197324,ENSG00000160285,ENSG00000254087,ENSG00000088899,ENSG00000013619,ENSG00000189221,ENSG00000006432,ENSG00000152939,ENSG00000134046,ENSG00000140563,ENSG00000101574,ENSG00000204520,ENSG00000169184,ENSG00000079931,ENSG00000204839,ENSG00000205362,ENSG00000188786,ENSG00000100330,ENSG00000142661,ENSG00000102921,ENSG00000173559,ENSG00000141562,ENSG00000104419,ENSG00000070614,ENSG00000166507,ENSG00000235568,ENSG00000050344,ENSG00000100906,ENSG00000131669,ENSG00000167034,ENSG00000140853,ENSG00000160113,ENSG00000113580,ENSG00000119508,ENSG00000178694,ENSG00000135318,ENSG00000163545,ENSG00000013374,ENSG00000167693,ENSG00000089127,ENSG00000160991,ENSG00000170909,ENSG00000076641,ENSG00000110218,ENSG00000059378,ENSG00000183570,ENSG00000113448,ENSG00000197461,ENSG00000134853,ENSG00000113721,ENSG00000152256,ENSG00000162493,ENSG00000173889,ENSG00000102096,ENSG00000126003,ENSG00000143850,ENSG00000090924,ENSG00000126822,ENSG00000178385,ENSG00000023902,ENSG00000148735,ENSG00000221866,ENSG00000164050,ENSG00000140464,ENSG00000146278,ENSG00000101751,ENSG00000156011,ENSG00000240065,ENSG00000169403,ENSG00000165186,ENSG00000073008,ENSG00000116260,ENSG00000179331,ENSG00000127328,ENSG00000175582,ENSG00000166128,ENSG00000127314,ENSG00000172575,ENSG00000089050,ENSG00000153250,ENSG00000213516,ENSG00000049449,ENSG00000173039,ENSG00000092871,ENSG00000131378,ENSG00000144468,ENSG00000116574,ENSG00000137393,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000101236,ENSG00000137075,ENSG00000163602,ENSG00000173432,ENSG00000134339,ENSG00000156671,ENSG00000126524,ENSG00000187764,ENSG00000187231,ENSG00000174705,ENSG00000181788,ENSG00000088827,ENSG00000198053,ENSG00000177045,ENSG00000026751,ENSG00000112394,ENSG00000110436,ENSG00000174502,ENSG00000117394,ENSG00000173262,ENSG00000059804,ENSG00000158014,ENSG00000111371,ENSG00000134294,ENSG00000138821,ENSG00000167703,ENSG00000151012,ENSG00000197818,ENSG00000166750,ENSG00000198742,ENSG00000167208,ENSG00000120833,ENSG00000112096,ENSG00000135899,ENSG00000123096,ENSG00000070731,ENSG00000067221,ENSG00000135604,ENSG00000065491,ENSG00000167202,ENSG00000111490,ENSG00000204219,ENSG00000146221,ENSG00000196663,ENSG00000114126,ENSG00000177426,ENSG00000145365,ENSG00000185561,ENSG00000101916,ENSG00000169908,ENSG00000251201,ENSG00000170006,ENSG00000198133,ENSG00000095209,ENSG00000165685,ENSG00000185215,ENSG00000145779,ENSG00000136816,ENSG00000078804,ENSG00000056558,ENSG00000056972,ENSG00000112195,ENSG00000234127,ENSG00000204599,ENSG00000116525,ENSG00000102804,ENSG00000196428,ENSG00000123297,ENSG00000145777,ENSG00000085831,ENSG00000143367,ENSG00000033178,ENSG00000213886,ENSG00000156587,ENSG00000215114,ENSG00000083290,ENSG00000130477,ENSG00000182168,ENSG00000058056,ENSG00000148429,ENSG00000175073,ENSG00000127831,ENSG00000075399,ENSG00000028116,ENSG00000114742,ENSG00000114251,ENSG00000146457,ENSG00000047644,ENSG00000188706,ENSG00000136367,ENSG00000178764,ENSG00000106261,ENSG00000198839,ENSG00000188994,ENSG00000125945,ENSG00000229809,ENSG00000102984,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-425-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000148926,ENSG00000177674,ENSG00000204673,ENSG00000131471,ENSG00000254470,ENSG00000128203,ENSG00000163635,ENSG00000158470,ENSG00000133639,ENSG00000082213,ENSG00000074410,ENSG00000150637,ENSG00000101017,ENSG00000143776,ENSG00000122863,ENSG00000103196,ENSG00000108342,ENSG00000138755,ENSG00000160683,ENSG00000108771,ENSG00000170464,ENSG00000120129,ENSG00000111266,ENSG00000138185,ENSG00000115109,ENSG00000155744,ENSG00000026103,ENSG00000167996,ENSG00000131482,ENSG00000180875,ENSG00000136732,ENSG00000173706,ENSG00000100644,ENSG00000155304,ENSG00000137959,ENSG00000159110,ENSG00000167244,ENSG00000139269,ENSG00000137265,ENSG00000159556,ENSG00000148841,ENSG00000172578,ENSG00000118058,ENSG00000078081,ENSG00000182541,ENSG00000189067,ENSG00000164715,ENSG00000105976,ENSG00000204520,ENSG00000204516,ENSG00000150051,ENSG00000065911,ENSG00000119950,ENSG00000102921,ENSG00000173391,ENSG00000254122,ENSG00000184588,ENSG00000160191,ENSG00000137193,ENSG00000091622,ENSG00000116095,ENSG00000090924,ENSG00000221866,ENSG00000124225,ENSG00000112619,ENSG00000176641,ENSG00000048392,ENSG00000136193,ENSG00000149131,ENSG00000197019,ENSG00000130766,ENSG00000100652,ENSG00000018280,ENSG00000070915,ENSG00000104154,ENSG00000198742,ENSG00000123096,ENSG00000231925,ENSG00000101849,ENSG00000114126,ENSG00000165685,ENSG00000154310,ENSG00000056558,ENSG00000234127,ENSG00000170892,ENSG00000130477,ENSG00000182168,ENSG00000112715,ENSG00000147852,ENSG00000114127,ENSG00000156639,ENSG00000106261</t>
+  </si>
+  <si>
+    <t>hsa-miR-4664-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000185736,ENSG00000162433,ENSG00000174945,ENSG00000100478,ENSG00000172379,ENSG00000110046,ENSG00000105327,ENSG00000205710,ENSG00000173786,ENSG00000108821,ENSG00000108582,ENSG00000175215,ENSG00000169242,ENSG00000138185,ENSG00000178607,ENSG00000134954,ENSG00000161958,ENSG00000128573,ENSG00000013588,ENSG00000180875,ENSG00000121905,ENSG00000162783,ENSG00000169991,ENSG00000122641,ENSG00000114982,ENSG00000117139,ENSG00000172578,ENSG00000143013,ENSG00000197324,ENSG00000006432,ENSG00000123066,ENSG00000008516,ENSG00000169184,ENSG00000104419,ENSG00000070614,ENSG00000140807,ENSG00000124785,ENSG00000178694,ENSG00000146278,ENSG00000173281,ENSG00000057657,ENSG00000175582,ENSG00000109756,ENSG00000173821,ENSG00000163602,ENSG00000147454,ENSG00000198742,ENSG00000162520,ENSG00000204219,ENSG00000140682,ENSG00000145365,ENSG00000124208,ENSG00000172738,ENSG00000179104,ENSG00000100505,ENSG00000196428,ENSG00000148429,ENSG00000168140,ENSG00000038427,ENSG00000070540,ENSG00000114251,ENSG00000205189,ENSG00000130818,ENSG00000102984</t>
+  </si>
+  <si>
+    <t>hsa-miR-4684-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000165029,ENSG00000160179,ENSG00000136754,ENSG00000166016,ENSG00000144476,ENSG00000123130,ENSG00000068366,ENSG00000073670,ENSG00000114948,ENSG00000042980,ENSG00000087116,ENSG00000155966,ENSG00000144891,ENSG00000177674,ENSG00000042286,ENSG00000162433,ENSG00000131016,ENSG00000128918,ENSG00000164236,ENSG00000065413,ENSG00000131471,ENSG00000100478,ENSG00000254470,ENSG00000128284,ENSG00000221963,ENSG00000134909,ENSG00000189079,ENSG00000165997,ENSG00000172379,ENSG00000113369,ENSG00000130707,ENSG00000185344,ENSG00000155096,ENSG00000176788,ENSG00000167995,ENSG00000123095,ENSG00000122870,ENSG00000023445,ENSG00000117475,ENSG00000125845,ENSG00000176171,ENSG00000100916,ENSG00000187479,ENSG00000147894,ENSG00000074410,ENSG00000064989,ENSG00000165806,ENSG00000125633,ENSG00000138764,ENSG00000152669,ENSG00000260916,ENSG00000160791,ENSG00000026508,ENSG00000173762,ENSG00000149798,ENSG00000197622,ENSG00000166446,ENSG00000016391,ENSG00000204116,ENSG00000147434,ENSG00000171310,ENSG00000130779,ENSG00000070729,ENSG00000143771,ENSG00000173786,ENSG00000242689,ENSG00000184144,ENSG00000108821,ENSG00000103196,ENSG00000147408,ENSG00000144655,ENSG00000256043,ENSG00000163739,ENSG00000138755,ENSG00000100243,ENSG00000139990,ENSG00000188215,ENSG00000105339,ENSG00000184014,ENSG00000167536,ENSG00000150672,ENSG00000170464,ENSG00000128512,ENSG00000138166,ENSG00000134109,ENSG00000184349,ENSG00000129521,ENSG00000173812,ENSG00000154380,ENSG00000138185,ENSG00000197217,ENSG00000178567,ENSG00000187672,ENSG00000134954,ENSG00000157557,ENSG00000150510,ENSG00000154319,ENSG00000054965,ENSG00000173065,ENSG00000117560,ENSG00000075420,ENSG00000075426,ENSG00000128573,ENSG00000155760,ENSG00000131482,ENSG00000204681,ENSG00000143641,ENSG00000117228,ENSG00000117226,ENSG00000133561,ENSG00000198814,ENSG00000107249,ENSG00000135821,ENSG00000120063,ENSG00000062194,ENSG00000179399,ENSG00000115159,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000180875,ENSG00000158055,ENSG00000198785,ENSG00000049239,ENSG00000105856,ENSG00000068024,ENSG00000165259,ENSG00000173706,ENSG00000136630,ENSG00000182952,ENSG00000153976,ENSG00000125430,ENSG00000117594,ENSG00000126803,ENSG00000029559,ENSG00000163600,ENSG00000142166,ENSG00000159110,ENSG00000073792,ENSG00000115008,ENSG00000100385,ENSG00000122641,ENSG00000090376,ENSG00000198001,ENSG00000137265,ENSG00000213949,ENSG00000259207,ENSG00000105855,ENSG00000086544,ENSG00000205730,ENSG00000162434,ENSG00000096968,ENSG00000168970,ENSG00000151364,ENSG00000133116,ENSG00000067082,ENSG00000118058,ENSG00000166173,ENSG00000186818,ENSG00000111052,ENSG00000189067,ENSG00000164187,ENSG00000143013,ENSG00000205791,ENSG00000154359,ENSG00000197324,ENSG00000254087,ENSG00000144063,ENSG00000152939,ENSG00000143384,ENSG00000140563,ENSG00000134138,ENSG00000105976,ENSG00000101574,ENSG00000198160,ENSG00000149968,ENSG00000153029,ENSG00000188786,ENSG00000116990,ENSG00000145555,ENSG00000078177,ENSG00000138386,ENSG00000173559,ENSG00000082641,ENSG00000172548,ENSG00000189134,ENSG00000167034,ENSG00000148200,ENSG00000178694,ENSG00000135318,ENSG00000163545,ENSG00000167693,ENSG00000101888,ENSG00000180304,ENSG00000122417,ENSG00000181631,ENSG00000110218,ENSG00000173193,ENSG00000168300,ENSG00000110435,ENSG00000112378,ENSG00000102096,ENSG00000118762,ENSG00000145287,ENSG00000126003,ENSG00000101333,ENSG00000116095,ENSG00000090924,ENSG00000126822,ENSG00000178385,ENSG00000107020,ENSG00000124225,ENSG00000146278,ENSG00000163644,ENSG00000158615,ENSG00000124224,ENSG00000152784,ENSG00000156011,ENSG00000240065,ENSG00000165186,ENSG00000196396,ENSG00000175354,ENSG00000116260,ENSG00000069974,ENSG00000137502,ENSG00000179331,ENSG00000127328,ENSG00000123094,ENSG00000153250,ENSG00000213516,ENSG00000159200,ENSG00000173039,ENSG00000116574,ENSG00000176641,ENSG00000141622,ENSG00000116514,ENSG00000101236,ENSG00000048392,ENSG00000146374,ENSG00000124813,ENSG00000156671,ENSG00000146555,ENSG00000170542,ENSG00000149131,ENSG00000187231,ENSG00000108061,ENSG00000197555,ENSG00000198053,ENSG00000136603,ENSG00000018280,ENSG00000070915,ENSG00000163393,ENSG00000117394,ENSG00000059804,ENSG00000170385,ENSG00000104154,ENSG00000111371,ENSG00000138821,ENSG00000136052,ENSG00000111181,ENSG00000151012,ENSG00000183023,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000198742,ENSG00000178996,ENSG00000112096,ENSG00000105866,ENSG00000104450,ENSG00000138600,ENSG00000075142,ENSG00000184005,ENSG00000113739,ENSG00000135604,ENSG00000173705,ENSG00000172403,ENSG00000204267,ENSG00000196663,ENSG00000101916,ENSG00000124208,ENSG00000198133,ENSG00000136842,ENSG00000128872,ENSG00000179104,ENSG00000118503,ENSG00000145779,ENSG00000154310,ENSG00000078804,ENSG00000112343,ENSG00000163462,ENSG00000196428,ENSG00000085831,ENSG00000213886,ENSG00000148154,ENSG00000111981,ENSG00000083290,ENSG00000058056,ENSG00000038427,ENSG00000175073,ENSG00000114251,ENSG00000106261,ENSG00000196387,ENSG00000198839,ENSG00000188994,ENSG00000187187,ENSG00000229809,ENSG00000102984,ENSG00000180233</t>
+  </si>
+  <si>
+    <t>hsa-miR-4709-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000008311,ENSG00000165029,ENSG00000166016,ENSG00000157766,ENSG00000135503,ENSG00000114948,ENSG00000185736,ENSG00000196526,ENSG00000155966,ENSG00000163568,ENSG00000162433,ENSG00000117020,ENSG00000128918,ENSG00000136010,ENSG00000114019,ENSG00000174945,ENSG00000029534,ENSG00000145362,ENSG00000152766,ENSG00000164236,ENSG00000175311,ENSG00000163297,ENSG00000138356,ENSG00000100478,ENSG00000173627,ENSG00000128284,ENSG00000221963,ENSG00000103569,ENSG00000169083,ENSG00000050327,ENSG00000179361,ENSG00000150347,ENSG00000029153,ENSG00000113369,ENSG00000140450,ENSG00000183734,ENSG00000163635,ENSG00000121578,ENSG00000158470,ENSG00000156273,ENSG00000168062,ENSG00000076108,ENSG00000114439,ENSG00000186174,ENSG00000167995,ENSG00000123095,ENSG00000122870,ENSG00000023445,ENSG00000106605,ENSG00000117475,ENSG00000100916,ENSG00000119411,ENSG00000183826,ENSG00000133639,ENSG00000026950,ENSG00000186470,ENSG00000131943,ENSG00000197982,ENSG00000125462,ENSG00000173369,ENSG00000163145,ENSG00000154642,ENSG00000164972,ENSG00000074410,ENSG00000136436,ENSG00000008118,ENSG00000070808,ENSG00000130940,ENSG00000167131,ENSG00000152492,ENSG00000198624,ENSG00000260916,ENSG00000160791,ENSG00000107771,ENSG00000158473,ENSG00000120217,ENSG00000004468,ENSG00000026508,ENSG00000196352,ENSG00000121594,ENSG00000143776,ENSG00000179604,ENSG00000197622,ENSG00000166446,ENSG00000149187,ENSG00000135837,ENSG00000172292,ENSG00000172824,ENSG00000204116,ENSG00000171310,ENSG00000175040,ENSG00000166523,ENSG00000130779,ENSG00000143771,ENSG00000117519,ENSG00000173786,ENSG00000044459,ENSG00000184144,ENSG00000108821,ENSG00000115520,ENSG00000108582,ENSG00000117322,ENSG00000150938,ENSG00000103196,ENSG00000108342,ENSG00000144655,ENSG00000121552,ENSG00000271321,ENSG00000175215,ENSG00000116761,ENSG00000169862,ENSG00000256043,ENSG00000161544,ENSG00000172817,ENSG00000137628,ENSG00000119522,ENSG00000100418,ENSG00000100697,ENSG00000115137,ENSG00000101134,ENSG00000136048,ENSG00000134755,ENSG00000111817,ENSG00000163840,ENSG00000120129,ENSG00000111266,ENSG00000138166,ENSG00000186197,ENSG00000134109,ENSG00000129521,ENSG00000110047,ENSG00000164181,ENSG00000154380,ENSG00000138185,ENSG00000129595,ENSG00000115109,ENSG00000187672,ENSG00000124882,ENSG00000107566,ENSG00000178607,ENSG00000117036,ENSG00000139083,ENSG00000010030,ENSG00000158769,ENSG00000169122,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000151327,ENSG00000108306,ENSG00000112234,ENSG00000186431,ENSG00000145780,ENSG00000129682,ENSG00000132589,ENSG00000075426,ENSG00000170802,ENSG00000155760,ENSG00000033327,ENSG00000204681,ENSG00000131386,ENSG00000183347,ENSG00000131979,ENSG00000023909,ENSG00000176928,ENSG00000164949,ENSG00000198380,ENSG00000131459,ENSG00000133561,ENSG00000175066,ENSG00000107249,ENSG00000135677,ENSG00000120370,ENSG00000179399,ENSG00000125772,ENSG00000115159,ENSG00000183484,ENSG00000158292,ENSG00000180758,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000151233,ENSG00000049239,ENSG00000068024,ENSG00000165259,ENSG00000173706,ENSG00000122557,ENSG00000159399,ENSG00000206503,ENSG00000241106,ENSG00000136630,ENSG00000182952,ENSG00000153976,ENSG00000155304,ENSG00000126803,ENSG00000172201,ENSG00000162783,ENSG00000137959,ENSG00000142166,ENSG00000159110,ENSG00000103742,ENSG00000167244,ENSG00000146674,ENSG00000123411,ENSG00000110324,ENSG00000137496,ENSG00000100385,ENSG00000122641,ENSG00000139269,ENSG00000125629,ENSG00000090376,ENSG00000137265,ENSG00000213949,ENSG00000148841,ENSG00000114982,ENSG00000157551,ENSG00000171121,ENSG00000184156,ENSG00000117139,ENSG00000189013,ENSG00000133116,ENSG00000172578,ENSG00000118058,ENSG00000183762,ENSG00000141068,ENSG00000174611,ENSG00000150457,ENSG00000129988,ENSG00000043462,ENSG00000156959,ENSG00000104974,ENSG00000239961,ENSG00000186818,ENSG00000182541,ENSG00000111052,ENSG00000189067,ENSG00000164187,ENSG00000113368,ENSG00000048540,ENSG00000143013,ENSG00000137269,ENSG00000248672,ENSG00000102316,ENSG00000189221,ENSG00000073803,ENSG00000006432,ENSG00000140563,ENSG00000108510,ENSG00000106780,ENSG00000134138,ENSG00000213190,ENSG00000197965,ENSG00000153029,ENSG00000204839,ENSG00000178860,ENSG00000188786,ENSG00000100330,ENSG00000059728,ENSG00000145555,ENSG00000102921,ENSG00000078177,ENSG00000138386,ENSG00000188505,ENSG00000070614,ENSG00000166507,ENSG00000235568,ENSG00000131669,ENSG00000172548,ENSG00000140807,ENSG00000167207,ENSG00000113580,ENSG00000148200,ENSG00000178694,ENSG00000179299,ENSG00000076685,ENSG00000135318,ENSG00000163545,ENSG00000111335,ENSG00000180304,ENSG00000122417,ENSG00000205927,ENSG00000173391,ENSG00000160991,ENSG00000072682,ENSG00000145730,ENSG00000110218,ENSG00000111224,ENSG00000173193,ENSG00000041880,ENSG00000254122,ENSG00000100889,ENSG00000184588,ENSG00000113448,ENSG00000073417,ENSG00000197461,ENSG00000110435,ENSG00000152256,ENSG00000164951,ENSG00000170525,ENSG00000197121,ENSG00000173889,ENSG00000146247,ENSG00000091622,ENSG00000145287,ENSG00000126003,ENSG00000075651,ENSG00000143850,ENSG00000126822,ENSG00000178385,ENSG00000023902,ENSG00000148735,ENSG00000188313,ENSG00000221866,ENSG00000164050,ENSG00000101751,ENSG00000121577,ENSG00000163644,ENSG00000213639,ENSG00000173281,ENSG00000124224,ENSG00000163605,ENSG00000152784,ENSG00000117360,ENSG00000156011,ENSG00000041357,ENSG00000169403,ENSG00000165186,ENSG00000148344,ENSG00000073756,ENSG00000107560,ENSG00000069974,ENSG00000137502,ENSG00000127328,ENSG00000175582,ENSG00000166128,ENSG00000116191,ENSG00000123728,ENSG00000165105,ENSG00000172575,ENSG00000089050,ENSG00000184898,ENSG00000153250,ENSG00000213516,ENSG00000124232,ENSG00000159200,ENSG00000054967,ENSG00000092871,ENSG00000087903,ENSG00000080298,ENSG00000143390,ENSG00000164327,ENSG00000150977,ENSG00000115963,ENSG00000151692,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000089169,ENSG00000166592,ENSG00000134321,ENSG00000146374,ENSG00000136514,ENSG00000018189,ENSG00000108309,ENSG00000020633,ENSG00000013392,ENSG00000171509,ENSG00000163602,ENSG00000173432,ENSG00000156671,ENSG00000205413,ENSG00000104112,ENSG00000000457,ENSG00000124145,ENSG00000146555,ENSG00000138593,ENSG00000075223,ENSG00000185033,ENSG00000206073,ENSG00000149131,ENSG00000187231,ENSG00000168878,ENSG00000163082,ENSG00000162105,ENSG00000160584,ENSG00000136603,ENSG00000117090,ENSG00000070915,ENSG00000110436,ENSG00000163393,ENSG00000174502,ENSG00000146411,ENSG00000173262,ENSG00000059804,ENSG00000136867,ENSG00000080189,ENSG00000134294,ENSG00000133065,ENSG00000136052,ENSG00000167703,ENSG00000151012,ENSG00000183023,ENSG00000197818,ENSG00000084070,ENSG00000102038,ENSG00000178996,ENSG00000185338,ENSG00000184557,ENSG00000112096,ENSG00000135899,ENSG00000105866,ENSG00000104450,ENSG00000182957,ENSG00000138600,ENSG00000168939,ENSG00000154548,ENSG00000123096,ENSG00000070731,ENSG00000113532,ENSG00000168610,ENSG00000138378,ENSG00000113739,ENSG00000164543,ENSG00000067221,ENSG00000196792,ENSG00000153157,ENSG00000132718,ENSG00000103528,ENSG00000157625,ENSG00000115183,ENSG00000109436,ENSG00000146221,ENSG00000205678,ENSG00000135426,ENSG00000114126,ENSG00000105967,ENSG00000163235,ENSG00000177426,ENSG00000173451,ENSG00000145365,ENSG00000104067,ENSG00000185561,ENSG00000251201,ENSG00000170006,ENSG00000166822,ENSG00000002933,ENSG00000188760,ENSG00000198133,ENSG00000155755,ENSG00000183726,ENSG00000128872,ENSG00000137747,ENSG00000185215,ENSG00000118503,ENSG00000145779,ENSG00000154310,ENSG00000050730,ENSG00000136816,ENSG00000056558,ENSG00000132274,ENSG00000121060,ENSG00000112343,ENSG00000169871,ENSG00000116525,ENSG00000157514,ENSG00000123297,ENSG00000121297,ENSG00000128881,ENSG00000085831,ENSG00000074935,ENSG00000033178,ENSG00000159202,ENSG00000215114,ENSG00000111981,ENSG00000083290,ENSG00000182168,ENSG00000148429,ENSG00000175073,ENSG00000111424,ENSG00000127831,ENSG00000147852,ENSG00000075399,ENSG00000028116,ENSG00000114251,ENSG00000101966,ENSG00000119820,ENSG00000156639,ENSG00000106261,ENSG00000010539,ENSG00000159915,ENSG00000198839,ENSG00000188994,ENSG00000204947,ENSG00000130818,ENSG00000125945,ENSG00000198342,ENSG00000187187,ENSG00000223547,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-4746-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000157766,ENSG00000135503,ENSG00000185736,ENSG00000006831,ENSG00000148926,ENSG00000131016,ENSG00000204673,ENSG00000179593,ENSG00000029534,ENSG00000152766,ENSG00000164236,ENSG00000011132,ENSG00000138639,ENSG00000168874,ENSG00000186174,ENSG00000119411,ENSG00000187479,ENSG00000258315,ENSG00000130940,ENSG00000100147,ENSG00000085117,ENSG00000168944,ENSG00000135837,ENSG00000172292,ENSG00000103196,ENSG00000147408,ENSG00000100418,ENSG00000088881,ENSG00000110047,ENSG00000102034,ENSG00000010030,ENSG00000054965,ENSG00000173065,ENSG00000162645,ENSG00000135821,ENSG00000120370,ENSG00000068024,ENSG00000137331,ENSG00000117595,ENSG00000159556,ENSG00000132510,ENSG00000149571,ENSG00000155090,ENSG00000156959,ENSG00000164715,ENSG00000160932,ENSG00000140563,ENSG00000008516,ENSG00000136286,ENSG00000102921,ENSG00000158517,ENSG00000131669,ENSG00000099985,ENSG00000073150,ENSG00000112511,ENSG00000165195,ENSG00000087074,ENSG00000135447,ENSG00000167371,ENSG00000073008,ENSG00000054967,ENSG00000168421,ENSG00000020633,ENSG00000064932,ENSG00000136193,ENSG00000197019,ENSG00000130766,ENSG00000125731,ENSG00000174705,ENSG00000177045,ENSG00000018280,ENSG00000167703,ENSG00000197818,ENSG00000112096,ENSG00000157350,ENSG00000115415,ENSG00000067221,ENSG00000167202,ENSG00000114126,ENSG00000185561,ENSG00000133069,ENSG00000128872,ENSG00000100284,ENSG00000112195,ENSG00000177169,ENSG00000130477,ENSG00000148429,ENSG00000111424,ENSG00000114742,ENSG00000187260,ENSG00000102984</t>
+  </si>
+  <si>
+    <t>hsa-miR-4787-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000042286,ENSG00000034053,ENSG00000172379,ENSG00000167131,ENSG00000158985,ENSG00000103196,ENSG00000135047,ENSG00000105339,ENSG00000100418,ENSG00000124882,ENSG00000171049,ENSG00000131386,ENSG00000159184,ENSG00000137331,ENSG00000162783,ENSG00000169991,ENSG00000159110,ENSG00000243646,ENSG00000122641,ENSG00000159556,ENSG00000180509,ENSG00000134046,ENSG00000153029,ENSG00000204839,ENSG00000050344,ENSG00000104825,ENSG00000123240,ENSG00000152256,ENSG00000173889,ENSG00000124225,ENSG00000127838,ENSG00000169403,ENSG00000127328,ENSG00000144468,ENSG00000116514,ENSG00000174705,ENSG00000182957,ENSG00000081320,ENSG00000067221,ENSG00000164691,ENSG00000114126,ENSG00000196932,ENSG00000234127,ENSG00000085831,ENSG00000101966,ENSG00000124256,ENSG00000102984,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-550a-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000184144,ENSG00000169242,ENSG00000178567,ENSG00000145780,ENSG00000089041,ENSG00000073417,ENSG00000176463,ENSG00000145779</t>
+  </si>
+  <si>
+    <t>hsa-miR-652-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000154265,ENSG00000143322,ENSG00000123130,ENSG00000151726,ENSG00000073670,ENSG00000042980,ENSG00000158859,ENSG00000185736,ENSG00000128271,ENSG00000196526,ENSG00000158467,ENSG00000162433,ENSG00000164331,ENSG00000148677,ENSG00000163297,ENSG00000131471,ENSG00000157823,ENSG00000100478,ENSG00000254470,ENSG00000034053,ENSG00000221963,ENSG00000165997,ENSG00000162772,ENSG00000168874,ENSG00000185344,ENSG00000163635,ENSG00000121578,ENSG00000153162,ENSG00000100916,ENSG00000133639,ENSG00000154640,ENSG00000166920,ENSG00000164096,ENSG00000082213,ENSG00000136436,ENSG00000125633,ENSG00000101331,ENSG00000260916,ENSG00000150637,ENSG00000026508,ENSG00000114013,ENSG00000143776,ENSG00000197622,ENSG00000158985,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000172292,ENSG00000172824,ENSG00000128849,ENSG00000173575,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000134326,ENSG00000121005,ENSG00000103196,ENSG00000151292,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000169862,ENSG00000167600,ENSG00000108669,ENSG00000070190,ENSG00000188215,ENSG00000119522,ENSG00000100418,ENSG00000101134,ENSG00000134109,ENSG00000078401,ENSG00000135766,ENSG00000126767,ENSG00000118985,ENSG00000115109,ENSG00000134954,ENSG00000054965,ENSG00000026103,ENSG00000166147,ENSG00000108306,ENSG00000075420,ENSG00000075426,ENSG00000116717,ENSG00000183347,ENSG00000023909,ENSG00000176928,ENSG00000198380,ENSG00000121743,ENSG00000164411,ENSG00000175066,ENSG00000151948,ENSG00000135821,ENSG00000204438,ENSG00000023171,ENSG00000023171,ENSG00000198785,ENSG00000100226,ENSG00000165259,ENSG00000010818,ENSG00000206503,ENSG00000125430,ENSG00000117594,ENSG00000162783,ENSG00000119922,ENSG00000142549,ENSG00000123411,ENSG00000144730,ENSG00000137496,ENSG00000100385,ENSG00000139269,ENSG00000198001,ENSG00000137265,ENSG00000159556,ENSG00000213949,ENSG00000105855,ENSG00000113263,ENSG00000148841,ENSG00000184156,ENSG00000117139,ENSG00000179454,ENSG00000172578,ENSG00000183762,ENSG00000174611,ENSG00000156959,ENSG00000101670,ENSG00000164187,ENSG00000048540,ENSG00000164715,ENSG00000197324,ENSG00000181016,ENSG00000101460,ENSG00000143384,ENSG00000153898,ENSG00000108510,ENSG00000106780,ENSG00000134138,ENSG00000105976,ENSG00000101574,ENSG00000169184,ENSG00000153029,ENSG00000198417,ENSG00000100330,ENSG00000059728,ENSG00000139597,ENSG00000173559,ENSG00000158517,ENSG00000070614,ENSG00000082641,ENSG00000109320,ENSG00000189134,ENSG00000140807,ENSG00000178694,ENSG00000076685,ENSG00000135318,ENSG00000119900,ENSG00000160991,ENSG00000181631,ENSG00000076641,ENSG00000113448,ENSG00000100311,ENSG00000152256,ENSG00000112378,ENSG00000173889,ENSG00000040199,ENSG00000073921,ENSG00000140451,ENSG00000091622,ENSG00000126003,ENSG00000075651,ENSG00000116095,ENSG00000023902,ENSG00000152952,ENSG00000188313,ENSG00000164050,ENSG00000141682,ENSG00000124225,ENSG00000213639,ENSG00000158615,ENSG00000163605,ENSG00000112619,ENSG00000156011,ENSG00000129472,ENSG00000137502,ENSG00000127328,ENSG00000166128,ENSG00000116191,ENSG00000123728,ENSG00000109756,ENSG00000108352,ENSG00000125826,ENSG00000080298,ENSG00000144468,ENSG00000104312,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000137075,ENSG00000133818,ENSG00000146374,ENSG00000018189,ENSG00000163602,ENSG00000104112,ENSG00000136193,ENSG00000187231,ENSG00000136603,ENSG00000136867,ENSG00000111371,ENSG00000167703,ENSG00000151012,ENSG00000103257,ENSG00000183023,ENSG00000120833,ENSG00000112096,ENSG00000168939,ENSG00000157350,ENSG00000113532,ENSG00000164543,ENSG00000171992,ENSG00000172403,ENSG00000157625,ENSG00000101849,ENSG00000129566,ENSG00000177426,ENSG00000163659,ENSG00000185561,ENSG00000169908,ENSG00000170006,ENSG00000124208,ENSG00000188760,ENSG00000137216,ENSG00000128872,ENSG00000179104,ENSG00000145779,ENSG00000154310,ENSG00000102871,ENSG00000056558,ENSG00000112343,ENSG00000121236,ENSG00000116525,ENSG00000121297,ENSG00000145777,ENSG00000259024,ENSG00000033178,ENSG00000150991,ENSG00000188021,ENSG00000173960,ENSG00000215114,ENSG00000130477,ENSG00000175073,ENSG00000112715,ENSG00000119820,ENSG00000116809,ENSG00000106261,ENSG00000196387,ENSG00000198839,ENSG00000243660,ENSG00000229809,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-6813-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000135074,ENSG00000042980,ENSG00000185736,ENSG00000177674,ENSG00000109107,ENSG00000136859,ENSG00000164236,ENSG00000157823,ENSG00000100478,ENSG00000128394,ENSG00000165997,ENSG00000110046,ENSG00000086062,ENSG00000173918,ENSG00000163145,ENSG00000139178,ENSG00000130940,ENSG00000139899,ENSG00000198624,ENSG00000138764,ENSG00000179604,ENSG00000197622,ENSG00000124762,ENSG00000149187,ENSG00000135837,ENSG00000128849,ENSG00000136026,ENSG00000256043,ENSG00000161544,ENSG00000167600,ENSG00000111266,ENSG00000135766,ENSG00000110047,ENSG00000132185,ENSG00000171051,ENSG00000107249,ENSG00000125772,ENSG00000183484,ENSG00000180875,ENSG00000105856,ENSG00000206503,ENSG00000221887,ENSG00000153976,ENSG00000110324,ENSG00000197272,ENSG00000137265,ENSG00000243789,ENSG00000157551,ENSG00000184156,ENSG00000172578,ENSG00000139636,ENSG00000197324,ENSG00000127399,ENSG00000106780,ENSG00000205362,ENSG00000188786,ENSG00000100330,ENSG00000059728,ENSG00000134571,ENSG00000116990,ENSG00000173559,ENSG00000167207,ENSG00000148200,ENSG00000132823,ENSG00000113448,ENSG00000146247,ENSG00000126003,ENSG00000221866,ENSG00000175582,ENSG00000166128,ENSG00000125826,ENSG00000159200,ENSG00000137075,ENSG00000169855,ENSG00000048392,ENSG00000020633,ENSG00000160584,ENSG00000198053,ENSG00000110436,ENSG00000163393,ENSG00000158014,ENSG00000111371,ENSG00000183023,ENSG00000180251,ENSG00000086300,ENSG00000077327,ENSG00000186583,ENSG00000269404,ENSG00000168939,ENSG00000113739,ENSG00000135426,ENSG00000104067,ENSG00000170006,ENSG00000128872,ENSG00000123297,ENSG00000033178,ENSG00000182168,ENSG00000058056,ENSG00000186806,ENSG00000136367</t>
+  </si>
+  <si>
+    <t>hsa-miR-766-3p</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000008311,ENSG00000154265,ENSG00000160179,ENSG00000143322,ENSG00000196177,ENSG00000107897,ENSG00000087085,ENSG00000123130,ENSG00000151726,ENSG00000106526,ENSG00000139567,ENSG00000135074,ENSG00000042980,ENSG00000138316,ENSG00000087116,ENSG00000158859,ENSG00000185736,ENSG00000006831,ENSG00000128271,ENSG00000159322,ENSG00000155966,ENSG00000177674,ENSG00000042286,ENSG00000162433,ENSG00000131016,ENSG00000114019,ENSG00000174945,ENSG00000136859,ENSG00000167772,ENSG00000160117,ENSG00000164236,ENSG00000175311,ENSG00000163297,ENSG00000131471,ENSG00000138356,ENSG00000157823,ENSG00000100478,ENSG00000254470,ENSG00000138613,ENSG00000243811,ENSG00000128394,ENSG00000100342,ENSG00000128335,ENSG00000128284,ENSG00000221963,ENSG00000169083,ENSG00000242247,ENSG00000137727,ENSG00000179361,ENSG00000175906,ENSG00000172379,ENSG00000029153,ENSG00000205784,ENSG00000183734,ENSG00000110046,ENSG00000168874,ENSG00000185344,ENSG00000163635,ENSG00000121578,ENSG00000158470,ENSG00000156273,ENSG00000156127,ENSG00000168062,ENSG00000076108,ENSG00000114439,ENSG00000153094,ENSG00000121380,ENSG00000186174,ENSG00000167995,ENSG00000123095,ENSG00000106605,ENSG00000117475,ENSG00000125845,ENSG00000153162,ENSG00000176171,ENSG00000100916,ENSG00000119411,ENSG00000183826,ENSG00000112763,ENSG00000124508,ENSG00000026950,ENSG00000186470,ENSG00000167173,ENSG00000205710,ENSG00000131943,ENSG00000173918,ENSG00000181577,ENSG00000074410,ENSG00000185015,ENSG00000064989,ENSG00000070808,ENSG00000165806,ENSG00000130940,ENSG00000105971,ENSG00000160200,ENSG00000141582,ENSG00000167131,ENSG00000100147,ENSG00000152492,ENSG00000198624,ENSG00000169515,ENSG00000125633,ENSG00000108702,ENSG00000166946,ENSG00000138764,ENSG00000152669,ENSG00000260916,ENSG00000126353,ENSG00000107771,ENSG00000150637,ENSG00000186407,ENSG00000004468,ENSG00000173762,ENSG00000085117,ENSG00000143776,ENSG00000149798,ENSG00000179604,ENSG00000197622,ENSG00000101290,ENSG00000166446,ENSG00000149187,ENSG00000172292,ENSG00000172824,ENSG00000128849,ENSG00000173575,ENSG00000016391,ENSG00000064886,ENSG00000166664,ENSG00000171310,ENSG00000122863,ENSG00000079432,ENSG00000136026,ENSG00000163347,ENSG00000120885,ENSG00000134326,ENSG00000070729,ENSG00000143771,ENSG00000173786,ENSG00000242689,ENSG00000108582,ENSG00000203710,ENSG00000095321,ENSG00000121005,ENSG00000103196,ENSG00000144655,ENSG00000175215,ENSG00000116761,ENSG00000132792,ENSG00000141086,ENSG00000256043,ENSG00000161921,ENSG00000124875,ENSG00000138755,ENSG00000160683,ENSG00000100243,ENSG00000161544,ENSG00000172817,ENSG00000108669,ENSG00000139990,ENSG00000188215,ENSG00000119522,ENSG00000105339,ENSG00000184014,ENSG00000175084,ENSG00000100418,ENSG00000155011,ENSG00000150672,ENSG00000115137,ENSG00000111817,ENSG00000163840,ENSG00000120129,ENSG00000111266,ENSG00000120875,ENSG00000105246,ENSG00000186197,ENSG00000134109,ENSG00000184349,ENSG00000135766,ENSG00000129521,ENSG00000110047,ENSG00000173812,ENSG00000102034,ENSG00000126767,ENSG00000118985,ENSG00000154380,ENSG00000138185,ENSG00000129595,ENSG00000178567,ENSG00000177106,ENSG00000187672,ENSG00000178607,ENSG00000134954,ENSG00000158769,ENSG00000169122,ENSG00000150510,ENSG00000155744,ENSG00000154319,ENSG00000054965,ENSG00000026103,ENSG00000156860,ENSG00000108306,ENSG00000112234,ENSG00000132879,ENSG00000186431,ENSG00000143226,ENSG00000126262,ENSG00000185897,ENSG00000161958,ENSG00000075420,ENSG00000075426,ENSG00000171051,ENSG00000131482,ENSG00000033327,ENSG00000204681,ENSG00000130222,ENSG00000131386,ENSG00000143641,ENSG00000257594,ENSG00000162645,ENSG00000162654,ENSG00000183347,ENSG00000135968,ENSG00000023909,ENSG00000055211,ENSG00000198814,ENSG00000175066,ENSG00000135821,ENSG00000135677,ENSG00000204438,ENSG00000179399,ENSG00000115159,ENSG00000183484,ENSG00000158292,ENSG00000180758,ENSG00000126251,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000215045,ENSG00000198785,ENSG00000178719,ENSG00000100226,ENSG00000172432,ENSG00000049239,ENSG00000170961,ENSG00000113070,ENSG00000182782,ENSG00000165259,ENSG00000173706,ENSG00000130589,ENSG00000122557,ENSG00000206503,ENSG00000241106,ENSG00000136630,ENSG00000159184,ENSG00000113749,ENSG00000153976,ENSG00000117594,ENSG00000155304,ENSG00000126803,ENSG00000173110,ENSG00000090339,ENSG00000163600,ENSG00000188676,ENSG00000162783,ENSG00000169991,ENSG00000142166,ENSG00000159110,ENSG00000167244,ENSG00000073792,ENSG00000142549,ENSG00000113302,ENSG00000144730,ENSG00000100385,ENSG00000077238,ENSG00000104432,ENSG00000139269,ENSG00000125629,ENSG00000173404,ENSG00000134070,ENSG00000090376,ENSG00000198001,ENSG00000125347,ENSG00000137265,ENSG00000117595,ENSG00000185507,ENSG00000159556,ENSG00000213949,ENSG00000259207,ENSG00000113263,ENSG00000086544,ENSG00000148841,ENSG00000205730,ENSG00000105639,ENSG00000168970,ENSG00000114982,ENSG00000157551,ENSG00000173338,ENSG00000184156,ENSG00000117139,ENSG00000235750,ENSG00000149571,ENSG00000174996,ENSG00000155090,ENSG00000067082,ENSG00000130487,ENSG00000179454,ENSG00000172578,ENSG00000141068,ENSG00000174611,ENSG00000159166,ENSG00000078081,ENSG00000156959,ENSG00000182541,ENSG00000101670,ENSG00000164187,ENSG00000134013,ENSG00000197324,ENSG00000160285,ENSG00000160932,ENSG00000144063,ENSG00000156265,ENSG00000006432,ENSG00000152939,ENSG00000069020,ENSG00000185231,ENSG00000128285,ENSG00000197771,ENSG00000175471,ENSG00000140563,ENSG00000123066,ENSG00000103313,ENSG00000134138,ENSG00000101574,ENSG00000204520,ENSG00000087245,ENSG00000008516,ENSG00000169184,ENSG00000155363,ENSG00000205362,ENSG00000125144,ENSG00000205358,ENSG00000188786,ENSG00000065911,ENSG00000100330,ENSG00000183486,ENSG00000145555,ENSG00000136286,ENSG00000102921,ENSG00000173559,ENSG00000161653,ENSG00000141562,ENSG00000188505,ENSG00000189430,ENSG00000070614,ENSG00000235568,ENSG00000082641,ENSG00000144802,ENSG00000131669,ENSG00000172548,ENSG00000189134,ENSG00000140807,ENSG00000167034,ENSG00000140853,ENSG00000166741,ENSG00000106100,ENSG00000160113,ENSG00000148200,ENSG00000125841,ENSG00000065320,ENSG00000167693,ENSG00000135114,ENSG00000180304,ENSG00000119900,ENSG00000173391,ENSG00000160991,ENSG00000170909,ENSG00000145623,ENSG00000165312,ENSG00000135124,ENSG00000089041,ENSG00000072682,ENSG00000076641,ENSG00000145730,ENSG00000173193,ENSG00000183570,ENSG00000100889,ENSG00000168300,ENSG00000113448,ENSG00000160191,ENSG00000197461,ENSG00000100311,ENSG00000113721,ENSG00000152256,ENSG00000112378,ENSG00000170525,ENSG00000197121,ENSG00000173889,ENSG00000112511,ENSG00000040199,ENSG00000073921,ENSG00000198355,ENSG00000091622,ENSG00000145287,ENSG00000126003,ENSG00000011422,ENSG00000075651,ENSG00000116095,ENSG00000143850,ENSG00000090924,ENSG00000126822,ENSG00000178385,ENSG00000188313,ENSG00000221866,ENSG00000146281,ENSG00000124225,ENSG00000240694,ENSG00000135241,ENSG00000101751,ENSG00000185250,ENSG00000163644,ENSG00000087074,ENSG00000135447,ENSG00000173281,ENSG00000124224,ENSG00000196850,ENSG00000012211,ENSG00000171132,ENSG00000112619,ENSG00000126464,ENSG00000135378,ENSG00000167371,ENSG00000156011,ENSG00000041357,ENSG00000240065,ENSG00000169403,ENSG00000165186,ENSG00000148344,ENSG00000124212,ENSG00000073008,ENSG00000116260,ENSG00000129472,ENSG00000137502,ENSG00000179331,ENSG00000127328,ENSG00000172780,ENSG00000116191,ENSG00000089050,ENSG00000184898,ENSG00000124232,ENSG00000159200,ENSG00000173039,ENSG00000054967,ENSG00000092871,ENSG00000087903,ENSG00000187010,ENSG00000116574,ENSG00000151692,ENSG00000137393,ENSG00000163162,ENSG00000176641,ENSG00000141622,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000048392,ENSG00000146374,ENSG00000018189,ENSG00000159216,ENSG00000124813,ENSG00000020633,ENSG00000013392,ENSG00000163602,ENSG00000213694,ENSG00000213694,ENSG00000156671,ENSG00000074660,ENSG00000105711,ENSG00000000457,ENSG00000124145,ENSG00000135094,ENSG00000138593,ENSG00000196189,ENSG00000242550,ENSG00000170542,ENSG00000149131,ENSG00000197019,ENSG00000130766,ENSG00000163082,ENSG00000174705,ENSG00000108061,ENSG00000088827,ENSG00000197555,ENSG00000198053,ENSG00000177045,ENSG00000136603,ENSG00000018280,ENSG00000112394,ENSG00000110436,ENSG00000079215,ENSG00000163393,ENSG00000147454,ENSG00000173262,ENSG00000059804,ENSG00000160326,ENSG00000170385,ENSG00000158014,ENSG00000104154,ENSG00000136867,ENSG00000080189,ENSG00000111371,ENSG00000167703,ENSG00000111181,ENSG00000151012,ENSG00000103257,ENSG00000183023,ENSG00000100678,ENSG00000197818,ENSG00000176463,ENSG00000137571,ENSG00000166750,ENSG00000084070,ENSG00000101596,ENSG00000188817,ENSG00000086300,ENSG00000167208,ENSG00000185338,ENSG00000184557,ENSG00000112096,ENSG00000135899,ENSG00000105866,ENSG00000182957,ENSG00000186583,ENSG00000176170,ENSG00000269404,ENSG00000138600,ENSG00000168939,ENSG00000141380,ENSG00000110080,ENSG00000113532,ENSG00000170581,ENSG00000168610,ENSG00000127954,ENSG00000081320,ENSG00000148175,ENSG00000067221,ENSG00000196792,ENSG00000135604,ENSG00000173705,ENSG00000153157,ENSG00000182253,ENSG00000171992,ENSG00000172403,ENSG00000132718,ENSG00000204267,ENSG00000231925,ENSG00000065491,ENSG00000167202,ENSG00000111490,ENSG00000109436,ENSG00000073861,ENSG00000171703,ENSG00000204219,ENSG00000196663,ENSG00000129566,ENSG00000114126,ENSG00000105967,ENSG00000140682,ENSG00000177426,ENSG00000169231,ENSG00000130775,ENSG00000163659,ENSG00000104067,ENSG00000185561,ENSG00000135926,ENSG00000133069,ENSG00000146859,ENSG00000170006,ENSG00000166822,ENSG00000188760,ENSG00000198133,ENSG00000155755,ENSG00000196932,ENSG00000095209,ENSG00000183726,ENSG00000137216,ENSG00000125895,ENSG00000179104,ENSG00000232810,ENSG00000185215,ENSG00000145779,ENSG00000028137,ENSG00000120949,ENSG00000154310,ENSG00000145901,ENSG00000168884,ENSG00000100284,ENSG00000136816,ENSG00000078804,ENSG00000056558,ENSG00000056972,ENSG00000135148,ENSG00000112195,ENSG00000121060,ENSG00000163462,ENSG00000121236,ENSG00000116525,ENSG00000196428,ENSG00000085831,ENSG00000143367,ENSG00000150991,ENSG00000213886,ENSG00000173960,ENSG00000215114,ENSG00000144224,ENSG00000148154,ENSG00000111981,ENSG00000083290,ENSG00000130477,ENSG00000182168,ENSG00000058056,ENSG00000148429,ENSG00000168140,ENSG00000111424,ENSG00000143816,ENSG00000047644,ENSG00000132530,ENSG00000101966,ENSG00000114127,ENSG00000176105,ENSG00000119820,ENSG00000205189,ENSG00000116809,ENSG00000204186,ENSG00000188706,ENSG00000156639,ENSG00000136367,ENSG00000106261,ENSG00000196387,ENSG00000159915,ENSG00000198839,ENSG00000162702,ENSG00000188994,ENSG00000130818,ENSG00000125945,ENSG00000198342,ENSG00000243660,ENSG00000187187,ENSG00000102984,ENSG00000223547,ENSG00000180233,ENSG00000196812</t>
+  </si>
+  <si>
+    <t>hsa-miR-7974</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000165029,ENSG00000160179,ENSG00000143322,ENSG00000196177,ENSG00000087085,ENSG00000134575,ENSG00000139567,ENSG00000135074,ENSG00000138316,ENSG00000087116,ENSG00000158859,ENSG00000185736,ENSG00000148926,ENSG00000128165,ENSG00000159322,ENSG00000155966,ENSG00000173744,ENSG00000177674,ENSG00000042286,ENSG00000162433,ENSG00000109107,ENSG00000179593,ENSG00000198796,ENSG00000114019,ENSG00000133805,ENSG00000174945,ENSG00000136859,ENSG00000145362,ENSG00000148677,ENSG00000164236,ENSG00000185101,ENSG00000100478,ENSG00000034053,ENSG00000124701,ENSG00000128284,ENSG00000221963,ENSG00000169083,ENSG00000137727,ENSG00000134909,ENSG00000172379,ENSG00000140450,ENSG00000130707,ENSG00000110046,ENSG00000058063,ENSG00000185344,ENSG00000086062,ENSG00000158470,ENSG00000114439,ENSG00000069399,ENSG00000186174,ENSG00000167995,ENSG00000125845,ENSG00000153162,ENSG00000100916,ENSG00000151136,ENSG00000183826,ENSG00000112763,ENSG00000124508,ENSG00000186470,ENSG00000167173,ENSG00000205710,ENSG00000131943,ENSG00000125462,ENSG00000163145,ENSG00000139178,ENSG00000244731,ENSG00000224389,ENSG00000181577,ENSG00000074410,ENSG00000070808,ENSG00000165806,ENSG00000130940,ENSG00000198624,ENSG00000125633,ENSG00000108702,ENSG00000138764,ENSG00000152669,ENSG00000260916,ENSG00000160791,ENSG00000126353,ENSG00000120217,ENSG00000186407,ENSG00000173762,ENSG00000179604,ENSG00000124762,ENSG00000129355,ENSG00000101290,ENSG00000153046,ENSG00000166446,ENSG00000149187,ENSG00000172292,ENSG00000172824,ENSG00000128849,ENSG00000016391,ENSG00000129749,ENSG00000171310,ENSG00000175040,ENSG00000122863,ENSG00000169504,ENSG00000117519,ENSG00000173786,ENSG00000184144,ENSG00000106603,ENSG00000100473,ENSG00000108582,ENSG00000095321,ENSG00000150938,ENSG00000121005,ENSG00000103196,ENSG00000144655,ENSG00000132792,ENSG00000160683,ENSG00000115165,ENSG00000119522,ENSG00000175084,ENSG00000155011,ENSG00000186047,ENSG00000104093,ENSG00000147647,ENSG00000134755,ENSG00000138101,ENSG00000111266,ENSG00000120875,ENSG00000088881,ENSG00000117298,ENSG00000186197,ENSG00000184349,ENSG00000135766,ENSG00000110047,ENSG00000173812,ENSG00000062598,ENSG00000154380,ENSG00000138185,ENSG00000197217,ENSG00000082397,ENSG00000141736,ENSG00000124882,ENSG00000107566,ENSG00000010030,ENSG00000150510,ENSG00000173065,ENSG00000272414,ENSG00000026103,ENSG00000156860,ENSG00000108306,ENSG00000150337,ENSG00000198019,ENSG00000143226,ENSG00000161958,ENSG00000132589,ENSG00000075426,ENSG00000171049,ENSG00000033327,ENSG00000143641,ENSG00000117228,ENSG00000162645,ENSG00000162654,ENSG00000135968,ENSG00000023909,ENSG00000176928,ENSG00000198380,ENSG00000133561,ENSG00000121743,ENSG00000198814,ENSG00000175066,ENSG00000204438,ENSG00000179399,ENSG00000115159,ENSG00000183484,ENSG00000180758,ENSG00000013588,ENSG00000164294,ENSG00000023171,ENSG00000023171,ENSG00000106070,ENSG00000198785,ENSG00000178719,ENSG00000100226,ENSG00000151233,ENSG00000049239,ENSG00000206344,ENSG00000068024,ENSG00000165259,ENSG00000159399,ENSG00000136630,ENSG00000221887,ENSG00000158104,ENSG00000113749,ENSG00000125430,ENSG00000090339,ENSG00000163600,ENSG00000137331,ENSG00000137959,ENSG00000185201,ENSG00000142166,ENSG00000159110,ENSG00000146674,ENSG00000142549,ENSG00000123411,ENSG00000110324,ENSG00000144730,ENSG00000137496,ENSG00000077238,ENSG00000122641,ENSG00000248099,ENSG00000164675,ENSG00000090376,ENSG00000198001,ENSG00000125347,ENSG00000117595,ENSG00000159556,ENSG00000105855,ENSG00000086544,ENSG00000148841,ENSG00000205730,ENSG00000168970,ENSG00000180509,ENSG00000123700,ENSG00000184156,ENSG00000117139,ENSG00000147050,ENSG00000235750,ENSG00000174996,ENSG00000155090,ENSG00000067082,ENSG00000119138,ENSG00000118058,ENSG00000183762,ENSG00000141068,ENSG00000174611,ENSG00000159166,ENSG00000129988,ENSG00000043462,ENSG00000179241,ENSG00000108679,ENSG00000156959,ENSG00000182541,ENSG00000111052,ENSG00000101670,ENSG00000143013,ENSG00000164715,ENSG00000134013,ENSG00000197324,ENSG00000160285,ENSG00000160932,ENSG00000254087,ENSG00000088899,ENSG00000144063,ENSG00000013619,ENSG00000189221,ENSG00000006432,ENSG00000185231,ENSG00000140563,ENSG00000103313,ENSG00000134138,ENSG00000204520,ENSG00000133816,ENSG00000157227,ENSG00000079931,ENSG00000197965,ENSG00000153029,ENSG00000204839,ENSG00000178860,ENSG00000205362,ENSG00000100330,ENSG00000185499,ENSG00000059728,ENSG00000142661,ENSG00000102921,ENSG00000139597,ENSG00000138386,ENSG00000173559,ENSG00000161653,ENSG00000105835,ENSG00000141562,ENSG00000188554,ENSG00000104419,ENSG00000070614,ENSG00000185633,ENSG00000235568,ENSG00000082641,ENSG00000050344,ENSG00000100906,ENSG00000131669,ENSG00000172548,ENSG00000189134,ENSG00000140807,ENSG00000140853,ENSG00000160113,ENSG00000119508,ENSG00000148200,ENSG00000124785,ENSG00000178694,ENSG00000076685,ENSG00000065320,ENSG00000167693,ENSG00000180304,ENSG00000160991,ENSG00000099985,ENSG00000172818,ENSG00000135124,ENSG00000076641,ENSG00000110218,ENSG00000183570,ENSG00000168300,ENSG00000113448,ENSG00000162493,ENSG00000173889,ENSG00000146247,ENSG00000091622,ENSG00000126003,ENSG00000075651,ENSG00000126822,ENSG00000023902,ENSG00000114698,ENSG00000221866,ENSG00000124225,ENSG00000140464,ENSG00000240694,ENSG00000163605,ENSG00000112619,ENSG00000126464,ENSG00000167371,ENSG00000116132,ENSG00000156011,ENSG00000041357,ENSG00000152229,ENSG00000125384,ENSG00000124212,ENSG00000073008,ENSG00000116260,ENSG00000129472,ENSG00000137502,ENSG00000175582,ENSG00000116191,ENSG00000172819,ENSG00000123094,ENSG00000089050,ENSG00000125826,ENSG00000153250,ENSG00000172348,ENSG00000092871,ENSG00000131378,ENSG00000087903,ENSG00000187010,ENSG00000168421,ENSG00000115963,ENSG00000137393,ENSG00000163162,ENSG00000116514,ENSG00000173821,ENSG00000101236,ENSG00000137075,ENSG00000166592,ENSG00000133818,ENSG00000146374,ENSG00000159216,ENSG00000013392,ENSG00000163220,ENSG00000213694,ENSG00000213694,ENSG00000173432,ENSG00000177409,ENSG00000104112,ENSG00000136193,ENSG00000124145,ENSG00000146555,ENSG00000141574,ENSG00000091490,ENSG00000196189,ENSG00000187764,ENSG00000149131,ENSG00000187231,ENSG00000168878,ENSG00000174705,ENSG00000198053,ENSG00000117090,ENSG00000070915,ENSG00000112394,ENSG00000110436,ENSG00000163393,ENSG00000160326,ENSG00000158014,ENSG00000080189,ENSG00000167703,ENSG00000103257,ENSG00000180251,ENSG00000197818,ENSG00000137571,ENSG00000166750,ENSG00000084070,ENSG00000101596,ENSG00000198742,ENSG00000188817,ENSG00000178996,ENSG00000184557,ENSG00000112096,ENSG00000077327,ENSG00000182957,ENSG00000186583,ENSG00000075142,ENSG00000154548,ENSG00000168610,ENSG00000164543,ENSG00000130413,ENSG00000067221,ENSG00000132718,ENSG00000204267,ENSG00000101849,ENSG00000204219,ENSG00000196663,ENSG00000114126,ENSG00000129028,ENSG00000145365,ENSG00000251201,ENSG00000170006,ENSG00000002933,ENSG00000165685,ENSG00000128872,ENSG00000118503,ENSG00000145779,ENSG00000028137,ENSG00000120949,ENSG00000102524,ENSG00000078804,ENSG00000169902,ENSG00000102871,ENSG00000056558,ENSG00000056972,ENSG00000112195,ENSG00000112343,ENSG00000163462,ENSG00000100505,ENSG00000196428,ENSG00000157514,ENSG00000128881,ENSG00000072401,ENSG00000173960,ENSG00000215114,ENSG00000144224,ENSG00000130477,ENSG00000182168,ENSG00000058056,ENSG00000175073,ENSG00000127831,ENSG00000143816,ENSG00000132530,ENSG00000119820,ENSG00000156639,ENSG00000105278,ENSG00000106261,ENSG00000196387,ENSG00000204947,ENSG00000125945,ENSG00000243660,ENSG00000187187,ENSG00000102984,ENSG00000180233,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-885-5p</t>
+  </si>
+  <si>
+    <t>ENSG00000008311,ENSG00000165029,ENSG00000136379,ENSG00000136754,ENSG00000143322,ENSG00000196177,ENSG00000073670,ENSG00000114948,ENSG00000158859,ENSG00000177674,ENSG00000158467,ENSG00000131016,ENSG00000145362,ENSG00000176915,ENSG00000164236,ENSG00000175311,ENSG00000163297,ENSG00000124701,ENSG00000221963,ENSG00000103569,ENSG00000109321,ENSG00000137727,ENSG00000189079,ENSG00000172379,ENSG00000113369,ENSG00000140450,ENSG00000163635,ENSG00000121578,ENSG00000153094,ENSG00000123095,ENSG00000106605,ENSG00000125845,ENSG00000100916,ENSG00000112763,ENSG00000026950,ENSG00000186470,ENSG00000186665,ENSG00000131943,ENSG00000163145,ENSG00000074410,ENSG00000104327,ENSG00000070808,ENSG00000164305,ENSG00000198624,ENSG00000125633,ENSG00000260916,ENSG00000184451,ENSG00000107771,ENSG00000150637,ENSG00000004468,ENSG00000121594,ENSG00000112149,ENSG00000166446,ENSG00000149187,ENSG00000168944,ENSG00000086065,ENSG00000163347,ENSG00000169504,ENSG00000176571,ENSG00000242689,ENSG00000108582,ENSG00000271321,ENSG00000172817,ENSG00000115165,ENSG00000188215,ENSG00000134755,ENSG00000117298,ENSG00000126767,ENSG00000118985,ENSG00000154380,ENSG00000138185,ENSG00000178567,ENSG00000124882,ENSG00000117036,ENSG00000150510,ENSG00000155744,ENSG00000151327,ENSG00000272414,ENSG00000166147,ENSG00000108306,ENSG00000181036,ENSG00000132185,ENSG00000157827,ENSG00000075426,ENSG00000170802,ENSG00000171051,ENSG00000171049,ENSG00000131482,ENSG00000033327,ENSG00000131386,ENSG00000176928,ENSG00000198380,ENSG00000055211,ENSG00000175066,ENSG00000151948,ENSG00000179399,ENSG00000013588,ENSG00000164294,ENSG00000180875,ENSG00000198785,ENSG00000151233,ENSG00000105856,ENSG00000068024,ENSG00000122557,ENSG00000241106,ENSG00000204592,ENSG00000110756,ENSG00000153976,ENSG00000125430,ENSG00000126803,ENSG00000090339,ENSG00000188676,ENSG00000162783,ENSG00000152778,ENSG00000006652,ENSG00000146674,ENSG00000110324,ENSG00000164136,ENSG00000137496,ENSG00000136244,ENSG00000145103,ENSG00000139269,ENSG00000134070,ENSG00000137265,ENSG00000159556,ENSG00000213949,ENSG00000138448,ENSG00000148841,ENSG00000123700,ENSG00000184156,ENSG00000117139,ENSG00000147050,ENSG00000102554,ENSG00000183762,ENSG00000078081,ENSG00000101670,ENSG00000204020,ENSG00000164187,ENSG00000143013,ENSG00000198121,ENSG00000188906,ENSG00000144063,ENSG00000185231,ENSG00000143384,ENSG00000197771,ENSG00000175471,ENSG00000140563,ENSG00000111554,ENSG00000106780,ENSG00000155545,ENSG00000133606,ENSG00000169184,ENSG00000197965,ENSG00000153029,ENSG00000185499,ENSG00000059728,ENSG00000119950,ENSG00000145555,ENSG00000142661,ENSG00000138386,ENSG00000104320,ENSG00000082641,ENSG00000140807,ENSG00000153234,ENSG00000119508,ENSG00000076685,ENSG00000065320,ENSG00000163545,ENSG00000167693,ENSG00000089127,ENSG00000160991,ENSG00000165312,ENSG00000122884,ENSG00000076641,ENSG00000110218,ENSG00000111224,ENSG00000173193,ENSG00000113448,ENSG00000152256,ENSG00000112378,ENSG00000197121,ENSG00000173889,ENSG00000040199,ENSG00000085514,ENSG00000117215,ENSG00000075651,ENSG00000116095,ENSG00000178385,ENSG00000148735,ENSG00000221866,ENSG00000140464,ENSG00000101751,ENSG00000121577,ENSG00000185250,ENSG00000158615,ENSG00000196850,ENSG00000057657,ENSG00000152784,ENSG00000101000,ENSG00000112619,ENSG00000116132,ENSG00000156011,ENSG00000240065,ENSG00000073008,ENSG00000107560,ENSG00000137502,ENSG00000127328,ENSG00000166128,ENSG00000116191,ENSG00000123728,ENSG00000165105,ENSG00000172575,ENSG00000123094,ENSG00000080298,ENSG00000144468,ENSG00000164327,ENSG00000176641,ENSG00000166439,ENSG00000116514,ENSG00000173821,ENSG00000133818,ENSG00000136514,ENSG00000018189,ENSG00000205413,ENSG00000126524,ENSG00000104112,ENSG00000105711,ENSG00000138593,ENSG00000075223,ENSG00000149131,ENSG00000187231,ENSG00000136603,ENSG00000026751,ENSG00000070915,ENSG00000112394,ENSG00000111371,ENSG00000134294,ENSG00000151012,ENSG00000183023,ENSG00000166750,ENSG00000124216,ENSG00000023608,ENSG00000112096,ENSG00000104450,ENSG00000182957,ENSG00000168939,ENSG00000075142,ENSG00000184005,ENSG00000035720,ENSG00000168610,ENSG00000081320,ENSG00000130413,ENSG00000067221,ENSG00000135604,ENSG00000182253,ENSG00000172403,ENSG00000111490,ENSG00000135269,ENSG00000105967,ENSG00000173451,ENSG00000145365,ENSG00000146859,ENSG00000170006,ENSG00000152128,ENSG00000196932,ENSG00000165071,ENSG00000136842,ENSG00000145779,ENSG00000056558,ENSG00000056972,ENSG00000100505,ENSG00000102804,ENSG00000196428,ENSG00000145777,ENSG00000085831,ENSG00000162971,ENSG00000144224,ENSG00000111981,ENSG00000182168,ENSG00000148429,ENSG00000038427,ENSG00000147852,ENSG00000114251,ENSG00000176105,ENSG00000119820,ENSG00000205189,ENSG00000106261,ENSG00000196387,ENSG00000162702,ENSG00000188994,ENSG00000125945,ENSG00000180233,ENSG00000196812,ENSG00000198455</t>
+  </si>
+  <si>
+    <t>hsa-miR-941</t>
+  </si>
+  <si>
+    <t>ENSG00000124608,ENSG00000143322,ENSG00000185736,ENSG00000155966,ENSG00000254470,ENSG00000100298,ENSG00000100342,ENSG00000221963,ENSG00000134909,ENSG00000151693,ENSG00000169136,ENSG00000185344,ENSG00000186174,ENSG00000112763,ENSG00000124508,ENSG00000130940,ENSG00000126353,ENSG00000101290,ENSG00000174799,ENSG00000174007,ENSG00000122863,ENSG00000079432,ENSG00000070729,ENSG00000100473,ENSG00000103196,ENSG00000115165,ENSG00000170464,ENSG00000134954,ENSG00000139083,ENSG00000010030,ENSG00000126262,ENSG00000075426,ENSG00000171051,ENSG00000131482,ENSG00000257594,ENSG00000198380,ENSG00000055211,ENSG00000204438,ENSG00000122557,ENSG00000221887,ENSG00000173110,ENSG00000142166,ENSG00000159110,ENSG00000134470,ENSG00000132510,ENSG00000149571,ENSG00000156959,ENSG00000204577,ENSG00000189067,ENSG00000171236,ENSG00000121931,ENSG00000160285,ENSG00000128285,ENSG00000106780,ENSG00000169184,ENSG00000178860,ENSG00000157601,ENSG00000188554,ENSG00000158517,ENSG00000166579,ENSG00000070614,ENSG00000185633,ENSG00000131669,ENSG00000065320,ENSG00000167693,ENSG00000205927,ENSG00000160991,ENSG00000076641,ENSG00000075651,ENSG00000090924,ENSG00000126822,ENSG00000124225,ENSG00000146278,ENSG00000167371,ENSG00000175354,ENSG00000172780,ENSG00000124232,ENSG00000092871,ENSG00000101782,ENSG00000101236,ENSG00000151748,ENSG00000136193,ENSG00000163082,ENSG00000162105,ENSG00000018280,ENSG00000147454,ENSG00000117394,ENSG00000167703,ENSG00000256235,ENSG00000198742,ENSG00000120833,ENSG00000138600,ENSG00000113532,ENSG00000113739,ENSG00000172403,ENSG00000114126,ENSG00000140682,ENSG00000145779,ENSG00000136816,ENSG00000056558,ENSG00000163462,ENSG00000259024,ENSG00000150991,ENSG00000173960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1024,14 +1289,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1333,4 +1601,518 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4E95ED-9D5C-4C79-B019-68805822F7DA}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>